--- a/gd/技能逻辑/技能逻辑.xlsx
+++ b/gd/技能逻辑/技能逻辑.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="3795" windowWidth="32265" windowHeight="16440"/>
+    <workbookView xWindow="6045" yWindow="3795" windowWidth="32265" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="普通技能逻辑" sheetId="3" r:id="rId1"/>
-    <sheet name="Buff添加与结算流图" sheetId="5" r:id="rId2"/>
-    <sheet name="AI逻辑" sheetId="7" r:id="rId3"/>
-    <sheet name="大招逻辑" sheetId="1" r:id="rId4"/>
-    <sheet name="大招流程图" sheetId="2" r:id="rId5"/>
-    <sheet name="技能设计规范" sheetId="6" r:id="rId6"/>
-    <sheet name="自用" sheetId="4" r:id="rId7"/>
+    <sheet name="导表说明" sheetId="8" r:id="rId2"/>
+    <sheet name="Buff添加与结算流图" sheetId="5" r:id="rId3"/>
+    <sheet name="AI逻辑" sheetId="7" r:id="rId4"/>
+    <sheet name="大招逻辑" sheetId="1" r:id="rId5"/>
+    <sheet name="大招流程图" sheetId="2" r:id="rId6"/>
+    <sheet name="技能设计规范" sheetId="6" r:id="rId7"/>
+    <sheet name="自用" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="842">
   <si>
     <t>怪物大招逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,9 +492,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>EffectPersistent</t>
-  </si>
-  <si>
     <t>可以通过此项配置决定技能在m_ValidatePos后延迟一段时间生效另一个Effect</t>
   </si>
   <si>
@@ -501,9 +499,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>起始延迟和结束延迟，可以理解为针对单个Effect的延迟操作</t>
-  </si>
-  <si>
     <t>只需要配置1个延迟时间和延迟时间到后需要触发的Effect</t>
   </si>
   <si>
@@ -745,10 +740,6 @@
   <si>
     <t>填写m_AmountFunction后自动忽略原技能系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能攻击力百分比</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>按照施法者的攻击力百分比进行计算</t>
@@ -2332,40 +2323,6 @@
   </si>
   <si>
     <t>技能固定伤害提升系数Q：每升一级技能等级对技能固定伤害带来的加成（百分比，每个技能均会配置）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能升级表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于对应技能等级与提升系数K与Q的关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能伤害系数提升系数k</t>
-  </si>
-  <si>
-    <t>技能固定伤害提升系数Q</t>
-  </si>
-  <si>
-    <t>factorUpgrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valueUpgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3134,6 +3091,382 @@
   </si>
   <si>
     <t>区分替代逻辑，驱散规则和特殊标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能升级系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害系数提升系数k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>用于对应技能等级与提升系数K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的关系</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能提升系数k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击力百分比</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定升一级该技能带来技能攻击力百分比的改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect表格参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>effectID</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>#技能ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect根节点effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>casterType</t>
+  </si>
+  <si>
+    <t>targetType</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>searchEffect</t>
+  </si>
+  <si>
+    <t>effectStartID</t>
+  </si>
+  <si>
+    <t>startDelay</t>
+  </si>
+  <si>
+    <t>periodEffectList</t>
+  </si>
+  <si>
+    <t>damageType</t>
+  </si>
+  <si>
+    <t>attackFactor</t>
+  </si>
+  <si>
+    <t>isHeal</t>
+  </si>
+  <si>
+    <t>damageProp</t>
+  </si>
+  <si>
+    <t>buffID</t>
+  </si>
+  <si>
+    <t>e2;e3;e4;e5</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>effect类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energyCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子effect节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索触发的effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始延迟和结束延迟，可以理解为针对单个Effect的延迟操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发buffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodEffect</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>strengthRatio</t>
+  </si>
+  <si>
+    <t>intelligenceRatio</t>
+  </si>
+  <si>
+    <t>defenseRatio</t>
+  </si>
+  <si>
+    <t>speedRatio</t>
+  </si>
+  <si>
+    <t>gm</t>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#effectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#buffID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期触发buff的effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期触发buff次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invincible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectPersistent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=set，1=search，2=Persistent，3=damage，4=applybuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放者类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择目标个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵营（敌方/友方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始触发的Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟effect（表示在起始effect基础上延迟0触发e4，延迟1触发e4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=目标，1=施法者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方=0，敌方=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始延迟时间（单位为s）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|e4;1|e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为0;e4|1;e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=物理，1=魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=否，1=是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=金，2=木，3=水，4=火，5=土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放此effect带来的能量提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能提升系数K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写的为提升百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级分隔符为；二级分隔符为|</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3270,7 +3603,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3328,6 +3661,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3439,7 +3784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3710,16 +4055,25 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="12" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3820,13 +4174,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>212271</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>113379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>540308</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7101,14 +7455,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>969065</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>197954</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>98283</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7117,10 +7471,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3055040" y="9052063"/>
-          <a:ext cx="4581111" cy="2252041"/>
+          <a:off x="3055040" y="8842512"/>
+          <a:ext cx="4581111" cy="2152371"/>
           <a:chOff x="3321326" y="8928652"/>
-          <a:chExt cx="4464326" cy="2227194"/>
+          <a:chExt cx="4464326" cy="2128624"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -7356,109 +7710,6 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="158" name="直接箭头连接符 50"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="159" idx="3"/>
-            <a:endCxn id="14" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="4506568" y="9918034"/>
-            <a:ext cx="2020128" cy="923487"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector3">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 54595"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="3">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="流程图: 文档 158"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3420718" y="10527196"/>
-            <a:ext cx="1085850" cy="628650"/>
-          </a:xfrm>
-          <a:prstGeom prst="flowChartDocument">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>技能升级表</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-              <a:t>配置文件</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="170" name="流程图: 文档 169"/>
@@ -15714,8 +15965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H338" sqref="H338"/>
+    <sheetView topLeftCell="B268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15737,7 +15988,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C2" s="76" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
@@ -15759,7 +16010,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>50</v>
@@ -15788,7 +16039,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C8" s="76" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D8" s="76"/>
       <c r="E8" s="76"/>
@@ -15811,19 +16062,19 @@
     <row r="10" spans="1:29" s="77" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="78"/>
       <c r="C10" s="83" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C11" s="11"/>
       <c r="E11" s="70" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
@@ -15852,7 +16103,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C12" s="11"/>
       <c r="E12" s="70" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F12" s="70"/>
       <c r="G12" s="70"/>
@@ -15883,7 +16134,7 @@
       <c r="C13" s="11"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
@@ -15912,7 +16163,7 @@
       <c r="C14" s="11"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
@@ -15943,7 +16194,7 @@
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
@@ -15970,14 +16221,14 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C16" s="11"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
       <c r="H16" s="70" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="I16" s="70"/>
       <c r="J16" s="70"/>
@@ -16004,7 +16255,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C17" s="11"/>
       <c r="E17" s="70" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
@@ -16035,7 +16286,7 @@
       <c r="C18" s="11"/>
       <c r="E18" s="70"/>
       <c r="F18" s="70" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
@@ -16063,12 +16314,12 @@
     </row>
     <row r="19" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C19" s="11"/>
       <c r="E19" s="70"/>
       <c r="F19" s="70" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
@@ -16098,7 +16349,7 @@
       <c r="C20" s="11"/>
       <c r="E20" s="70"/>
       <c r="F20" s="70" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
@@ -16128,7 +16379,7 @@
       <c r="C21" s="11"/>
       <c r="E21" s="70"/>
       <c r="F21" s="70" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
@@ -16158,7 +16409,7 @@
       <c r="C22" s="11"/>
       <c r="E22" s="70"/>
       <c r="F22" s="47" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
@@ -16189,7 +16440,7 @@
       <c r="C23" s="83"/>
       <c r="E23" s="83"/>
       <c r="F23" s="76" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G23" s="76"/>
       <c r="H23" s="83"/>
@@ -16218,7 +16469,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C24" s="11"/>
       <c r="E24" s="70" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
@@ -16249,7 +16500,7 @@
       <c r="C25" s="11"/>
       <c r="E25" s="70"/>
       <c r="F25" s="70" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G25" s="70"/>
       <c r="H25" s="70"/>
@@ -16277,13 +16528,13 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C26" s="11"/>
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
       <c r="G26" s="70" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="70"/>
@@ -16310,13 +16561,13 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C27" s="11"/>
       <c r="E27" s="70"/>
       <c r="F27" s="70"/>
       <c r="G27" s="70" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="70"/>
@@ -16346,7 +16597,7 @@
       <c r="E28" s="70"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H28" s="70"/>
       <c r="I28" s="70"/>
@@ -16376,7 +16627,7 @@
       <c r="E29" s="70"/>
       <c r="F29" s="70"/>
       <c r="G29" s="70" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="70"/>
@@ -16405,7 +16656,7 @@
       <c r="C30" s="11"/>
       <c r="E30" s="70"/>
       <c r="F30" s="47" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -16436,7 +16687,7 @@
       <c r="E31" s="70"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
@@ -16466,7 +16717,7 @@
       <c r="E32" s="70"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47"/>
@@ -16496,7 +16747,7 @@
       <c r="E33" s="70"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
@@ -16526,7 +16777,7 @@
       <c r="E34" s="70"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
@@ -16554,7 +16805,7 @@
     <row r="35" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C35" s="11"/>
       <c r="E35" s="70" t="s">
-        <v>572</v>
+        <v>744</v>
       </c>
       <c r="F35" s="70"/>
       <c r="G35" s="70"/>
@@ -16585,7 +16836,7 @@
       <c r="C36" s="11"/>
       <c r="E36" s="70"/>
       <c r="F36" s="70" t="s">
-        <v>573</v>
+        <v>746</v>
       </c>
       <c r="G36" s="70"/>
       <c r="H36" s="70"/>
@@ -16614,11 +16865,13 @@
     <row r="37" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C37" s="11"/>
       <c r="E37" s="70"/>
-      <c r="F37" s="70" t="s">
-        <v>574</v>
-      </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
+      <c r="F37" s="91" t="s">
+        <v>750</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>745</v>
+      </c>
+      <c r="H37" s="91"/>
       <c r="I37" s="70"/>
       <c r="J37" s="70"/>
       <c r="K37" s="70"/>
@@ -16644,12 +16897,8 @@
     <row r="38" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C38" s="11"/>
       <c r="E38" s="70"/>
-      <c r="F38" s="70" t="s">
-        <v>576</v>
-      </c>
-      <c r="G38" s="70" t="s">
-        <v>575</v>
-      </c>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
       <c r="H38" s="70"/>
       <c r="I38" s="70"/>
       <c r="J38" s="70"/>
@@ -16676,13 +16925,9 @@
     <row r="39" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C39" s="11"/>
       <c r="E39" s="70"/>
-      <c r="F39" s="70" t="s">
-        <v>579</v>
-      </c>
-      <c r="G39" s="70" t="s">
-        <v>577</v>
-      </c>
-      <c r="H39" s="70"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
       <c r="I39" s="70"/>
       <c r="J39" s="70"/>
       <c r="K39" s="70"/>
@@ -16708,13 +16953,9 @@
     <row r="40" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C40" s="11"/>
       <c r="E40" s="70"/>
-      <c r="F40" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>578</v>
-      </c>
-      <c r="H40" s="47"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
       <c r="I40" s="70"/>
       <c r="J40" s="70"/>
       <c r="K40" s="70"/>
@@ -17187,321 +17428,325 @@
     </row>
     <row r="57" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C57" s="11"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="70"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="70"/>
-      <c r="N57" s="70"/>
-      <c r="O57" s="70"/>
-      <c r="P57" s="70"/>
-      <c r="Q57" s="70"/>
-      <c r="R57" s="70"/>
-      <c r="S57" s="70"/>
-      <c r="T57" s="70"/>
-      <c r="U57" s="70"/>
-      <c r="V57" s="70"/>
-      <c r="W57" s="70"/>
-      <c r="X57" s="70"/>
-      <c r="Y57" s="70"/>
-      <c r="Z57" s="70"/>
-      <c r="AA57" s="70"/>
-      <c r="AB57" s="70"/>
-      <c r="AC57" s="70"/>
     </row>
     <row r="58" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="C58" s="11"/>
+      <c r="C58" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="C59" s="10" t="s">
-        <v>57</v>
+      <c r="D59" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="D60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.15">
-      <c r="C61" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.15">
+      <c r="L64" s="5"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.15">
       <c r="L65" s="5"/>
     </row>
-    <row r="66" spans="12:12" x14ac:dyDescent="0.15">
-      <c r="L66" s="5"/>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C84" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="12"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C85" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C86" s="12"/>
       <c r="D86" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C87" s="12"/>
       <c r="D87" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C88" s="12"/>
       <c r="D88" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C89" s="12"/>
-      <c r="D89" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="C89" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C90" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C91" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C92" s="12"/>
-      <c r="D92" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E92" s="12"/>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C93" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C94" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C95" s="12"/>
-      <c r="D95" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E95" s="12"/>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C96" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C97" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="E97" s="12"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C98" s="12"/>
-      <c r="D98" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E98" s="12"/>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="8"/>
+      <c r="B99" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="8"/>
-      <c r="B100" s="2" t="s">
-        <v>72</v>
+      <c r="C100" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C101" s="3" t="s">
-        <v>73</v>
+      <c r="D101" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D102" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D103" s="3" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C104" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C105" s="3" t="s">
-        <v>76</v>
+      <c r="D105" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D106" s="13" t="s">
-        <v>77</v>
+      <c r="E106" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E107" s="3" t="s">
-        <v>78</v>
+      <c r="F107" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F108" s="14" t="s">
-        <v>79</v>
+      <c r="E108" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E109" s="3" t="s">
-        <v>80</v>
+      <c r="F109" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F110" s="3" t="s">
-        <v>81</v>
+      <c r="E110" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E111" s="3" t="s">
-        <v>82</v>
+      <c r="F111" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F112" s="3" t="s">
-        <v>83</v>
+      <c r="E112" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E113" s="3" t="s">
-        <v>84</v>
+      <c r="F113" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F114" s="3" t="s">
-        <v>85</v>
+      <c r="E114" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E115" s="3" t="s">
-        <v>86</v>
+      <c r="F115" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F116" s="3" t="s">
-        <v>87</v>
+      <c r="E116" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E117" s="3" t="s">
-        <v>88</v>
+      <c r="F117" s="14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F118" s="14" t="s">
-        <v>89</v>
+      <c r="E118" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E119" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F120" s="64" t="s">
-        <v>618</v>
+      <c r="F119" s="64" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C121" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C122" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D123" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E122" s="3" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C124" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C125" s="3" t="s">
-        <v>92</v>
+      <c r="D125" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="D126" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>94</v>
+      <c r="F126" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="F127" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="E127" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="E128" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="G128" s="15"/>
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="E129" s="15"/>
-      <c r="F129" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
+      <c r="D129" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D130" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="D131" s="3" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="C132" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="C133" s="3" t="s">
-        <v>100</v>
+      <c r="D133" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D134" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.15">
       <c r="D135" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="D136" s="3" t="s">
         <v>103</v>
       </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A137" s="30"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="15"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="15"/>
+      <c r="R137" s="15"/>
+      <c r="S137" s="15"/>
+      <c r="T137" s="15"/>
+      <c r="U137" s="15"/>
+      <c r="V137" s="15"/>
+      <c r="W137" s="15"/>
+      <c r="X137" s="15"/>
+      <c r="Y137" s="15"/>
+      <c r="Z137" s="15"/>
+      <c r="AA137" s="15"/>
+      <c r="AB137" s="15"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A138" s="30"/>
       <c r="B138" s="15"/>
-      <c r="C138" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="E138" s="15"/>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
@@ -17531,10 +17776,10 @@
       <c r="A139" s="30"/>
       <c r="B139" s="15"/>
       <c r="C139" s="15"/>
-      <c r="D139" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
@@ -17565,7 +17810,7 @@
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
@@ -17597,7 +17842,7 @@
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
@@ -17625,111 +17870,98 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A142" s="30"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
-      <c r="O142" s="15"/>
-      <c r="P142" s="15"/>
-      <c r="Q142" s="15"/>
-      <c r="R142" s="15"/>
-      <c r="S142" s="15"/>
-      <c r="T142" s="15"/>
-      <c r="U142" s="15"/>
-      <c r="V142" s="15"/>
-      <c r="W142" s="15"/>
-      <c r="X142" s="15"/>
-      <c r="Y142" s="15"/>
-      <c r="Z142" s="15"/>
-      <c r="AA142" s="15"/>
-      <c r="AB142" s="15"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A143" s="30"/>
+      <c r="C143" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A144" s="30"/>
-      <c r="C144" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A145" s="30"/>
-      <c r="D145" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="75"/>
+      <c r="C145" s="70" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="75"/>
-      <c r="C146" s="70" t="s">
-        <v>472</v>
+      <c r="D146" s="70" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="75"/>
       <c r="D147" s="70" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
     </row>
     <row r="148" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="75"/>
-      <c r="D148" s="70" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="75"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A149" s="30"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A150" s="30"/>
+      <c r="A150" s="49"/>
+      <c r="B150" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A151" s="49"/>
-      <c r="B151" s="2" t="s">
-        <v>111</v>
+      <c r="C151" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C152" s="3" t="s">
-        <v>112</v>
+      <c r="D152" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D153" s="3" t="s">
-        <v>113</v>
+      <c r="E153" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E154" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E155" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E156" s="3" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D157" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="85"/>
+      <c r="M157" s="85"/>
+      <c r="N157" s="85"/>
+      <c r="O157" s="85"/>
+      <c r="P157" s="85"/>
+      <c r="Q157" s="85"/>
+      <c r="R157" s="85"/>
+    </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D158" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="E158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85" t="s">
+        <v>118</v>
+      </c>
       <c r="F158" s="85"/>
       <c r="G158" s="85"/>
       <c r="H158" s="85"/>
@@ -17746,10 +17978,10 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D159" s="85"/>
-      <c r="E159" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="F159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85" t="s">
+        <v>119</v>
+      </c>
       <c r="G159" s="85"/>
       <c r="H159" s="85"/>
       <c r="I159" s="85"/>
@@ -17766,9 +17998,7 @@
     <row r="160" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D160" s="85"/>
       <c r="E160" s="85"/>
-      <c r="F160" s="85" t="s">
-        <v>119</v>
-      </c>
+      <c r="F160" s="85"/>
       <c r="G160" s="85"/>
       <c r="H160" s="85"/>
       <c r="I160" s="85"/>
@@ -17784,7 +18014,9 @@
     </row>
     <row r="161" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D161" s="85"/>
-      <c r="E161" s="85"/>
+      <c r="E161" s="85" t="s">
+        <v>689</v>
+      </c>
       <c r="F161" s="85"/>
       <c r="G161" s="85"/>
       <c r="H161" s="85"/>
@@ -17801,44 +18033,30 @@
     </row>
     <row r="162" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D162" s="85"/>
-      <c r="E162" s="85" t="s">
-        <v>701</v>
-      </c>
-      <c r="F162" s="85"/>
-      <c r="G162" s="85"/>
-      <c r="H162" s="85"/>
-      <c r="I162" s="85"/>
-      <c r="J162" s="85"/>
-      <c r="K162" s="85"/>
-      <c r="L162" s="85"/>
-      <c r="M162" s="85"/>
-      <c r="N162" s="85"/>
-      <c r="O162" s="85"/>
-      <c r="P162" s="85"/>
-      <c r="Q162" s="85"/>
+      <c r="E162" s="85"/>
+      <c r="F162" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="G162" s="86"/>
+      <c r="H162" s="86"/>
+      <c r="I162" s="86"/>
+      <c r="J162" s="86"/>
+      <c r="K162" s="86"/>
+      <c r="L162" s="86"/>
+      <c r="M162" s="86"/>
+      <c r="N162" s="86"/>
+      <c r="O162" s="86"/>
+      <c r="P162" s="86"/>
+      <c r="Q162" s="86"/>
       <c r="R162" s="85"/>
     </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D163" s="85"/>
-      <c r="E163" s="85"/>
-      <c r="F163" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="G163" s="86"/>
-      <c r="H163" s="86"/>
-      <c r="I163" s="86"/>
-      <c r="J163" s="86"/>
-      <c r="K163" s="86"/>
-      <c r="L163" s="86"/>
-      <c r="M163" s="86"/>
-      <c r="N163" s="86"/>
-      <c r="O163" s="86"/>
-      <c r="P163" s="86"/>
-      <c r="Q163" s="86"/>
-      <c r="R163" s="85"/>
+    <row r="164" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="D164" s="3" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="165" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="D165" s="3" t="s">
+      <c r="E165" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -17847,40 +18065,53 @@
         <v>122</v>
       </c>
     </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="E167" s="3" t="s">
-        <v>123</v>
+    <row r="168" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="F168" s="3" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="169" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F169" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="3:18" x14ac:dyDescent="0.15">
+      <c r="F171" s="3" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="F170" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="172" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F172" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F173" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="174" spans="3:18" x14ac:dyDescent="0.15">
-      <c r="F174" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+      <c r="M174" s="11"/>
+      <c r="N174" s="11"/>
+      <c r="O174" s="11"/>
+      <c r="P174" s="11"/>
     </row>
     <row r="175" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
+      <c r="E175" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -17896,10 +18127,10 @@
     <row r="176" spans="3:18" x14ac:dyDescent="0.15">
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
-      <c r="E176" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
@@ -17915,10 +18146,10 @@
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
       <c r="E177" s="11"/>
-      <c r="F177" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
       <c r="J177" s="11"/>
@@ -17935,7 +18166,7 @@
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
@@ -17952,10 +18183,10 @@
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
       <c r="F179" s="11"/>
-      <c r="G179" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="H179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="I179" s="11"/>
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
@@ -17972,7 +18203,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I180" s="11"/>
       <c r="J180" s="11"/>
@@ -17989,9 +18220,7 @@
       <c r="E181" s="11"/>
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
-      <c r="H181" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="H181" s="11"/>
       <c r="I181" s="11"/>
       <c r="J181" s="11"/>
       <c r="K181" s="11"/>
@@ -18004,7 +18233,9 @@
     <row r="182" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
+      <c r="E182" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
@@ -18020,10 +18251,10 @@
     <row r="183" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
-      <c r="E183" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
       <c r="I183" s="11"/>
@@ -18040,7 +18271,7 @@
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -18057,9 +18288,7 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
-      <c r="F185" s="11" t="s">
-        <v>137</v>
-      </c>
+      <c r="F185" s="11"/>
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
@@ -18073,7 +18302,9 @@
     </row>
     <row r="186" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+      <c r="D186" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
@@ -18088,38 +18319,33 @@
       <c r="P186" s="11"/>
     </row>
     <row r="187" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C187" s="11"/>
-      <c r="D187" s="11" t="s">
+      <c r="E187" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="F188" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="11"/>
-      <c r="O187" s="11"/>
-      <c r="P187" s="11"/>
-    </row>
-    <row r="188" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E188" s="3" t="s">
+    </row>
+    <row r="190" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="F190" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="G190" s="85"/>
+      <c r="H190" s="85"/>
+      <c r="I190" s="85"/>
+      <c r="J190" s="85"/>
+      <c r="K190" s="85"/>
+      <c r="L190" s="85"/>
+      <c r="M190" s="85"/>
+      <c r="N190" s="85"/>
+    </row>
+    <row r="191" spans="3:16" x14ac:dyDescent="0.15">
+      <c r="F191" s="85"/>
+      <c r="G191" s="85" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="189" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="F189" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="191" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="F191" s="85" t="s">
-        <v>702</v>
-      </c>
-      <c r="G191" s="85"/>
       <c r="H191" s="85"/>
       <c r="I191" s="85"/>
       <c r="J191" s="85"/>
@@ -18130,9 +18356,7 @@
     </row>
     <row r="192" spans="3:16" x14ac:dyDescent="0.15">
       <c r="F192" s="85"/>
-      <c r="G192" s="85" t="s">
-        <v>141</v>
-      </c>
+      <c r="G192" s="85"/>
       <c r="H192" s="85"/>
       <c r="I192" s="85"/>
       <c r="J192" s="85"/>
@@ -18142,7 +18366,9 @@
       <c r="N192" s="85"/>
     </row>
     <row r="193" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F193" s="85"/>
+      <c r="F193" s="85" t="s">
+        <v>140</v>
+      </c>
       <c r="G193" s="85"/>
       <c r="H193" s="85"/>
       <c r="I193" s="85"/>
@@ -18153,10 +18379,10 @@
       <c r="N193" s="85"/>
     </row>
     <row r="194" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F194" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="G194" s="85"/>
+      <c r="F194" s="85"/>
+      <c r="G194" s="85" t="s">
+        <v>141</v>
+      </c>
       <c r="H194" s="85"/>
       <c r="I194" s="85"/>
       <c r="J194" s="85"/>
@@ -18165,227 +18391,238 @@
       <c r="M194" s="85"/>
       <c r="N194" s="85"/>
     </row>
-    <row r="195" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F195" s="85"/>
-      <c r="G195" s="85" t="s">
+    <row r="196" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F196" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="197" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="G197" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H195" s="85"/>
-      <c r="I195" s="85"/>
-      <c r="J195" s="85"/>
-      <c r="K195" s="85"/>
-      <c r="L195" s="85"/>
-      <c r="M195" s="85"/>
-      <c r="N195" s="85"/>
-    </row>
-    <row r="197" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F197" s="3" t="s">
+    </row>
+    <row r="198" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F198" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="198" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G198" s="3" t="s">
+    <row r="199" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="G199" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="199" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="F199" s="3" t="s">
+    <row r="200" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="H200" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G200" s="3" t="s">
+    <row r="201" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="G201" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="201" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="H201" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
     <row r="202" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G202" s="3" t="s">
-        <v>149</v>
+      <c r="H202" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="H203" s="3" t="s">
-        <v>148</v>
-      </c>
+      <c r="G203" s="85" t="s">
+        <v>691</v>
+      </c>
+      <c r="H203" s="85"/>
+      <c r="I203" s="85"/>
+      <c r="J203" s="85"/>
     </row>
     <row r="204" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G204" s="85" t="s">
-        <v>703</v>
-      </c>
-      <c r="H204" s="85"/>
+      <c r="G204" s="85"/>
+      <c r="H204" s="85" t="s">
+        <v>692</v>
+      </c>
       <c r="I204" s="85"/>
       <c r="J204" s="85"/>
     </row>
     <row r="205" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G205" s="85"/>
-      <c r="H205" s="85" t="s">
-        <v>704</v>
-      </c>
+      <c r="G205" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="H205" s="85"/>
       <c r="I205" s="85"/>
       <c r="J205" s="85"/>
     </row>
     <row r="206" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G206" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="H206" s="85"/>
+      <c r="G206" s="85"/>
+      <c r="H206" s="85" t="s">
+        <v>693</v>
+      </c>
       <c r="I206" s="85"/>
       <c r="J206" s="85"/>
     </row>
     <row r="207" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G207" s="85"/>
-      <c r="H207" s="85" t="s">
-        <v>705</v>
-      </c>
+      <c r="G207" s="85" t="s">
+        <v>694</v>
+      </c>
+      <c r="H207" s="85"/>
       <c r="I207" s="85"/>
       <c r="J207" s="85"/>
     </row>
     <row r="208" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G208" s="85" t="s">
-        <v>706</v>
-      </c>
-      <c r="H208" s="85"/>
+      <c r="G208" s="85"/>
+      <c r="H208" s="85" t="s">
+        <v>695</v>
+      </c>
       <c r="I208" s="85"/>
       <c r="J208" s="85"/>
     </row>
     <row r="209" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G209" s="85"/>
-      <c r="H209" s="85" t="s">
-        <v>707</v>
-      </c>
+      <c r="G209" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="H209" s="85"/>
       <c r="I209" s="85"/>
       <c r="J209" s="85"/>
     </row>
     <row r="210" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G210" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="H210" s="85"/>
+      <c r="G210" s="85"/>
+      <c r="H210" s="85" t="s">
+        <v>150</v>
+      </c>
       <c r="I210" s="85"/>
       <c r="J210" s="85"/>
     </row>
     <row r="211" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G211" s="85"/>
-      <c r="H211" s="85" t="s">
-        <v>152</v>
-      </c>
+      <c r="G211" s="85" t="s">
+        <v>696</v>
+      </c>
+      <c r="H211" s="85"/>
       <c r="I211" s="85"/>
       <c r="J211" s="85"/>
     </row>
     <row r="212" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G212" s="85" t="s">
-        <v>708</v>
-      </c>
-      <c r="H212" s="85"/>
+      <c r="G212" s="85"/>
+      <c r="H212" s="85" t="s">
+        <v>697</v>
+      </c>
       <c r="I212" s="85"/>
       <c r="J212" s="85"/>
     </row>
     <row r="213" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G213" s="85"/>
-      <c r="H213" s="85" t="s">
-        <v>709</v>
-      </c>
-      <c r="I213" s="85"/>
-      <c r="J213" s="85"/>
+      <c r="G213" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H213" s="16"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="17"/>
     </row>
     <row r="214" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G214" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="H214" s="16"/>
+      <c r="G214" s="16"/>
+      <c r="H214" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
     </row>
     <row r="215" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G215" s="16"/>
-      <c r="H215" s="16" t="s">
-        <v>154</v>
-      </c>
+      <c r="G215" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H215" s="16"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
     </row>
     <row r="216" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G216" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="H216" s="16"/>
+      <c r="G216" s="16"/>
+      <c r="H216" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
     </row>
     <row r="217" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G217" s="16"/>
-      <c r="H217" s="16" t="s">
-        <v>156</v>
-      </c>
+      <c r="G217" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H217" s="16"/>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
     </row>
     <row r="218" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G218" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="H218" s="16"/>
+      <c r="G218" s="16"/>
+      <c r="H218" s="16" t="s">
+        <v>156</v>
+      </c>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
     </row>
-    <row r="219" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G219" s="16"/>
-      <c r="H219" s="16" t="s">
+    <row r="220" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F220" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G220" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I219" s="17"/>
-      <c r="J219" s="17"/>
     </row>
     <row r="221" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="F221" s="3" t="s">
+      <c r="H221" s="67" t="s">
+        <v>624</v>
+      </c>
+      <c r="I221" s="65"/>
+      <c r="J221" s="65"/>
+      <c r="K221" s="76"/>
+      <c r="L221" s="76"/>
+      <c r="M221" s="76"/>
+      <c r="N221" s="76"/>
+      <c r="O221" s="76"/>
+    </row>
+    <row r="222" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="G222" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="H223" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G221" s="3" t="s">
+    </row>
+    <row r="224" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F224" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="222" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="H222" s="67" t="s">
-        <v>636</v>
-      </c>
-      <c r="I222" s="65"/>
-      <c r="J222" s="65"/>
-      <c r="K222" s="76"/>
-      <c r="L222" s="76"/>
-      <c r="M222" s="76"/>
-      <c r="N222" s="76"/>
-      <c r="O222" s="76"/>
-    </row>
-    <row r="223" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G223" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="H224" s="3" t="s">
+    <row r="225" spans="6:25" x14ac:dyDescent="0.15">
+      <c r="G225" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="225" spans="6:25" x14ac:dyDescent="0.15">
-      <c r="F225" s="3" t="s">
+    <row r="226" spans="6:25" x14ac:dyDescent="0.15">
+      <c r="F226" s="15" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="226" spans="6:25" x14ac:dyDescent="0.15">
-      <c r="G226" s="3" t="s">
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+      <c r="I226" s="15"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="15"/>
+      <c r="L226" s="15"/>
+      <c r="M226" s="15"/>
+      <c r="N226" s="15"/>
+      <c r="O226" s="15"/>
+      <c r="P226" s="15"/>
+      <c r="Q226" s="15"/>
+      <c r="R226" s="15"/>
+      <c r="S226" s="15"/>
+      <c r="T226" s="15"/>
+      <c r="U226" s="15"/>
+      <c r="V226" s="15"/>
+      <c r="W226" s="15"/>
+      <c r="X226" s="15"/>
+      <c r="Y226" s="15"/>
+    </row>
+    <row r="227" spans="6:25" x14ac:dyDescent="0.15">
+      <c r="F227" s="15"/>
+      <c r="G227" s="15" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="227" spans="6:25" x14ac:dyDescent="0.15">
-      <c r="F227" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G227" s="15"/>
       <c r="H227" s="15"/>
       <c r="I227" s="15"/>
       <c r="J227" s="15"/>
@@ -18407,9 +18644,7 @@
     </row>
     <row r="228" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F228" s="15"/>
-      <c r="G228" s="15" t="s">
-        <v>165</v>
-      </c>
+      <c r="G228" s="15"/>
       <c r="H228" s="15"/>
       <c r="I228" s="15"/>
       <c r="J228" s="15"/>
@@ -18431,7 +18666,9 @@
     </row>
     <row r="229" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F229" s="15"/>
-      <c r="G229" s="15"/>
+      <c r="G229" s="15" t="s">
+        <v>164</v>
+      </c>
       <c r="H229" s="15"/>
       <c r="I229" s="15"/>
       <c r="J229" s="15"/>
@@ -18453,11 +18690,11 @@
     </row>
     <row r="230" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F230" s="15"/>
-      <c r="G230" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H230" s="15"/>
-      <c r="I230" s="15"/>
+      <c r="G230" s="15"/>
+      <c r="H230" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I230" s="19"/>
       <c r="J230" s="15"/>
       <c r="K230" s="15"/>
       <c r="L230" s="15"/>
@@ -18479,7 +18716,7 @@
       <c r="F231" s="15"/>
       <c r="G231" s="15"/>
       <c r="H231" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I231" s="19"/>
       <c r="J231" s="15"/>
@@ -18503,7 +18740,7 @@
       <c r="F232" s="15"/>
       <c r="G232" s="15"/>
       <c r="H232" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I232" s="19"/>
       <c r="J232" s="15"/>
@@ -18526,8 +18763,8 @@
     <row r="233" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F233" s="15"/>
       <c r="G233" s="15"/>
-      <c r="H233" s="18" t="s">
-        <v>169</v>
+      <c r="H233" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="I233" s="19"/>
       <c r="J233" s="15"/>
@@ -18550,10 +18787,10 @@
     <row r="234" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F234" s="15"/>
       <c r="G234" s="15"/>
-      <c r="H234" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I234" s="19"/>
+      <c r="H234" s="18"/>
+      <c r="I234" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="J234" s="15"/>
       <c r="K234" s="15"/>
       <c r="L234" s="15"/>
@@ -18575,9 +18812,7 @@
       <c r="F235" s="15"/>
       <c r="G235" s="15"/>
       <c r="H235" s="18"/>
-      <c r="I235" s="20" t="s">
-        <v>171</v>
-      </c>
+      <c r="I235" s="20"/>
       <c r="J235" s="15"/>
       <c r="K235" s="15"/>
       <c r="L235" s="15"/>
@@ -18598,8 +18833,10 @@
     <row r="236" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F236" s="15"/>
       <c r="G236" s="15"/>
-      <c r="H236" s="18"/>
-      <c r="I236" s="20"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="20" t="s">
+        <v>170</v>
+      </c>
       <c r="J236" s="15"/>
       <c r="K236" s="15"/>
       <c r="L236" s="15"/>
@@ -18622,7 +18859,7 @@
       <c r="G237" s="15"/>
       <c r="H237" s="15"/>
       <c r="I237" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J237" s="15"/>
       <c r="K237" s="15"/>
@@ -18645,9 +18882,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="15"/>
       <c r="H238" s="15"/>
-      <c r="I238" s="20" t="s">
-        <v>173</v>
-      </c>
+      <c r="I238" s="20"/>
       <c r="J238" s="15"/>
       <c r="K238" s="15"/>
       <c r="L238" s="15"/>
@@ -18669,7 +18904,9 @@
       <c r="F239" s="15"/>
       <c r="G239" s="15"/>
       <c r="H239" s="15"/>
-      <c r="I239" s="20"/>
+      <c r="I239" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="J239" s="15"/>
       <c r="K239" s="15"/>
       <c r="L239" s="15"/>
@@ -18692,7 +18929,7 @@
       <c r="G240" s="15"/>
       <c r="H240" s="15"/>
       <c r="I240" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J240" s="15"/>
       <c r="K240" s="15"/>
@@ -18715,9 +18952,7 @@
       <c r="F241" s="15"/>
       <c r="G241" s="15"/>
       <c r="H241" s="15"/>
-      <c r="I241" s="20" t="s">
-        <v>175</v>
-      </c>
+      <c r="I241" s="20"/>
       <c r="J241" s="15"/>
       <c r="K241" s="15"/>
       <c r="L241" s="15"/>
@@ -18739,7 +18974,9 @@
       <c r="F242" s="15"/>
       <c r="G242" s="15"/>
       <c r="H242" s="15"/>
-      <c r="I242" s="20"/>
+      <c r="I242" s="20" t="s">
+        <v>174</v>
+      </c>
       <c r="J242" s="15"/>
       <c r="K242" s="15"/>
       <c r="L242" s="15"/>
@@ -18762,7 +18999,7 @@
       <c r="G243" s="15"/>
       <c r="H243" s="15"/>
       <c r="I243" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J243" s="15"/>
       <c r="K243" s="15"/>
@@ -18785,9 +19022,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="15"/>
       <c r="H244" s="15"/>
-      <c r="I244" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="I244" s="20"/>
       <c r="J244" s="15"/>
       <c r="K244" s="15"/>
       <c r="L244" s="15"/>
@@ -18809,7 +19044,9 @@
       <c r="F245" s="15"/>
       <c r="G245" s="15"/>
       <c r="H245" s="15"/>
-      <c r="I245" s="20"/>
+      <c r="I245" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="J245" s="15"/>
       <c r="K245" s="15"/>
       <c r="L245" s="15"/>
@@ -18832,7 +19069,7 @@
       <c r="G246" s="15"/>
       <c r="H246" s="15"/>
       <c r="I246" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J246" s="15"/>
       <c r="K246" s="15"/>
@@ -18855,9 +19092,7 @@
       <c r="F247" s="15"/>
       <c r="G247" s="15"/>
       <c r="H247" s="15"/>
-      <c r="I247" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="I247" s="15"/>
       <c r="J247" s="15"/>
       <c r="K247" s="15"/>
       <c r="L247" s="15"/>
@@ -18878,8 +19113,10 @@
     <row r="248" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F248" s="15"/>
       <c r="G248" s="15"/>
-      <c r="H248" s="15"/>
-      <c r="I248" s="15"/>
+      <c r="H248" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I248" s="19"/>
       <c r="J248" s="15"/>
       <c r="K248" s="15"/>
       <c r="L248" s="15"/>
@@ -18901,7 +19138,7 @@
       <c r="F249" s="15"/>
       <c r="G249" s="15"/>
       <c r="H249" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I249" s="19"/>
       <c r="J249" s="15"/>
@@ -18924,10 +19161,10 @@
     <row r="250" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F250" s="15"/>
       <c r="G250" s="15"/>
-      <c r="H250" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="I250" s="19"/>
+      <c r="H250" s="19"/>
+      <c r="I250" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="J250" s="15"/>
       <c r="K250" s="15"/>
       <c r="L250" s="15"/>
@@ -18948,9 +19185,9 @@
     <row r="251" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F251" s="15"/>
       <c r="G251" s="15"/>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19" t="s">
-        <v>182</v>
+      <c r="H251" s="18"/>
+      <c r="I251" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="J251" s="15"/>
       <c r="K251" s="15"/>
@@ -18972,9 +19209,9 @@
     <row r="252" spans="6:25" x14ac:dyDescent="0.15">
       <c r="F252" s="15"/>
       <c r="G252" s="15"/>
-      <c r="H252" s="18"/>
+      <c r="H252" s="19"/>
       <c r="I252" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J252" s="15"/>
       <c r="K252" s="15"/>
@@ -18998,7 +19235,7 @@
       <c r="G253" s="15"/>
       <c r="H253" s="19"/>
       <c r="I253" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J253" s="15"/>
       <c r="K253" s="15"/>
@@ -19022,7 +19259,7 @@
       <c r="G254" s="15"/>
       <c r="H254" s="19"/>
       <c r="I254" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J254" s="15"/>
       <c r="K254" s="15"/>
@@ -19046,7 +19283,7 @@
       <c r="G255" s="15"/>
       <c r="H255" s="19"/>
       <c r="I255" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J255" s="15"/>
       <c r="K255" s="15"/>
@@ -19065,105 +19302,98 @@
       <c r="X255" s="15"/>
       <c r="Y255" s="15"/>
     </row>
-    <row r="256" spans="6:25" x14ac:dyDescent="0.15">
-      <c r="F256" s="15"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="19"/>
-      <c r="I256" s="18" t="s">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D257" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E258" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J256" s="15"/>
-      <c r="K256" s="15"/>
-      <c r="L256" s="15"/>
-      <c r="M256" s="15"/>
-      <c r="N256" s="15"/>
-      <c r="O256" s="15"/>
-      <c r="P256" s="15"/>
-      <c r="Q256" s="15"/>
-      <c r="R256" s="15"/>
-      <c r="S256" s="15"/>
-      <c r="T256" s="15"/>
-      <c r="U256" s="15"/>
-      <c r="V256" s="15"/>
-      <c r="W256" s="15"/>
-      <c r="X256" s="15"/>
-      <c r="Y256" s="15"/>
-    </row>
-    <row r="258" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="D258" s="3" t="s">
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E259" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E260" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="259" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E259" s="3" t="s">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F262" s="21" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="260" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E260" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="261" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="E261" s="3" t="s">
+      <c r="G262" s="11"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F263" s="22"/>
+      <c r="G263" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="263" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F263" s="21" t="s">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F264" s="11"/>
+      <c r="G264" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G263" s="11"/>
-    </row>
-    <row r="264" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F264" s="22"/>
-      <c r="G264" s="11" t="s">
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F266" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="G266" s="11"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F267" s="11"/>
+      <c r="G267" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="265" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F265" s="11"/>
-      <c r="G265" s="11" t="s">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F269" s="47" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="266" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F266" s="11"/>
-      <c r="G266" s="11"/>
-    </row>
-    <row r="267" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F267" s="11" t="s">
+      <c r="G269" s="47"/>
+      <c r="H269" s="47"/>
+      <c r="I269" s="47"/>
+      <c r="J269" s="47"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F270" s="47"/>
+      <c r="G270" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="G267" s="11"/>
-    </row>
-    <row r="268" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F268" s="11"/>
-      <c r="G268" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="270" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F270" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="G270" s="47"/>
       <c r="H270" s="47"/>
       <c r="I270" s="47"/>
       <c r="J270" s="47"/>
     </row>
-    <row r="271" spans="4:10" x14ac:dyDescent="0.15">
-      <c r="F271" s="47"/>
-      <c r="G271" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="H271" s="47"/>
-      <c r="I271" s="47"/>
-      <c r="J271" s="47"/>
-    </row>
-    <row r="272" spans="4:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" spans="1:10" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="75"/>
+      <c r="F272" s="91" t="s">
+        <v>747</v>
+      </c>
+      <c r="G272" s="91"/>
+      <c r="H272" s="91"/>
+      <c r="I272" s="91"/>
+      <c r="J272" s="91"/>
+    </row>
+    <row r="273" spans="1:13" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A273" s="75"/>
+      <c r="F273" s="91"/>
+      <c r="G273" s="91" t="s">
+        <v>749</v>
+      </c>
+      <c r="H273" s="91"/>
+      <c r="I273" s="91"/>
+      <c r="J273" s="91"/>
     </row>
     <row r="274" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A274" s="75"/>
@@ -19171,7 +19401,7 @@
     <row r="275" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A275" s="75"/>
       <c r="F275" s="70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="276" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
@@ -19180,19 +19410,19 @@
     <row r="277" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A277" s="75"/>
       <c r="E277" s="70" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="278" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A278" s="75"/>
       <c r="F278" s="70" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="279" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A279" s="75"/>
       <c r="F279" s="70" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="280" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
@@ -19201,81 +19431,81 @@
     <row r="281" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A281" s="75"/>
       <c r="E281" s="70" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="282" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A282" s="75"/>
       <c r="F282" s="70" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="283" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A283" s="75"/>
       <c r="G283" s="70" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="284" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A284" s="75"/>
       <c r="H284" s="70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="285" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="75"/>
       <c r="G285" s="70" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="286" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A286" s="75"/>
       <c r="H286" s="70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I286" s="70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="287" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A287" s="75"/>
       <c r="H287" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="I287" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="J287" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="K287" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="I287" s="70" t="s">
+      <c r="L287" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="J287" s="70" t="s">
+      <c r="M287" s="70" t="s">
         <v>210</v>
-      </c>
-      <c r="K287" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="L287" s="70" t="s">
-        <v>212</v>
-      </c>
-      <c r="M287" s="70" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="288" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A288" s="75" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H288" s="70" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="289" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A289" s="75"/>
       <c r="G289" s="70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="290" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A290" s="75"/>
       <c r="G290" s="70" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:11" s="70" customFormat="1" x14ac:dyDescent="0.15">
@@ -19283,49 +19513,49 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.15">
       <c r="D292" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.15">
       <c r="E293" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F294" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G295" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F296" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G297" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J297" s="11"/>
       <c r="K297" s="11"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.15">
       <c r="F298" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.15">
       <c r="G299" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C300" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
@@ -19341,7 +19571,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C302" s="11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
@@ -19351,7 +19581,7 @@
     <row r="303" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C303" s="11"/>
       <c r="D303" s="11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
@@ -19360,7 +19590,7 @@
     <row r="304" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C304" s="11"/>
       <c r="D304" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
@@ -19370,14 +19600,14 @@
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F305" s="11"/>
       <c r="G305" s="11"/>
     </row>
     <row r="306" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C306" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
@@ -19387,7 +19617,7 @@
     <row r="307" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C307" s="11"/>
       <c r="D307" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E307" s="11"/>
       <c r="F307" s="11"/>
@@ -19396,7 +19626,7 @@
     <row r="308" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C308" s="11"/>
       <c r="D308" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
@@ -19406,7 +19636,7 @@
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F309" s="11"/>
       <c r="G309" s="11"/>
@@ -19420,7 +19650,7 @@
     </row>
     <row r="311" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C311" s="11" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
@@ -19430,7 +19660,7 @@
     <row r="312" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C312" s="11"/>
       <c r="D312" s="11" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
@@ -19439,7 +19669,7 @@
     <row r="313" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C313" s="11"/>
       <c r="D313" s="11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E313" s="11"/>
       <c r="F313" s="11"/>
@@ -19448,7 +19678,7 @@
     <row r="314" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C314" s="21"/>
       <c r="D314" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E314" s="21"/>
       <c r="F314" s="21"/>
@@ -19463,7 +19693,7 @@
     </row>
     <row r="316" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C316" s="21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D316" s="21"/>
       <c r="E316" s="21"/>
@@ -19473,7 +19703,7 @@
     <row r="317" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C317" s="21"/>
       <c r="D317" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E317" s="21"/>
       <c r="F317" s="21"/>
@@ -19482,7 +19712,7 @@
     <row r="318" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C318" s="21"/>
       <c r="D318" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E318" s="21"/>
       <c r="F318" s="21"/>
@@ -19491,14 +19721,14 @@
     <row r="319" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C319" s="21"/>
       <c r="D319" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E319" s="21"/>
       <c r="F319" s="21"/>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C321" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D321" s="25"/>
       <c r="G321" s="21"/>
@@ -19508,7 +19738,7 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C323" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D323" s="25"/>
       <c r="G323" s="21"/>
@@ -19526,19 +19756,19 @@
     <row r="326" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A326" s="8"/>
       <c r="B326" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G326" s="21"/>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C327" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G327" s="21"/>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D328" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E328" s="11"/>
       <c r="F328" s="11"/>
@@ -19548,7 +19778,7 @@
     <row r="329" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D329" s="11"/>
       <c r="E329" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="21"/>
@@ -19557,7 +19787,7 @@
     <row r="330" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C330" s="11"/>
       <c r="D330" s="87" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E330" s="87"/>
       <c r="F330" s="86"/>
@@ -19577,7 +19807,7 @@
       <c r="C331" s="11"/>
       <c r="D331" s="87"/>
       <c r="E331" s="87" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F331" s="86"/>
       <c r="G331" s="11"/>
@@ -19595,7 +19825,7 @@
     <row r="332" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C332" s="11"/>
       <c r="D332" s="87" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E332" s="87"/>
       <c r="F332" s="86"/>
@@ -19615,7 +19845,7 @@
       <c r="C333" s="11"/>
       <c r="D333" s="87"/>
       <c r="E333" s="87" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="F333" s="86"/>
       <c r="G333" s="11"/>
@@ -19633,7 +19863,7 @@
     <row r="334" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C334" s="11"/>
       <c r="D334" s="84" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="E334" s="26"/>
       <c r="F334" s="11"/>
@@ -19653,7 +19883,7 @@
       <c r="C335" s="11"/>
       <c r="D335" s="26"/>
       <c r="E335" s="26" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="F335" s="11"/>
       <c r="G335" s="11"/>
@@ -19671,11 +19901,11 @@
     <row r="336" spans="1:17" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A336" s="81"/>
       <c r="C336" s="83"/>
-      <c r="D336" s="92" t="s">
-        <v>732</v>
-      </c>
-      <c r="E336" s="92"/>
-      <c r="F336" s="93"/>
+      <c r="D336" s="90" t="s">
+        <v>720</v>
+      </c>
+      <c r="E336" s="90"/>
+      <c r="F336" s="91"/>
       <c r="G336" s="83"/>
       <c r="H336" s="83"/>
       <c r="I336" s="83"/>
@@ -19691,11 +19921,11 @@
     <row r="337" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A337" s="81"/>
       <c r="C337" s="83"/>
-      <c r="D337" s="92"/>
-      <c r="E337" s="92" t="s">
-        <v>753</v>
-      </c>
-      <c r="F337" s="93"/>
+      <c r="D337" s="90"/>
+      <c r="E337" s="90" t="s">
+        <v>741</v>
+      </c>
+      <c r="F337" s="91"/>
       <c r="G337" s="83"/>
       <c r="H337" s="83"/>
       <c r="I337" s="83"/>
@@ -19711,11 +19941,11 @@
     <row r="338" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A338" s="81"/>
       <c r="C338" s="83"/>
-      <c r="D338" s="92" t="s">
-        <v>494</v>
-      </c>
-      <c r="E338" s="92"/>
-      <c r="F338" s="93"/>
+      <c r="D338" s="90" t="s">
+        <v>491</v>
+      </c>
+      <c r="E338" s="90"/>
+      <c r="F338" s="91"/>
       <c r="G338" s="83"/>
       <c r="H338" s="83"/>
       <c r="I338" s="83"/>
@@ -19731,11 +19961,11 @@
     <row r="339" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A339" s="81"/>
       <c r="C339" s="83"/>
-      <c r="D339" s="92"/>
-      <c r="E339" s="92" t="s">
-        <v>735</v>
-      </c>
-      <c r="F339" s="93"/>
+      <c r="D339" s="90"/>
+      <c r="E339" s="90" t="s">
+        <v>723</v>
+      </c>
+      <c r="F339" s="91"/>
       <c r="G339" s="83"/>
       <c r="H339" s="83"/>
       <c r="I339" s="83"/>
@@ -19751,7 +19981,7 @@
     <row r="340" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C340" s="11"/>
       <c r="D340" s="26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E340" s="26"/>
       <c r="F340" s="11"/>
@@ -19771,7 +20001,7 @@
       <c r="C341" s="11"/>
       <c r="D341" s="26"/>
       <c r="E341" s="26" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="11"/>
@@ -19789,7 +20019,7 @@
     <row r="342" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C342" s="11"/>
       <c r="D342" s="26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E342" s="26"/>
       <c r="F342" s="11"/>
@@ -19809,7 +20039,7 @@
       <c r="C343" s="11"/>
       <c r="D343" s="26"/>
       <c r="E343" s="26" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="11"/>
@@ -19827,7 +20057,7 @@
     <row r="344" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C344" s="11"/>
       <c r="D344" s="26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E344" s="26"/>
       <c r="F344" s="26"/>
@@ -19847,7 +20077,7 @@
       <c r="C345" s="11"/>
       <c r="D345" s="26"/>
       <c r="E345" s="26" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F345" s="26"/>
       <c r="G345" s="11"/>
@@ -19864,333 +20094,333 @@
     </row>
     <row r="346" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A346" s="81"/>
-      <c r="C346" s="93" t="s">
-        <v>754</v>
-      </c>
-      <c r="D346" s="92"/>
-      <c r="E346" s="92"/>
-      <c r="F346" s="92"/>
-      <c r="G346" s="93"/>
-      <c r="H346" s="93"/>
-      <c r="I346" s="93"/>
-      <c r="J346" s="93"/>
-      <c r="K346" s="93"/>
-      <c r="L346" s="93"/>
-      <c r="M346" s="93"/>
-      <c r="N346" s="93"/>
-      <c r="O346" s="93"/>
-      <c r="P346" s="93"/>
-      <c r="Q346" s="93"/>
-      <c r="R346" s="93"/>
-      <c r="S346" s="93"/>
-      <c r="T346" s="93"/>
+      <c r="C346" s="91" t="s">
+        <v>742</v>
+      </c>
+      <c r="D346" s="90"/>
+      <c r="E346" s="90"/>
+      <c r="F346" s="90"/>
+      <c r="G346" s="91"/>
+      <c r="H346" s="91"/>
+      <c r="I346" s="91"/>
+      <c r="J346" s="91"/>
+      <c r="K346" s="91"/>
+      <c r="L346" s="91"/>
+      <c r="M346" s="91"/>
+      <c r="N346" s="91"/>
+      <c r="O346" s="91"/>
+      <c r="P346" s="91"/>
+      <c r="Q346" s="91"/>
+      <c r="R346" s="91"/>
+      <c r="S346" s="91"/>
+      <c r="T346" s="91"/>
     </row>
     <row r="347" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A347" s="81"/>
-      <c r="C347" s="93"/>
-      <c r="D347" s="92" t="s">
-        <v>755</v>
-      </c>
-      <c r="E347" s="92"/>
-      <c r="F347" s="92"/>
-      <c r="G347" s="93"/>
-      <c r="H347" s="93"/>
-      <c r="I347" s="93"/>
-      <c r="J347" s="93"/>
-      <c r="K347" s="93"/>
-      <c r="L347" s="93"/>
-      <c r="M347" s="93"/>
-      <c r="N347" s="93"/>
-      <c r="O347" s="93"/>
-      <c r="P347" s="93"/>
-      <c r="Q347" s="93"/>
-      <c r="R347" s="93"/>
-      <c r="S347" s="93"/>
-      <c r="T347" s="93"/>
+      <c r="C347" s="91"/>
+      <c r="D347" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="E347" s="90"/>
+      <c r="F347" s="90"/>
+      <c r="G347" s="91"/>
+      <c r="H347" s="91"/>
+      <c r="I347" s="91"/>
+      <c r="J347" s="91"/>
+      <c r="K347" s="91"/>
+      <c r="L347" s="91"/>
+      <c r="M347" s="91"/>
+      <c r="N347" s="91"/>
+      <c r="O347" s="91"/>
+      <c r="P347" s="91"/>
+      <c r="Q347" s="91"/>
+      <c r="R347" s="91"/>
+      <c r="S347" s="91"/>
+      <c r="T347" s="91"/>
     </row>
     <row r="348" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A348" s="81"/>
-      <c r="C348" s="93"/>
-      <c r="D348" s="92" t="s">
-        <v>744</v>
-      </c>
-      <c r="E348" s="92"/>
-      <c r="F348" s="92"/>
-      <c r="G348" s="93"/>
-      <c r="H348" s="93"/>
-      <c r="I348" s="93"/>
-      <c r="J348" s="93"/>
-      <c r="K348" s="93"/>
-      <c r="L348" s="93"/>
-      <c r="M348" s="93"/>
-      <c r="N348" s="93"/>
-      <c r="O348" s="93"/>
-      <c r="P348" s="93"/>
-      <c r="Q348" s="93"/>
-      <c r="R348" s="93"/>
-      <c r="S348" s="93"/>
-      <c r="T348" s="93"/>
+      <c r="C348" s="91"/>
+      <c r="D348" s="90" t="s">
+        <v>732</v>
+      </c>
+      <c r="E348" s="90"/>
+      <c r="F348" s="90"/>
+      <c r="G348" s="91"/>
+      <c r="H348" s="91"/>
+      <c r="I348" s="91"/>
+      <c r="J348" s="91"/>
+      <c r="K348" s="91"/>
+      <c r="L348" s="91"/>
+      <c r="M348" s="91"/>
+      <c r="N348" s="91"/>
+      <c r="O348" s="91"/>
+      <c r="P348" s="91"/>
+      <c r="Q348" s="91"/>
+      <c r="R348" s="91"/>
+      <c r="S348" s="91"/>
+      <c r="T348" s="91"/>
     </row>
     <row r="349" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A349" s="81"/>
-      <c r="C349" s="93"/>
-      <c r="D349" s="92"/>
-      <c r="E349" s="92" t="s">
-        <v>737</v>
-      </c>
-      <c r="F349" s="93" t="s">
-        <v>746</v>
-      </c>
-      <c r="G349" s="93"/>
-      <c r="H349" s="93"/>
-      <c r="I349" s="93"/>
-      <c r="J349" s="93"/>
-      <c r="K349" s="93"/>
-      <c r="L349" s="93"/>
-      <c r="M349" s="93"/>
-      <c r="N349" s="93"/>
-      <c r="O349" s="93"/>
-      <c r="P349" s="93"/>
-      <c r="Q349" s="93"/>
-      <c r="R349" s="93"/>
-      <c r="S349" s="93"/>
-      <c r="T349" s="93"/>
+      <c r="C349" s="91"/>
+      <c r="D349" s="90"/>
+      <c r="E349" s="90" t="s">
+        <v>725</v>
+      </c>
+      <c r="F349" s="91" t="s">
+        <v>734</v>
+      </c>
+      <c r="G349" s="91"/>
+      <c r="H349" s="91"/>
+      <c r="I349" s="91"/>
+      <c r="J349" s="91"/>
+      <c r="K349" s="91"/>
+      <c r="L349" s="91"/>
+      <c r="M349" s="91"/>
+      <c r="N349" s="91"/>
+      <c r="O349" s="91"/>
+      <c r="P349" s="91"/>
+      <c r="Q349" s="91"/>
+      <c r="R349" s="91"/>
+      <c r="S349" s="91"/>
+      <c r="T349" s="91"/>
     </row>
     <row r="350" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A350" s="81"/>
-      <c r="C350" s="93"/>
-      <c r="D350" s="92"/>
-      <c r="E350" s="93"/>
-      <c r="F350" s="92" t="s">
-        <v>745</v>
-      </c>
-      <c r="G350" s="93" t="s">
-        <v>748</v>
-      </c>
-      <c r="H350" s="93"/>
-      <c r="I350" s="93"/>
-      <c r="J350" s="93"/>
-      <c r="K350" s="93"/>
-      <c r="L350" s="93"/>
-      <c r="M350" s="93"/>
-      <c r="N350" s="93"/>
-      <c r="O350" s="93"/>
-      <c r="P350" s="93"/>
-      <c r="Q350" s="93"/>
-      <c r="R350" s="93"/>
-      <c r="S350" s="93"/>
-      <c r="T350" s="93"/>
+      <c r="C350" s="91"/>
+      <c r="D350" s="90"/>
+      <c r="E350" s="91"/>
+      <c r="F350" s="90" t="s">
+        <v>733</v>
+      </c>
+      <c r="G350" s="91" t="s">
+        <v>736</v>
+      </c>
+      <c r="H350" s="91"/>
+      <c r="I350" s="91"/>
+      <c r="J350" s="91"/>
+      <c r="K350" s="91"/>
+      <c r="L350" s="91"/>
+      <c r="M350" s="91"/>
+      <c r="N350" s="91"/>
+      <c r="O350" s="91"/>
+      <c r="P350" s="91"/>
+      <c r="Q350" s="91"/>
+      <c r="R350" s="91"/>
+      <c r="S350" s="91"/>
+      <c r="T350" s="91"/>
     </row>
     <row r="351" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A351" s="81"/>
-      <c r="C351" s="93"/>
-      <c r="D351" s="92"/>
-      <c r="E351" s="92"/>
-      <c r="F351" s="92" t="s">
-        <v>493</v>
-      </c>
-      <c r="G351" s="93" t="s">
-        <v>747</v>
-      </c>
-      <c r="H351" s="93"/>
-      <c r="I351" s="93"/>
-      <c r="J351" s="93"/>
-      <c r="K351" s="93"/>
-      <c r="L351" s="93"/>
-      <c r="M351" s="93"/>
-      <c r="N351" s="93"/>
-      <c r="O351" s="93"/>
-      <c r="P351" s="93"/>
-      <c r="Q351" s="93"/>
-      <c r="R351" s="93"/>
-      <c r="S351" s="93"/>
-      <c r="T351" s="93"/>
+      <c r="C351" s="91"/>
+      <c r="D351" s="90"/>
+      <c r="E351" s="90"/>
+      <c r="F351" s="90" t="s">
+        <v>490</v>
+      </c>
+      <c r="G351" s="91" t="s">
+        <v>735</v>
+      </c>
+      <c r="H351" s="91"/>
+      <c r="I351" s="91"/>
+      <c r="J351" s="91"/>
+      <c r="K351" s="91"/>
+      <c r="L351" s="91"/>
+      <c r="M351" s="91"/>
+      <c r="N351" s="91"/>
+      <c r="O351" s="91"/>
+      <c r="P351" s="91"/>
+      <c r="Q351" s="91"/>
+      <c r="R351" s="91"/>
+      <c r="S351" s="91"/>
+      <c r="T351" s="91"/>
     </row>
     <row r="352" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A352" s="81"/>
-      <c r="C352" s="93"/>
-      <c r="D352" s="92"/>
-      <c r="E352" s="92" t="s">
-        <v>738</v>
-      </c>
-      <c r="F352" s="92" t="s">
-        <v>749</v>
-      </c>
-      <c r="G352" s="93"/>
-      <c r="H352" s="93"/>
-      <c r="I352" s="93"/>
-      <c r="J352" s="93"/>
-      <c r="K352" s="93"/>
-      <c r="L352" s="93"/>
-      <c r="M352" s="93"/>
-      <c r="N352" s="93"/>
-      <c r="O352" s="93"/>
-      <c r="P352" s="93"/>
-      <c r="Q352" s="93"/>
-      <c r="R352" s="93"/>
-      <c r="S352" s="93"/>
-      <c r="T352" s="93"/>
+      <c r="C352" s="91"/>
+      <c r="D352" s="90"/>
+      <c r="E352" s="90" t="s">
+        <v>726</v>
+      </c>
+      <c r="F352" s="90" t="s">
+        <v>737</v>
+      </c>
+      <c r="G352" s="91"/>
+      <c r="H352" s="91"/>
+      <c r="I352" s="91"/>
+      <c r="J352" s="91"/>
+      <c r="K352" s="91"/>
+      <c r="L352" s="91"/>
+      <c r="M352" s="91"/>
+      <c r="N352" s="91"/>
+      <c r="O352" s="91"/>
+      <c r="P352" s="91"/>
+      <c r="Q352" s="91"/>
+      <c r="R352" s="91"/>
+      <c r="S352" s="91"/>
+      <c r="T352" s="91"/>
     </row>
     <row r="353" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A353" s="81"/>
-      <c r="C353" s="93"/>
-      <c r="D353" s="92"/>
-      <c r="E353" s="92"/>
-      <c r="F353" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="G353" s="93"/>
-      <c r="H353" s="93"/>
-      <c r="I353" s="93"/>
-      <c r="J353" s="93"/>
-      <c r="K353" s="93"/>
-      <c r="L353" s="93"/>
-      <c r="M353" s="93"/>
-      <c r="N353" s="93"/>
-      <c r="O353" s="93"/>
-      <c r="P353" s="93"/>
-      <c r="Q353" s="93"/>
-      <c r="R353" s="93"/>
-      <c r="S353" s="93"/>
-      <c r="T353" s="93"/>
+      <c r="C353" s="91"/>
+      <c r="D353" s="90"/>
+      <c r="E353" s="90"/>
+      <c r="F353" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="G353" s="91"/>
+      <c r="H353" s="91"/>
+      <c r="I353" s="91"/>
+      <c r="J353" s="91"/>
+      <c r="K353" s="91"/>
+      <c r="L353" s="91"/>
+      <c r="M353" s="91"/>
+      <c r="N353" s="91"/>
+      <c r="O353" s="91"/>
+      <c r="P353" s="91"/>
+      <c r="Q353" s="91"/>
+      <c r="R353" s="91"/>
+      <c r="S353" s="91"/>
+      <c r="T353" s="91"/>
     </row>
     <row r="354" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A354" s="81"/>
-      <c r="C354" s="93"/>
-      <c r="D354" s="92"/>
-      <c r="E354" s="92"/>
-      <c r="F354" s="92" t="s">
-        <v>682</v>
-      </c>
-      <c r="G354" s="93"/>
-      <c r="H354" s="93"/>
-      <c r="I354" s="93"/>
-      <c r="J354" s="93"/>
-      <c r="K354" s="93"/>
-      <c r="L354" s="93"/>
-      <c r="M354" s="93"/>
-      <c r="N354" s="93"/>
-      <c r="O354" s="93"/>
-      <c r="P354" s="93"/>
-      <c r="Q354" s="93"/>
-      <c r="R354" s="93"/>
-      <c r="S354" s="93"/>
-      <c r="T354" s="93"/>
+      <c r="C354" s="91"/>
+      <c r="D354" s="90"/>
+      <c r="E354" s="90"/>
+      <c r="F354" s="90" t="s">
+        <v>670</v>
+      </c>
+      <c r="G354" s="91"/>
+      <c r="H354" s="91"/>
+      <c r="I354" s="91"/>
+      <c r="J354" s="91"/>
+      <c r="K354" s="91"/>
+      <c r="L354" s="91"/>
+      <c r="M354" s="91"/>
+      <c r="N354" s="91"/>
+      <c r="O354" s="91"/>
+      <c r="P354" s="91"/>
+      <c r="Q354" s="91"/>
+      <c r="R354" s="91"/>
+      <c r="S354" s="91"/>
+      <c r="T354" s="91"/>
     </row>
     <row r="355" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A355" s="81"/>
-      <c r="C355" s="93"/>
-      <c r="D355" s="92"/>
-      <c r="E355" s="92" t="s">
-        <v>750</v>
-      </c>
-      <c r="F355" s="92"/>
-      <c r="G355" s="93"/>
-      <c r="H355" s="93"/>
-      <c r="I355" s="93"/>
-      <c r="J355" s="93"/>
-      <c r="K355" s="93"/>
-      <c r="L355" s="93"/>
-      <c r="M355" s="93"/>
-      <c r="N355" s="93"/>
-      <c r="O355" s="93"/>
-      <c r="P355" s="93"/>
-      <c r="Q355" s="93"/>
-      <c r="R355" s="93"/>
-      <c r="S355" s="93"/>
-      <c r="T355" s="93"/>
+      <c r="C355" s="91"/>
+      <c r="D355" s="90"/>
+      <c r="E355" s="90" t="s">
+        <v>738</v>
+      </c>
+      <c r="F355" s="90"/>
+      <c r="G355" s="91"/>
+      <c r="H355" s="91"/>
+      <c r="I355" s="91"/>
+      <c r="J355" s="91"/>
+      <c r="K355" s="91"/>
+      <c r="L355" s="91"/>
+      <c r="M355" s="91"/>
+      <c r="N355" s="91"/>
+      <c r="O355" s="91"/>
+      <c r="P355" s="91"/>
+      <c r="Q355" s="91"/>
+      <c r="R355" s="91"/>
+      <c r="S355" s="91"/>
+      <c r="T355" s="91"/>
     </row>
     <row r="356" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A356" s="81"/>
-      <c r="C356" s="93"/>
-      <c r="D356" s="92"/>
-      <c r="E356" s="93"/>
-      <c r="F356" s="92" t="s">
-        <v>739</v>
-      </c>
-      <c r="G356" s="92" t="s">
-        <v>743</v>
-      </c>
-      <c r="H356" s="93"/>
-      <c r="I356" s="93"/>
-      <c r="J356" s="93"/>
-      <c r="K356" s="93"/>
-      <c r="L356" s="93"/>
-      <c r="M356" s="93"/>
-      <c r="N356" s="93"/>
-      <c r="O356" s="93"/>
-      <c r="P356" s="93"/>
-      <c r="Q356" s="93"/>
-      <c r="R356" s="93"/>
-      <c r="S356" s="93"/>
-      <c r="T356" s="93"/>
+      <c r="C356" s="91"/>
+      <c r="D356" s="90"/>
+      <c r="E356" s="91"/>
+      <c r="F356" s="90" t="s">
+        <v>727</v>
+      </c>
+      <c r="G356" s="90" t="s">
+        <v>731</v>
+      </c>
+      <c r="H356" s="91"/>
+      <c r="I356" s="91"/>
+      <c r="J356" s="91"/>
+      <c r="K356" s="91"/>
+      <c r="L356" s="91"/>
+      <c r="M356" s="91"/>
+      <c r="N356" s="91"/>
+      <c r="O356" s="91"/>
+      <c r="P356" s="91"/>
+      <c r="Q356" s="91"/>
+      <c r="R356" s="91"/>
+      <c r="S356" s="91"/>
+      <c r="T356" s="91"/>
     </row>
     <row r="357" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A357" s="81"/>
-      <c r="C357" s="93"/>
-      <c r="D357" s="92"/>
-      <c r="E357" s="93"/>
-      <c r="F357" s="92" t="s">
+      <c r="C357" s="91"/>
+      <c r="D357" s="90"/>
+      <c r="E357" s="91"/>
+      <c r="F357" s="90" t="s">
+        <v>728</v>
+      </c>
+      <c r="G357" s="90" t="s">
         <v>740</v>
       </c>
-      <c r="G357" s="92" t="s">
-        <v>752</v>
-      </c>
-      <c r="H357" s="93"/>
-      <c r="I357" s="93"/>
-      <c r="J357" s="93"/>
-      <c r="K357" s="93"/>
-      <c r="L357" s="93"/>
-      <c r="M357" s="93"/>
-      <c r="N357" s="93"/>
-      <c r="O357" s="93"/>
-      <c r="P357" s="93"/>
-      <c r="Q357" s="93"/>
-      <c r="R357" s="93"/>
-      <c r="S357" s="93"/>
-      <c r="T357" s="93"/>
+      <c r="H357" s="91"/>
+      <c r="I357" s="91"/>
+      <c r="J357" s="91"/>
+      <c r="K357" s="91"/>
+      <c r="L357" s="91"/>
+      <c r="M357" s="91"/>
+      <c r="N357" s="91"/>
+      <c r="O357" s="91"/>
+      <c r="P357" s="91"/>
+      <c r="Q357" s="91"/>
+      <c r="R357" s="91"/>
+      <c r="S357" s="91"/>
+      <c r="T357" s="91"/>
     </row>
     <row r="358" spans="1:20" s="80" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A358" s="81"/>
-      <c r="C358" s="93"/>
-      <c r="D358" s="92"/>
-      <c r="E358" s="93"/>
-      <c r="F358" s="92" t="s">
-        <v>741</v>
-      </c>
-      <c r="G358" s="92" t="s">
-        <v>742</v>
-      </c>
-      <c r="H358" s="93"/>
-      <c r="I358" s="93"/>
-      <c r="J358" s="93"/>
-      <c r="K358" s="93"/>
-      <c r="L358" s="93"/>
-      <c r="M358" s="93"/>
-      <c r="N358" s="93"/>
-      <c r="O358" s="93"/>
-      <c r="P358" s="93"/>
-      <c r="Q358" s="93"/>
-      <c r="R358" s="93"/>
-      <c r="S358" s="93"/>
-      <c r="T358" s="93"/>
+      <c r="C358" s="91"/>
+      <c r="D358" s="90"/>
+      <c r="E358" s="91"/>
+      <c r="F358" s="90" t="s">
+        <v>729</v>
+      </c>
+      <c r="G358" s="90" t="s">
+        <v>730</v>
+      </c>
+      <c r="H358" s="91"/>
+      <c r="I358" s="91"/>
+      <c r="J358" s="91"/>
+      <c r="K358" s="91"/>
+      <c r="L358" s="91"/>
+      <c r="M358" s="91"/>
+      <c r="N358" s="91"/>
+      <c r="O358" s="91"/>
+      <c r="P358" s="91"/>
+      <c r="Q358" s="91"/>
+      <c r="R358" s="91"/>
+      <c r="S358" s="91"/>
+      <c r="T358" s="91"/>
     </row>
     <row r="359" spans="1:20" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A359" s="75"/>
       <c r="C359" s="70" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="360" spans="1:20" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A360" s="75"/>
       <c r="D360" s="70" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="361" spans="1:20" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A361" s="75"/>
       <c r="D361" s="70" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="362" spans="1:20" s="70" customFormat="1" x14ac:dyDescent="0.15">
@@ -20198,7 +20428,7 @@
       <c r="C362" s="76"/>
       <c r="D362" s="76"/>
       <c r="E362" s="89" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F362" s="76"/>
       <c r="G362" s="76"/>
@@ -20217,7 +20447,7 @@
       <c r="D363" s="76"/>
       <c r="E363" s="89"/>
       <c r="F363" s="76" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="G363" s="76"/>
       <c r="H363" s="76"/>
@@ -20234,7 +20464,7 @@
       <c r="C364" s="76"/>
       <c r="D364" s="76"/>
       <c r="E364" s="76" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F364" s="76"/>
       <c r="G364" s="76"/>
@@ -20252,109 +20482,109 @@
       <c r="C365" s="76"/>
       <c r="D365" s="76"/>
       <c r="E365" s="76"/>
-      <c r="F365" s="93" t="s">
-        <v>731</v>
-      </c>
-      <c r="G365" s="93"/>
-      <c r="H365" s="93"/>
-      <c r="I365" s="93"/>
-      <c r="J365" s="93"/>
-      <c r="K365" s="93"/>
-      <c r="L365" s="93"/>
-      <c r="M365" s="93"/>
-      <c r="N365" s="93"/>
-      <c r="O365" s="93"/>
-      <c r="P365" s="93"/>
+      <c r="F365" s="91" t="s">
+        <v>719</v>
+      </c>
+      <c r="G365" s="91"/>
+      <c r="H365" s="91"/>
+      <c r="I365" s="91"/>
+      <c r="J365" s="91"/>
+      <c r="K365" s="91"/>
+      <c r="L365" s="91"/>
+      <c r="M365" s="91"/>
+      <c r="N365" s="91"/>
+      <c r="O365" s="91"/>
+      <c r="P365" s="91"/>
     </row>
     <row r="366" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A366" s="30"/>
       <c r="B366" s="11"/>
       <c r="E366" s="47" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
     </row>
     <row r="367" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A367" s="30"/>
       <c r="B367" s="11"/>
       <c r="C367" s="47" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="368" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A368" s="30"/>
       <c r="B368" s="11"/>
       <c r="D368" s="47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="369" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A369" s="30"/>
       <c r="B369" s="11"/>
       <c r="D369" s="47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="370" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A370" s="30"/>
       <c r="B370" s="11"/>
       <c r="E370" s="47" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="371" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A371" s="30"/>
       <c r="B371" s="11"/>
       <c r="E371" s="47" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="372" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A372" s="30"/>
       <c r="B372" s="11"/>
       <c r="F372" s="47" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="373" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A373" s="30"/>
       <c r="B373" s="11"/>
       <c r="E373" s="47" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="374" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A374" s="30"/>
       <c r="B374" s="11"/>
       <c r="F374" s="47" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="375" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A375" s="30"/>
       <c r="B375" s="11"/>
       <c r="D375" s="47" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="376" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A376" s="30"/>
       <c r="B376" s="11"/>
       <c r="E376" s="47" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="377" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A377" s="30"/>
       <c r="B377" s="11"/>
       <c r="E377" s="47" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="378" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A378" s="30"/>
       <c r="B378" s="11"/>
       <c r="E378" s="47" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="379" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -20365,7 +20595,7 @@
       <c r="A380" s="30"/>
       <c r="B380" s="11"/>
       <c r="C380" s="47" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="381" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -20376,7 +20606,7 @@
       <c r="A382" s="30"/>
       <c r="B382" s="11"/>
       <c r="D382" s="47" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="383" spans="1:6" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -20387,42 +20617,42 @@
       <c r="A384" s="30"/>
       <c r="B384" s="11"/>
       <c r="E384" s="47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="385" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A385" s="30"/>
       <c r="B385" s="11"/>
       <c r="F385" s="47" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="386" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A386" s="30"/>
       <c r="B386" s="11"/>
       <c r="F386" s="47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="387" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A387" s="30"/>
       <c r="B387" s="11"/>
       <c r="G387" s="47" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="388" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A388" s="30"/>
       <c r="B388" s="11"/>
       <c r="F388" s="47" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="389" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A389" s="30"/>
       <c r="B389" s="11"/>
       <c r="G389" s="47" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="390" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -20433,56 +20663,56 @@
       <c r="A391" s="30"/>
       <c r="B391" s="11"/>
       <c r="E391" s="47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="392" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A392" s="30"/>
       <c r="B392" s="11"/>
       <c r="F392" s="47" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A393" s="30"/>
       <c r="B393" s="11"/>
       <c r="F393" s="47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="394" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A394" s="30"/>
       <c r="B394" s="11"/>
       <c r="G394" s="47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="395" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A395" s="30"/>
       <c r="B395" s="11"/>
       <c r="G395" s="47" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="396" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A396" s="30"/>
       <c r="B396" s="11"/>
       <c r="G396" s="47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="397" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A397" s="30"/>
       <c r="B397" s="11"/>
       <c r="F397" s="47" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="398" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A398" s="30"/>
       <c r="B398" s="11"/>
       <c r="G398" s="47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="399" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -20493,35 +20723,35 @@
       <c r="A400" s="30"/>
       <c r="B400" s="11"/>
       <c r="E400" s="47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="401" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A401" s="30"/>
       <c r="B401" s="11"/>
       <c r="F401" s="47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="402" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A402" s="30"/>
       <c r="B402" s="11"/>
       <c r="G402" s="47" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="403" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A403" s="30"/>
       <c r="B403" s="11"/>
       <c r="F403" s="47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="404" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A404" s="30"/>
       <c r="B404" s="11"/>
       <c r="G404" s="47" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="405" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -20532,27 +20762,27 @@
       <c r="A406" s="30"/>
       <c r="B406" s="11"/>
       <c r="E406" s="47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="407" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A407" s="30"/>
       <c r="B407" s="11"/>
       <c r="F407" s="47" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="408" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A408" s="30"/>
       <c r="B408" s="11"/>
       <c r="F408" s="47" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="409" spans="1:15" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A409" s="75"/>
       <c r="C409" s="71" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D409" s="71"/>
       <c r="E409" s="71"/>
@@ -20571,7 +20801,7 @@
       <c r="A410" s="75"/>
       <c r="C410" s="71"/>
       <c r="D410" s="71" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E410" s="71"/>
       <c r="F410" s="71"/>
@@ -20591,7 +20821,7 @@
       <c r="C411" s="71"/>
       <c r="D411" s="71"/>
       <c r="E411" s="72" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F411" s="71"/>
       <c r="G411" s="71"/>
@@ -20611,7 +20841,7 @@
       <c r="D412" s="71"/>
       <c r="E412" s="71"/>
       <c r="F412" s="71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G412" s="71"/>
       <c r="H412" s="71"/>
@@ -20629,7 +20859,7 @@
       <c r="C413" s="71"/>
       <c r="D413" s="71"/>
       <c r="E413" s="72" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F413" s="71"/>
       <c r="G413" s="71"/>
@@ -20649,7 +20879,7 @@
       <c r="D414" s="71"/>
       <c r="E414" s="71"/>
       <c r="F414" s="71" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G414" s="71"/>
       <c r="H414" s="71"/>
@@ -20667,7 +20897,7 @@
       <c r="C415" s="71"/>
       <c r="D415" s="71"/>
       <c r="E415" s="72" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F415" s="71"/>
       <c r="G415" s="71"/>
@@ -20687,7 +20917,7 @@
       <c r="D416" s="71"/>
       <c r="E416" s="71"/>
       <c r="F416" s="71" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G416" s="71"/>
       <c r="H416" s="71"/>
@@ -20704,7 +20934,7 @@
       <c r="C417" s="51"/>
       <c r="D417" s="51"/>
       <c r="E417" s="52" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F417" s="51"/>
       <c r="G417" s="51"/>
@@ -20723,7 +20953,7 @@
       <c r="D418" s="51"/>
       <c r="E418" s="51"/>
       <c r="F418" s="51" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G418" s="51"/>
       <c r="H418" s="51"/>
@@ -20739,7 +20969,7 @@
       <c r="C419" s="51"/>
       <c r="D419" s="51"/>
       <c r="E419" s="51" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F419" s="51"/>
       <c r="G419" s="51"/>
@@ -20757,7 +20987,7 @@
       <c r="D420" s="51"/>
       <c r="E420" s="51"/>
       <c r="F420" s="51" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G420" s="51"/>
       <c r="H420" s="51"/>
@@ -20773,7 +21003,7 @@
       <c r="C421" s="55"/>
       <c r="D421" s="51"/>
       <c r="E421" s="51" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F421" s="51"/>
       <c r="G421" s="51"/>
@@ -20791,7 +21021,7 @@
       <c r="D422" s="51"/>
       <c r="E422" s="51"/>
       <c r="F422" s="51" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G422" s="51"/>
       <c r="H422" s="51"/>
@@ -20807,7 +21037,7 @@
       <c r="C423" s="51"/>
       <c r="D423" s="51"/>
       <c r="E423" s="53" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F423" s="51"/>
       <c r="G423" s="51"/>
@@ -20825,7 +21055,7 @@
       <c r="D424" s="51"/>
       <c r="E424" s="51"/>
       <c r="F424" s="51" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G424" s="51"/>
       <c r="H424" s="51"/>
@@ -20842,7 +21072,7 @@
       <c r="C425" s="71"/>
       <c r="D425" s="71"/>
       <c r="E425" s="71" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F425" s="71"/>
       <c r="G425" s="71"/>
@@ -20861,7 +21091,7 @@
       <c r="D426" s="71"/>
       <c r="E426" s="71"/>
       <c r="F426" s="71" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G426" s="71"/>
       <c r="H426" s="71"/>
@@ -20876,7 +21106,7 @@
     <row r="427" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A427" s="75"/>
       <c r="C427" s="62" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="D427" s="62"/>
       <c r="E427" s="62"/>
@@ -20894,11 +21124,11 @@
     </row>
     <row r="428" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A428" s="75" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C428" s="62"/>
       <c r="D428" s="62" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="E428" s="62"/>
       <c r="F428" s="62"/>
@@ -20917,7 +21147,7 @@
       <c r="A429" s="75"/>
       <c r="C429" s="62"/>
       <c r="D429" s="62" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E429" s="62"/>
       <c r="F429" s="62"/>
@@ -20952,7 +21182,7 @@
     <row r="431" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A431" s="75"/>
       <c r="C431" s="62" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D431" s="62"/>
       <c r="E431" s="62"/>
@@ -20972,7 +21202,7 @@
       <c r="A432" s="75"/>
       <c r="C432" s="62"/>
       <c r="D432" s="62" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E432" s="62"/>
       <c r="F432" s="62"/>
@@ -20989,18 +21219,18 @@
     </row>
     <row r="433" spans="1:16" s="70" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A433" s="75" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C433" s="62"/>
       <c r="D433" s="62" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E433" s="62"/>
       <c r="F433" s="62"/>
       <c r="G433" s="62"/>
       <c r="H433" s="76"/>
       <c r="I433" s="62" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="J433" s="62"/>
       <c r="K433" s="62"/>
@@ -21015,13 +21245,13 @@
       <c r="C434" s="62"/>
       <c r="D434" s="62"/>
       <c r="E434" s="62" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F434" s="62"/>
       <c r="G434" s="62"/>
       <c r="H434" s="76"/>
       <c r="I434" s="62" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J434" s="62"/>
       <c r="K434" s="62"/>
@@ -21037,7 +21267,7 @@
       <c r="D435" s="62"/>
       <c r="E435" s="62"/>
       <c r="F435" s="62" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G435" s="62"/>
       <c r="H435" s="76"/>
@@ -21052,14 +21282,14 @@
     </row>
     <row r="436" spans="1:16" s="70" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A436" s="75" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C436" s="62"/>
       <c r="D436" s="62"/>
       <c r="E436" s="62"/>
       <c r="F436" s="62"/>
       <c r="G436" s="62" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H436" s="76"/>
       <c r="I436" s="62"/>
@@ -21077,7 +21307,7 @@
       <c r="D437" s="62"/>
       <c r="E437" s="62"/>
       <c r="F437" s="62" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G437" s="62"/>
       <c r="H437" s="76"/>
@@ -21097,7 +21327,7 @@
       <c r="E438" s="62"/>
       <c r="F438" s="62"/>
       <c r="G438" s="62" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H438" s="76"/>
       <c r="I438" s="62"/>
@@ -21118,7 +21348,7 @@
       <c r="G439" s="76"/>
       <c r="H439" s="76"/>
       <c r="I439" s="62" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J439" s="62"/>
       <c r="K439" s="62"/>
@@ -21131,7 +21361,7 @@
     <row r="440" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A440" s="75"/>
       <c r="C440" s="62" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D440" s="62"/>
       <c r="E440" s="62"/>
@@ -21151,7 +21381,7 @@
       <c r="A441" s="75"/>
       <c r="C441" s="62"/>
       <c r="D441" s="62" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E441" s="62"/>
       <c r="F441" s="62"/>
@@ -21170,7 +21400,7 @@
       <c r="A442" s="75"/>
       <c r="C442" s="62"/>
       <c r="D442" s="62" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E442" s="62"/>
       <c r="F442" s="62"/>
@@ -21190,7 +21420,7 @@
       <c r="C443" s="62"/>
       <c r="D443" s="62"/>
       <c r="E443" s="62" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="F443" s="62"/>
       <c r="G443" s="62"/>
@@ -21210,7 +21440,7 @@
       <c r="D444" s="62"/>
       <c r="E444" s="76"/>
       <c r="F444" s="76" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G444" s="62"/>
       <c r="H444" s="62"/>
@@ -21230,7 +21460,7 @@
       <c r="E445" s="76"/>
       <c r="F445" s="62"/>
       <c r="G445" s="62" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="H445" s="62"/>
       <c r="I445" s="62"/>
@@ -21244,13 +21474,13 @@
     </row>
     <row r="446" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A446" s="75" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C446" s="62"/>
       <c r="D446" s="62"/>
       <c r="E446" s="76"/>
       <c r="F446" s="62" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G446" s="62"/>
       <c r="H446" s="62"/>
@@ -21265,14 +21495,14 @@
     </row>
     <row r="447" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A447" s="75" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C447" s="62"/>
       <c r="D447" s="62"/>
       <c r="E447" s="76"/>
       <c r="F447" s="62"/>
       <c r="G447" s="62" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H447" s="62"/>
       <c r="I447" s="62"/>
@@ -21289,7 +21519,7 @@
       <c r="C448" s="62"/>
       <c r="D448" s="62"/>
       <c r="E448" s="62" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F448" s="62"/>
       <c r="G448" s="62"/>
@@ -21309,7 +21539,7 @@
       <c r="D449" s="62"/>
       <c r="E449" s="62"/>
       <c r="F449" s="62" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="G449" s="62"/>
       <c r="H449" s="62"/>
@@ -21325,7 +21555,7 @@
     <row r="450" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A450" s="75"/>
       <c r="C450" s="62" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D450" s="62"/>
       <c r="E450" s="62"/>
@@ -21345,7 +21575,7 @@
       <c r="A451" s="72"/>
       <c r="C451" s="62"/>
       <c r="D451" s="62" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E451" s="62"/>
       <c r="F451" s="62"/>
@@ -21364,13 +21594,13 @@
       <c r="A452" s="71"/>
       <c r="C452" s="62"/>
       <c r="D452" s="62"/>
-      <c r="E452" s="90" t="s">
-        <v>491</v>
-      </c>
-      <c r="F452" s="90" t="s">
-        <v>490</v>
-      </c>
-      <c r="G452" s="90"/>
+      <c r="E452" s="92" t="s">
+        <v>488</v>
+      </c>
+      <c r="F452" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="G452" s="92"/>
       <c r="H452" s="62"/>
       <c r="I452" s="62"/>
       <c r="J452" s="62"/>
@@ -21385,12 +21615,12 @@
       <c r="A453" s="71"/>
       <c r="C453" s="62"/>
       <c r="D453" s="62"/>
-      <c r="E453" s="90"/>
+      <c r="E453" s="92"/>
       <c r="F453" s="61" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G453" s="61" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H453" s="62"/>
       <c r="I453" s="62"/>
@@ -21407,13 +21637,13 @@
       <c r="C454" s="62"/>
       <c r="D454" s="62"/>
       <c r="E454" s="61" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F454" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G454" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H454" s="62"/>
       <c r="I454" s="62"/>
@@ -21430,13 +21660,13 @@
       <c r="C455" s="62"/>
       <c r="D455" s="62"/>
       <c r="E455" s="59" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F455" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G455" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H455" s="62"/>
       <c r="I455" s="62"/>
@@ -21453,13 +21683,13 @@
       <c r="C456" s="62"/>
       <c r="D456" s="62"/>
       <c r="E456" s="59" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F456" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G456" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H456" s="62"/>
       <c r="I456" s="62"/>
@@ -21476,13 +21706,13 @@
       <c r="C457" s="62"/>
       <c r="D457" s="62"/>
       <c r="E457" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="F457" s="60" t="s">
         <v>486</v>
       </c>
-      <c r="F457" s="60" t="s">
-        <v>489</v>
-      </c>
       <c r="G457" s="60" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H457" s="62"/>
       <c r="I457" s="62"/>
@@ -21499,13 +21729,13 @@
       <c r="C458" s="62"/>
       <c r="D458" s="62"/>
       <c r="E458" s="59" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F458" s="60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G458" s="60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H458" s="62"/>
       <c r="I458" s="62"/>
@@ -21522,13 +21752,13 @@
       <c r="C459" s="62"/>
       <c r="D459" s="62"/>
       <c r="E459" s="59" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F459" s="60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G459" s="60" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H459" s="62"/>
       <c r="I459" s="62"/>
@@ -21544,7 +21774,7 @@
       <c r="A460" s="71"/>
       <c r="C460" s="62"/>
       <c r="D460" s="62" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E460" s="58"/>
       <c r="F460" s="58"/>
@@ -21564,10 +21794,10 @@
       <c r="C461" s="62"/>
       <c r="D461" s="62"/>
       <c r="E461" s="58" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F461" s="58" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G461" s="58"/>
       <c r="H461" s="58"/>
@@ -21585,10 +21815,10 @@
       <c r="C462" s="62"/>
       <c r="D462" s="62"/>
       <c r="E462" s="58" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F462" s="58" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G462" s="58"/>
       <c r="H462" s="58"/>
@@ -21621,7 +21851,7 @@
     <row r="464" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A464" s="71"/>
       <c r="C464" s="62" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D464" s="76"/>
       <c r="E464" s="76"/>
@@ -21641,7 +21871,7 @@
       <c r="A465" s="71"/>
       <c r="C465" s="62"/>
       <c r="D465" s="62" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E465" s="62"/>
       <c r="F465" s="58"/>
@@ -21661,7 +21891,7 @@
       <c r="C466" s="62"/>
       <c r="D466" s="76"/>
       <c r="E466" s="58" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="F466" s="57"/>
       <c r="G466" s="57"/>
@@ -21681,7 +21911,7 @@
       <c r="D467" s="76"/>
       <c r="E467" s="57"/>
       <c r="F467" s="62" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G467" s="62"/>
       <c r="H467" s="76"/>
@@ -21701,7 +21931,7 @@
       <c r="E468" s="57"/>
       <c r="F468" s="62"/>
       <c r="G468" s="62" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H468" s="76"/>
       <c r="I468" s="58"/>
@@ -21719,7 +21949,7 @@
       <c r="D469" s="76"/>
       <c r="E469" s="57"/>
       <c r="F469" s="62" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G469" s="62"/>
       <c r="H469" s="76"/>
@@ -21739,7 +21969,7 @@
       <c r="E470" s="62"/>
       <c r="F470" s="62"/>
       <c r="G470" s="62" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H470" s="76"/>
       <c r="I470" s="58"/>
@@ -21772,7 +22002,7 @@
       <c r="A472" s="71"/>
       <c r="C472" s="62"/>
       <c r="D472" s="62" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="E472" s="58"/>
       <c r="F472" s="58"/>
@@ -21793,10 +22023,10 @@
       <c r="D473" s="62"/>
       <c r="E473" s="56"/>
       <c r="F473" s="59" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G473" s="59" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H473" s="58"/>
       <c r="I473" s="58"/>
@@ -21813,13 +22043,13 @@
       <c r="C474" s="62"/>
       <c r="D474" s="62"/>
       <c r="E474" s="59" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F474" s="60">
         <v>3</v>
       </c>
       <c r="G474" s="60" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H474" s="58"/>
       <c r="I474" s="58"/>
@@ -21836,13 +22066,13 @@
       <c r="C475" s="62"/>
       <c r="D475" s="62"/>
       <c r="E475" s="59" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F475" s="60">
         <v>1</v>
       </c>
       <c r="G475" s="60" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H475" s="58"/>
       <c r="I475" s="58"/>
@@ -21858,10 +22088,10 @@
       <c r="A476" s="71"/>
       <c r="C476" s="62"/>
       <c r="D476" s="62" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="E476" s="62" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F476" s="58"/>
       <c r="G476" s="58"/>
@@ -21929,7 +22159,7 @@
     <row r="480" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A480" s="71"/>
       <c r="C480" s="62" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D480" s="62"/>
       <c r="E480" s="58"/>
@@ -21949,7 +22179,7 @@
       <c r="A481" s="71"/>
       <c r="C481" s="76"/>
       <c r="D481" s="62" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E481" s="58"/>
       <c r="F481" s="58"/>
@@ -22493,11 +22723,11 @@
     </row>
     <row r="513" spans="1:16" s="70" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A513" s="63" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C513" s="62"/>
       <c r="D513" s="62" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E513" s="58"/>
       <c r="F513" s="58"/>
@@ -22514,12 +22744,12 @@
     </row>
     <row r="514" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A514" s="71" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C514" s="62"/>
       <c r="D514" s="62"/>
       <c r="E514" s="58" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F514" s="58"/>
       <c r="G514" s="58"/>
@@ -22538,7 +22768,7 @@
       <c r="C515" s="62"/>
       <c r="D515" s="62"/>
       <c r="E515" s="58" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F515" s="58"/>
       <c r="G515" s="58"/>
@@ -22554,24 +22784,24 @@
     </row>
     <row r="516" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A516" s="71" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C516" s="62"/>
       <c r="D516" s="58" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E516" s="58"/>
       <c r="F516" s="76"/>
       <c r="G516" s="62" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="H516" s="58" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I516" s="58"/>
       <c r="J516" s="58"/>
       <c r="K516" s="62" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L516" s="76"/>
       <c r="M516" s="62"/>
@@ -22586,13 +22816,13 @@
       <c r="E517" s="58"/>
       <c r="F517" s="58"/>
       <c r="G517" s="58" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H517" s="58"/>
       <c r="I517" s="58"/>
       <c r="J517" s="58"/>
       <c r="K517" s="58" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="L517" s="76"/>
       <c r="M517" s="62"/>
@@ -22602,7 +22832,7 @@
     </row>
     <row r="518" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A518" s="71" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C518" s="62"/>
       <c r="D518" s="62"/>
@@ -22614,7 +22844,7 @@
       <c r="J518" s="58"/>
       <c r="K518" s="62"/>
       <c r="L518" s="62" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M518" s="62"/>
       <c r="N518" s="62"/>
@@ -22623,7 +22853,7 @@
     </row>
     <row r="519" spans="1:16" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A519" s="71" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C519" s="62"/>
       <c r="D519" s="62"/>
@@ -22662,7 +22892,7 @@
       <c r="C521" s="62"/>
       <c r="D521" s="62"/>
       <c r="E521" s="58" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F521" s="58"/>
       <c r="G521" s="58"/>
@@ -22682,7 +22912,7 @@
       <c r="D522" s="62"/>
       <c r="E522" s="58"/>
       <c r="F522" s="58" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G522" s="58"/>
       <c r="H522" s="58"/>
@@ -22701,7 +22931,7 @@
       <c r="D523" s="62"/>
       <c r="E523" s="58"/>
       <c r="F523" s="76" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="G523" s="58"/>
       <c r="H523" s="58"/>
@@ -22720,7 +22950,7 @@
       <c r="D524" s="62"/>
       <c r="E524" s="58"/>
       <c r="F524" s="58" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G524" s="58"/>
       <c r="H524" s="58"/>
@@ -22738,7 +22968,7 @@
       <c r="C525" s="62"/>
       <c r="D525" s="62"/>
       <c r="E525" s="58" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F525" s="58"/>
       <c r="G525" s="58"/>
@@ -22758,7 +22988,7 @@
       <c r="D526" s="62"/>
       <c r="E526" s="58"/>
       <c r="F526" s="58" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G526" s="58"/>
       <c r="H526" s="58"/>
@@ -22777,7 +23007,7 @@
       <c r="D527" s="62"/>
       <c r="E527" s="58"/>
       <c r="F527" s="58" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="G527" s="58"/>
       <c r="H527" s="58"/>
@@ -22796,7 +23026,7 @@
       <c r="D528" s="62"/>
       <c r="E528" s="58"/>
       <c r="F528" s="58" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="G528" s="58"/>
       <c r="H528" s="58"/>
@@ -22845,7 +23075,7 @@
     <row r="531" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A531" s="27"/>
       <c r="C531" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D531" s="15"/>
       <c r="E531" s="15"/>
@@ -22865,7 +23095,7 @@
       <c r="A532" s="21"/>
       <c r="C532" s="15"/>
       <c r="D532" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E532" s="15"/>
       <c r="F532" s="15"/>
@@ -22885,7 +23115,7 @@
       <c r="C533" s="15"/>
       <c r="D533" s="15"/>
       <c r="E533" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F533" s="15"/>
       <c r="G533" s="19"/>
@@ -22903,7 +23133,7 @@
       <c r="C534" s="15"/>
       <c r="D534" s="15"/>
       <c r="E534" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F534" s="15"/>
       <c r="G534" s="19"/>
@@ -22921,7 +23151,7 @@
       <c r="C535" s="15"/>
       <c r="D535" s="15"/>
       <c r="E535" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F535" s="15"/>
       <c r="G535" s="19"/>
@@ -22939,7 +23169,7 @@
       <c r="C536" s="15"/>
       <c r="D536" s="15"/>
       <c r="E536" s="20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F536" s="15"/>
       <c r="G536" s="19"/>
@@ -22957,7 +23187,7 @@
       <c r="C537" s="15"/>
       <c r="D537" s="15"/>
       <c r="E537" s="20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F537" s="15"/>
       <c r="G537" s="19"/>
@@ -22974,7 +23204,7 @@
     <row r="538" spans="1:16" x14ac:dyDescent="0.15">
       <c r="C538" s="15"/>
       <c r="D538" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E538" s="15"/>
       <c r="F538" s="15"/>
@@ -22993,7 +23223,7 @@
       <c r="C539" s="15"/>
       <c r="D539" s="15"/>
       <c r="E539" s="20" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F539" s="19"/>
       <c r="G539" s="19"/>
@@ -23011,7 +23241,7 @@
       <c r="C540" s="15"/>
       <c r="D540" s="15"/>
       <c r="E540" s="20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F540" s="19"/>
       <c r="G540" s="19"/>
@@ -23029,7 +23259,7 @@
       <c r="C541" s="15"/>
       <c r="D541" s="19"/>
       <c r="E541" s="20" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F541" s="19"/>
       <c r="G541" s="19"/>
@@ -23047,7 +23277,7 @@
       <c r="C542" s="15"/>
       <c r="D542" s="15"/>
       <c r="E542" s="20" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F542" s="20"/>
       <c r="G542" s="20"/>
@@ -23066,7 +23296,7 @@
       <c r="D543" s="15"/>
       <c r="E543" s="20"/>
       <c r="F543" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G543" s="20"/>
       <c r="H543" s="15"/>
@@ -23085,7 +23315,7 @@
       <c r="E544" s="20"/>
       <c r="F544" s="20"/>
       <c r="G544" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H544" s="15"/>
       <c r="I544" s="15"/>
@@ -23103,7 +23333,7 @@
       <c r="E545" s="20"/>
       <c r="F545" s="20"/>
       <c r="G545" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H545" s="15"/>
       <c r="I545" s="15"/>
@@ -23121,7 +23351,7 @@
       <c r="E546" s="20"/>
       <c r="F546" s="20"/>
       <c r="G546" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H546" s="15"/>
       <c r="I546" s="15"/>
@@ -23137,7 +23367,7 @@
       <c r="C547" s="15"/>
       <c r="D547" s="15"/>
       <c r="E547" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F547" s="19"/>
       <c r="G547" s="19"/>
@@ -23155,7 +23385,7 @@
       <c r="C548" s="15"/>
       <c r="D548" s="15"/>
       <c r="E548" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F548" s="19"/>
       <c r="G548" s="19"/>
@@ -23173,7 +23403,7 @@
       <c r="C549" s="15"/>
       <c r="D549" s="15"/>
       <c r="E549" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F549" s="19"/>
       <c r="G549" s="19"/>
@@ -23191,7 +23421,7 @@
       <c r="C550" s="15"/>
       <c r="D550" s="15"/>
       <c r="E550" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F550" s="19"/>
       <c r="G550" s="19"/>
@@ -23210,7 +23440,7 @@
       <c r="D551" s="15"/>
       <c r="E551" s="18"/>
       <c r="F551" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G551" s="19"/>
       <c r="H551" s="15"/>
@@ -23228,7 +23458,7 @@
       <c r="D552" s="15"/>
       <c r="E552" s="18"/>
       <c r="F552" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G552" s="19"/>
       <c r="H552" s="15"/>
@@ -23261,7 +23491,7 @@
       <c r="C554" s="15"/>
       <c r="D554" s="15"/>
       <c r="E554" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F554" s="19"/>
       <c r="G554" s="19"/>
@@ -23279,7 +23509,7 @@
       <c r="C555" s="15"/>
       <c r="D555" s="15"/>
       <c r="E555" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F555" s="19"/>
       <c r="G555" s="19"/>
@@ -23298,7 +23528,7 @@
       <c r="D556" s="15"/>
       <c r="E556" s="18"/>
       <c r="F556" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G556" s="19"/>
       <c r="H556" s="15"/>
@@ -23316,7 +23546,7 @@
       <c r="D557" s="15"/>
       <c r="E557" s="18"/>
       <c r="F557" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G557" s="19"/>
       <c r="H557" s="15"/>
@@ -23335,7 +23565,7 @@
       <c r="E558" s="18"/>
       <c r="F558" s="19"/>
       <c r="G558" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H558" s="15"/>
       <c r="I558" s="15"/>
@@ -23353,7 +23583,7 @@
       <c r="E559" s="18"/>
       <c r="F559" s="19"/>
       <c r="G559" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H559" s="15"/>
       <c r="I559" s="15"/>
@@ -23385,7 +23615,7 @@
       <c r="C561" s="15"/>
       <c r="D561" s="15"/>
       <c r="E561" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F561" s="19"/>
       <c r="G561" s="19"/>
@@ -23403,7 +23633,7 @@
       <c r="C562" s="15"/>
       <c r="D562" s="15"/>
       <c r="E562" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F562" s="19"/>
       <c r="G562" s="19"/>
@@ -23422,7 +23652,7 @@
       <c r="D563" s="15"/>
       <c r="E563" s="18"/>
       <c r="F563" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G563" s="19"/>
       <c r="H563" s="15"/>
@@ -23440,7 +23670,7 @@
       <c r="D564" s="15"/>
       <c r="E564" s="18"/>
       <c r="F564" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G564" s="19"/>
       <c r="H564" s="15"/>
@@ -23459,7 +23689,7 @@
       <c r="E565" s="18"/>
       <c r="F565" s="19"/>
       <c r="G565" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H565" s="15"/>
       <c r="I565" s="15"/>
@@ -23524,7 +23754,7 @@
       <c r="D569" s="15"/>
       <c r="E569" s="18"/>
       <c r="F569" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G569" s="19"/>
       <c r="H569" s="15"/>
@@ -23542,7 +23772,7 @@
       <c r="D570" s="15"/>
       <c r="E570" s="18"/>
       <c r="F570" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G570" s="19"/>
       <c r="H570" s="15"/>
@@ -23560,7 +23790,7 @@
       <c r="D571" s="15"/>
       <c r="E571" s="18"/>
       <c r="F571" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G571" s="19"/>
       <c r="H571" s="15"/>
@@ -23593,7 +23823,7 @@
       <c r="C573" s="15"/>
       <c r="D573" s="15"/>
       <c r="E573" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F573" s="19"/>
       <c r="G573" s="19"/>
@@ -23611,7 +23841,7 @@
       <c r="C574" s="15"/>
       <c r="D574" s="15"/>
       <c r="E574" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F574" s="19"/>
       <c r="G574" s="19"/>
@@ -23645,7 +23875,7 @@
       <c r="C576" s="15"/>
       <c r="D576" s="15"/>
       <c r="E576" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F576" s="19"/>
       <c r="G576" s="19"/>
@@ -23663,7 +23893,7 @@
       <c r="C577" s="15"/>
       <c r="D577" s="15"/>
       <c r="E577" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F577" s="19"/>
       <c r="G577" s="19"/>
@@ -23697,7 +23927,7 @@
       <c r="C579" s="15"/>
       <c r="D579" s="15"/>
       <c r="E579" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F579" s="19"/>
       <c r="G579" s="19"/>
@@ -23715,7 +23945,7 @@
       <c r="C580" s="15"/>
       <c r="D580" s="15"/>
       <c r="E580" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F580" s="19"/>
       <c r="G580" s="19"/>
@@ -23749,7 +23979,7 @@
       <c r="C582" s="15"/>
       <c r="D582" s="15"/>
       <c r="E582" s="18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F582" s="19"/>
       <c r="G582" s="19"/>
@@ -23767,7 +23997,7 @@
       <c r="C583" s="15"/>
       <c r="D583" s="15"/>
       <c r="E583" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F583" s="19"/>
       <c r="G583" s="19"/>
@@ -23785,7 +24015,7 @@
       <c r="C584" s="15"/>
       <c r="D584" s="15"/>
       <c r="E584" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F584" s="19"/>
       <c r="G584" s="19"/>
@@ -23803,7 +24033,7 @@
       <c r="C585" s="15"/>
       <c r="D585" s="15"/>
       <c r="E585" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F585" s="19"/>
       <c r="G585" s="19"/>
@@ -23837,7 +24067,7 @@
       <c r="C587" s="15"/>
       <c r="D587" s="15"/>
       <c r="E587" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F587" s="19"/>
       <c r="G587" s="19"/>
@@ -23871,7 +24101,7 @@
       <c r="C589" s="15"/>
       <c r="D589" s="15"/>
       <c r="E589" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F589" s="19"/>
       <c r="G589" s="19"/>
@@ -23890,7 +24120,7 @@
       <c r="D590" s="15"/>
       <c r="E590" s="18"/>
       <c r="F590" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G590" s="19"/>
       <c r="H590" s="15"/>
@@ -23907,7 +24137,7 @@
       <c r="C591" s="15"/>
       <c r="D591" s="15"/>
       <c r="E591" s="18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F591" s="19"/>
       <c r="G591" s="19"/>
@@ -23926,7 +24156,7 @@
       <c r="D592" s="15"/>
       <c r="E592" s="18"/>
       <c r="F592" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G592" s="19"/>
       <c r="H592" s="15"/>
@@ -23959,7 +24189,7 @@
       <c r="C594" s="15"/>
       <c r="D594" s="15"/>
       <c r="E594" s="29" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F594" s="18"/>
       <c r="G594" s="19"/>
@@ -23993,7 +24223,7 @@
       <c r="C596" s="15"/>
       <c r="D596" s="15"/>
       <c r="E596" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F596" s="18"/>
       <c r="G596" s="19"/>
@@ -24011,7 +24241,7 @@
       <c r="C597" s="15"/>
       <c r="D597" s="15"/>
       <c r="E597" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F597" s="18"/>
       <c r="G597" s="19"/>
@@ -24045,7 +24275,7 @@
       <c r="C599" s="15"/>
       <c r="D599" s="15"/>
       <c r="E599" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F599" s="18"/>
       <c r="G599" s="19"/>
@@ -24063,7 +24293,7 @@
       <c r="C600" s="15"/>
       <c r="D600" s="15"/>
       <c r="E600" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F600" s="18"/>
       <c r="G600" s="19"/>
@@ -24081,7 +24311,7 @@
       <c r="C601" s="15"/>
       <c r="D601" s="15"/>
       <c r="E601" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F601" s="18"/>
       <c r="G601" s="19"/>
@@ -24097,7 +24327,7 @@
     </row>
     <row r="603" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C603" s="85" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D603" s="85"/>
       <c r="E603" s="85"/>
@@ -24108,7 +24338,7 @@
     <row r="604" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C604" s="85"/>
       <c r="D604" s="85" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E604" s="85"/>
       <c r="F604" s="85"/>
@@ -24118,7 +24348,7 @@
     <row r="605" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C605" s="85"/>
       <c r="D605" s="85" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E605" s="85"/>
       <c r="F605" s="85"/>
@@ -24129,7 +24359,7 @@
       <c r="C606" s="85"/>
       <c r="D606" s="85"/>
       <c r="E606" s="85" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F606" s="85"/>
       <c r="G606" s="85"/>
@@ -24139,7 +24369,7 @@
       <c r="C607" s="85"/>
       <c r="D607" s="85"/>
       <c r="E607" s="86" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F607" s="86"/>
       <c r="G607" s="86"/>
@@ -24148,7 +24378,7 @@
     <row r="608" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C608" s="85"/>
       <c r="D608" s="86" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E608" s="86"/>
       <c r="F608" s="86"/>
@@ -24159,7 +24389,7 @@
       <c r="C609" s="85"/>
       <c r="D609" s="86"/>
       <c r="E609" s="86" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F609" s="86"/>
       <c r="G609" s="86"/>
@@ -24168,7 +24398,7 @@
     <row r="610" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C610" s="85"/>
       <c r="D610" s="85" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E610" s="85"/>
       <c r="F610" s="85"/>
@@ -24181,7 +24411,7 @@
       <c r="C611" s="86"/>
       <c r="D611" s="86"/>
       <c r="E611" s="86" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F611" s="86"/>
       <c r="G611" s="86"/>
@@ -24199,7 +24429,7 @@
       <c r="D612" s="86"/>
       <c r="E612" s="86"/>
       <c r="F612" s="86" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="G612" s="86"/>
       <c r="H612" s="86"/>
@@ -24214,7 +24444,7 @@
       <c r="B613" s="11"/>
       <c r="C613" s="86"/>
       <c r="D613" s="86" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E613" s="86"/>
       <c r="F613" s="86"/>
@@ -24232,7 +24462,7 @@
       <c r="C614" s="86"/>
       <c r="D614" s="86"/>
       <c r="E614" s="86" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F614" s="86"/>
       <c r="G614" s="86"/>
@@ -24250,7 +24480,7 @@
       <c r="D615" s="86"/>
       <c r="E615" s="86"/>
       <c r="F615" s="86" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G615" s="86"/>
       <c r="H615" s="86"/>
@@ -24266,7 +24496,7 @@
       <c r="C616" s="86"/>
       <c r="D616" s="86"/>
       <c r="E616" s="86" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F616" s="86"/>
       <c r="G616" s="86"/>
@@ -24284,7 +24514,7 @@
       <c r="D617" s="86"/>
       <c r="E617" s="86"/>
       <c r="F617" s="86" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G617" s="86"/>
       <c r="H617" s="86"/>
@@ -24299,7 +24529,7 @@
       <c r="B618" s="11"/>
       <c r="C618" s="86"/>
       <c r="D618" s="86" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E618" s="86"/>
       <c r="F618" s="86"/>
@@ -24317,7 +24547,7 @@
       <c r="C619" s="86"/>
       <c r="D619" s="86"/>
       <c r="E619" s="86" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F619" s="86"/>
       <c r="G619" s="86"/>
@@ -24333,7 +24563,7 @@
       <c r="B620" s="11"/>
       <c r="C620" s="86"/>
       <c r="D620" s="86" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E620" s="86"/>
       <c r="F620" s="86"/>
@@ -24351,7 +24581,7 @@
       <c r="C621" s="86"/>
       <c r="D621" s="86"/>
       <c r="E621" s="86" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F621" s="86"/>
       <c r="G621" s="86"/>
@@ -24385,7 +24615,7 @@
       <c r="C623" s="86"/>
       <c r="D623" s="86"/>
       <c r="E623" s="86" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F623" s="86"/>
       <c r="G623" s="86"/>
@@ -24401,7 +24631,7 @@
       <c r="B624" s="11"/>
       <c r="C624" s="86"/>
       <c r="D624" s="86" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="E624" s="86"/>
       <c r="F624" s="86"/>
@@ -24419,7 +24649,7 @@
       <c r="C625" s="86"/>
       <c r="D625" s="86"/>
       <c r="E625" s="86" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F625" s="86"/>
       <c r="G625" s="86"/>
@@ -24437,7 +24667,7 @@
       <c r="D626" s="86"/>
       <c r="E626" s="86"/>
       <c r="F626" s="86" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="G626" s="86"/>
       <c r="H626" s="86"/>
@@ -24453,7 +24683,7 @@
       <c r="C627" s="86"/>
       <c r="D627" s="86"/>
       <c r="E627" s="86" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="F627" s="86"/>
       <c r="G627" s="86"/>
@@ -24471,7 +24701,7 @@
       <c r="D628" s="86"/>
       <c r="E628" s="86"/>
       <c r="F628" s="86" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G628" s="86"/>
       <c r="H628" s="86"/>
@@ -24486,7 +24716,7 @@
       <c r="B629" s="11"/>
       <c r="C629" s="86"/>
       <c r="D629" s="86" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E629" s="86"/>
       <c r="F629" s="86"/>
@@ -24504,7 +24734,7 @@
       <c r="C630" s="86"/>
       <c r="D630" s="86"/>
       <c r="E630" s="86" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F630" s="86"/>
       <c r="G630" s="86"/>
@@ -24522,7 +24752,7 @@
       <c r="D631" s="86"/>
       <c r="E631" s="86"/>
       <c r="F631" s="86" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G631" s="86"/>
       <c r="H631" s="86"/>
@@ -24552,7 +24782,7 @@
       <c r="B633" s="11"/>
       <c r="C633" s="86"/>
       <c r="D633" s="86" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E633" s="86"/>
       <c r="F633" s="86"/>
@@ -24569,7 +24799,7 @@
       <c r="B634" s="11"/>
       <c r="C634" s="86"/>
       <c r="D634" s="86" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E634" s="86"/>
       <c r="F634" s="86"/>
@@ -24598,7 +24828,7 @@
     </row>
     <row r="636" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C636" s="85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D636" s="85"/>
       <c r="E636" s="85"/>
@@ -24609,7 +24839,7 @@
     <row r="637" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C637" s="85"/>
       <c r="D637" s="85" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E637" s="85"/>
       <c r="F637" s="85"/>
@@ -24619,7 +24849,7 @@
     <row r="638" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C638" s="85"/>
       <c r="D638" s="85" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E638" s="85"/>
       <c r="F638" s="85"/>
@@ -24631,7 +24861,7 @@
       <c r="C639" s="85"/>
       <c r="D639" s="85"/>
       <c r="E639" s="85" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F639" s="85"/>
       <c r="G639" s="85"/>
@@ -24641,7 +24871,7 @@
     <row r="640" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C640" s="85"/>
       <c r="D640" s="86" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E640" s="86"/>
       <c r="F640" s="86"/>
@@ -24652,7 +24882,7 @@
       <c r="C641" s="85"/>
       <c r="D641" s="86"/>
       <c r="E641" s="86" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F641" s="86"/>
       <c r="G641" s="86"/>
@@ -24661,7 +24891,7 @@
     <row r="642" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C642" s="85"/>
       <c r="D642" s="85" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E642" s="85"/>
       <c r="F642" s="85"/>
@@ -24672,7 +24902,7 @@
       <c r="C643" s="85"/>
       <c r="D643" s="85"/>
       <c r="E643" s="85" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F643" s="85"/>
       <c r="G643" s="85"/>
@@ -24683,7 +24913,7 @@
       <c r="D644" s="85"/>
       <c r="E644" s="85"/>
       <c r="F644" s="85" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="G644" s="85"/>
       <c r="H644" s="85"/>
@@ -24691,7 +24921,7 @@
     <row r="645" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C645" s="85"/>
       <c r="D645" s="85" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E645" s="85"/>
       <c r="F645" s="85"/>
@@ -24704,7 +24934,7 @@
       <c r="C646" s="86"/>
       <c r="D646" s="86"/>
       <c r="E646" s="86" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F646" s="86"/>
       <c r="G646" s="86"/>
@@ -24722,7 +24952,7 @@
       <c r="D647" s="86"/>
       <c r="E647" s="86"/>
       <c r="F647" s="86" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G647" s="86"/>
       <c r="H647" s="86"/>
@@ -24738,7 +24968,7 @@
       <c r="C648" s="86"/>
       <c r="D648" s="86"/>
       <c r="E648" s="86" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F648" s="86"/>
       <c r="G648" s="86"/>
@@ -24756,7 +24986,7 @@
       <c r="D649" s="86"/>
       <c r="E649" s="86"/>
       <c r="F649" s="86" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G649" s="86"/>
       <c r="H649" s="86"/>
@@ -24772,7 +25002,7 @@
       <c r="C650" s="86"/>
       <c r="D650" s="86"/>
       <c r="E650" s="86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F650" s="86"/>
       <c r="G650" s="86"/>
@@ -24790,7 +25020,7 @@
       <c r="D651" s="86"/>
       <c r="E651" s="86"/>
       <c r="F651" s="86" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G651" s="86"/>
       <c r="H651" s="86"/>
@@ -24838,7 +25068,7 @@
       <c r="C654" s="86"/>
       <c r="D654" s="86"/>
       <c r="E654" s="86" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F654" s="86"/>
       <c r="G654" s="86"/>
@@ -24854,7 +25084,7 @@
       <c r="B655" s="11"/>
       <c r="C655" s="86"/>
       <c r="D655" s="86" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="E655" s="86"/>
       <c r="F655" s="86"/>
@@ -24887,7 +25117,7 @@
       <c r="C657" s="86"/>
       <c r="D657" s="86"/>
       <c r="E657" s="86" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F657" s="86"/>
       <c r="G657" s="86"/>
@@ -24905,7 +25135,7 @@
       <c r="D658" s="86"/>
       <c r="E658" s="86"/>
       <c r="F658" s="86" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="G658" s="86"/>
       <c r="H658" s="86"/>
@@ -24921,7 +25151,7 @@
       <c r="C659" s="86"/>
       <c r="D659" s="86"/>
       <c r="E659" s="86" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="F659" s="86"/>
       <c r="G659" s="86"/>
@@ -24939,7 +25169,7 @@
       <c r="D660" s="86"/>
       <c r="E660" s="86"/>
       <c r="F660" s="86" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G660" s="86"/>
       <c r="H660" s="86"/>
@@ -24969,7 +25199,7 @@
       <c r="B662" s="11"/>
       <c r="C662" s="86"/>
       <c r="D662" s="86" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E662" s="86"/>
       <c r="F662" s="86"/>
@@ -24986,7 +25216,7 @@
       <c r="B663" s="11"/>
       <c r="C663" s="86"/>
       <c r="D663" s="86" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E663" s="86"/>
       <c r="F663" s="86"/>
@@ -25017,7 +25247,7 @@
       <c r="A665" s="30"/>
       <c r="B665" s="11"/>
       <c r="C665" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
@@ -25035,7 +25265,7 @@
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E666" s="11"/>
       <c r="F666" s="11"/>
@@ -25053,7 +25283,7 @@
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F667" s="11"/>
       <c r="G667" s="11"/>
@@ -25071,7 +25301,7 @@
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
       <c r="F668" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G668" s="11"/>
       <c r="H668" s="11"/>
@@ -25088,7 +25318,7 @@
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
       <c r="F669" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G669" s="11"/>
       <c r="H669" s="11"/>
@@ -25119,7 +25349,7 @@
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F671" s="11"/>
       <c r="G671" s="11"/>
@@ -25136,7 +25366,7 @@
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F672" s="11"/>
       <c r="G672" s="11"/>
@@ -25153,7 +25383,7 @@
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F673" s="11"/>
       <c r="G673" s="11"/>
@@ -25170,7 +25400,7 @@
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F674" s="11"/>
       <c r="G674" s="11"/>
@@ -25200,7 +25430,7 @@
       <c r="A676" s="30"/>
       <c r="B676" s="11"/>
       <c r="C676" s="33" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D676" s="26"/>
       <c r="E676" s="26"/>
@@ -25216,7 +25446,7 @@
     <row r="677" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C677" s="34"/>
       <c r="D677" s="26" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E677" s="26"/>
       <c r="F677" s="26"/>
@@ -25228,7 +25458,7 @@
       <c r="C678" s="34"/>
       <c r="D678" s="26"/>
       <c r="E678" s="26" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F678" s="26"/>
       <c r="G678" s="26"/>
@@ -25239,7 +25469,7 @@
       <c r="C679" s="34"/>
       <c r="D679" s="26"/>
       <c r="E679" s="26" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F679" s="26"/>
       <c r="G679" s="26"/>
@@ -25259,7 +25489,7 @@
       <c r="C681" s="34"/>
       <c r="D681" s="26"/>
       <c r="E681" s="35" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F681" s="35"/>
       <c r="G681" s="35"/>
@@ -25271,7 +25501,7 @@
       <c r="D682" s="26"/>
       <c r="E682" s="35"/>
       <c r="F682" s="35" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G682" s="35"/>
       <c r="H682" s="35"/>
@@ -25282,7 +25512,7 @@
       <c r="D683" s="26"/>
       <c r="E683" s="35"/>
       <c r="F683" s="35" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G683" s="35"/>
       <c r="H683" s="35"/>
@@ -25296,7 +25526,7 @@
       <c r="C685" s="26"/>
       <c r="D685" s="26"/>
       <c r="E685" s="35" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F685" s="35"/>
       <c r="G685" s="35"/>
@@ -25307,7 +25537,7 @@
       <c r="C686" s="26"/>
       <c r="D686" s="26"/>
       <c r="E686" s="26" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F686" s="26"/>
       <c r="G686" s="26"/>
@@ -26194,6 +26424,582 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D12:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="80" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="80" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="80" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="80" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="80" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="80" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="80" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="80" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="80" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="80" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="80" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="80" customWidth="1"/>
+    <col min="16" max="16" width="14.75" style="80" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="79" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>755</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>787</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="95" t="s">
+        <v>761</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>788</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="80" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>758</v>
+      </c>
+      <c r="C5" s="80">
+        <v>0</v>
+      </c>
+      <c r="D5" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="80" t="s">
+        <v>759</v>
+      </c>
+      <c r="B6" s="80" t="s">
+        <v>760</v>
+      </c>
+      <c r="C6" s="80">
+        <v>0</v>
+      </c>
+      <c r="D6" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="79" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="J9" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="K9" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="L9" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="M9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="N9" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>765</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>766</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>767</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>768</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>786</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>769</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>770</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>773</v>
+      </c>
+      <c r="L10" s="80" t="s">
+        <v>774</v>
+      </c>
+      <c r="M10" s="80" t="s">
+        <v>775</v>
+      </c>
+      <c r="N10" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="O10" s="80" t="s">
+        <v>777</v>
+      </c>
+      <c r="P10" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q10" s="80" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="95" t="s">
+        <v>806</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>785</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>823</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>824</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>838</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>789</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>825</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>826</v>
+      </c>
+      <c r="I11" s="95" t="s">
+        <v>790</v>
+      </c>
+      <c r="J11" s="95" t="s">
+        <v>827</v>
+      </c>
+      <c r="K11" s="95" t="s">
+        <v>832</v>
+      </c>
+      <c r="L11" s="95" t="s">
+        <v>828</v>
+      </c>
+      <c r="M11" s="95" t="s">
+        <v>792</v>
+      </c>
+      <c r="N11" s="95" t="s">
+        <v>793</v>
+      </c>
+      <c r="O11" s="95" t="s">
+        <v>794</v>
+      </c>
+      <c r="P11" s="95" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q11" s="95" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="95" t="s">
+        <v>818</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>830</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>830</v>
+      </c>
+      <c r="H12" s="95" t="s">
+        <v>831</v>
+      </c>
+      <c r="M12" s="95" t="s">
+        <v>835</v>
+      </c>
+      <c r="O12" s="95" t="s">
+        <v>836</v>
+      </c>
+      <c r="P12" s="95" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="95" t="s">
+        <v>822</v>
+      </c>
+      <c r="G13" s="96" t="s">
+        <v>821</v>
+      </c>
+      <c r="L13" s="94" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="80" t="s">
+        <v>758</v>
+      </c>
+      <c r="B15" s="80">
+        <v>0</v>
+      </c>
+      <c r="C15" s="80">
+        <v>1</v>
+      </c>
+      <c r="D15" s="80">
+        <v>0</v>
+      </c>
+      <c r="E15" s="80">
+        <v>0</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="80" t="s">
+        <v>760</v>
+      </c>
+      <c r="B16" s="80">
+        <v>1</v>
+      </c>
+      <c r="C16" s="80">
+        <v>1</v>
+      </c>
+      <c r="D16" s="80">
+        <v>0</v>
+      </c>
+      <c r="E16" s="80">
+        <v>0</v>
+      </c>
+      <c r="G16" s="80">
+        <v>3</v>
+      </c>
+      <c r="H16" s="80">
+        <v>0</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="80">
+        <v>2</v>
+      </c>
+      <c r="C17" s="80">
+        <v>1</v>
+      </c>
+      <c r="D17" s="80">
+        <v>0</v>
+      </c>
+      <c r="E17" s="80">
+        <v>0</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="K17" s="80">
+        <v>0</v>
+      </c>
+      <c r="L17" s="94" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="B18" s="80">
+        <v>3</v>
+      </c>
+      <c r="C18" s="80">
+        <v>1</v>
+      </c>
+      <c r="D18" s="80">
+        <v>0</v>
+      </c>
+      <c r="E18" s="80">
+        <v>0</v>
+      </c>
+      <c r="L18" s="94" t="s">
+        <v>834</v>
+      </c>
+      <c r="M18" s="80">
+        <v>0</v>
+      </c>
+      <c r="N18" s="80">
+        <v>100</v>
+      </c>
+      <c r="O18" s="80">
+        <v>0</v>
+      </c>
+      <c r="P18" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="80" t="s">
+        <v>783</v>
+      </c>
+      <c r="B19" s="80">
+        <v>4</v>
+      </c>
+      <c r="C19" s="80">
+        <v>1</v>
+      </c>
+      <c r="D19" s="80">
+        <v>0</v>
+      </c>
+      <c r="E19" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="80" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="79" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>752</v>
+      </c>
+      <c r="D22" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>753</v>
+      </c>
+      <c r="G22" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="H22" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="I22" s="80" t="s">
+        <v>764</v>
+      </c>
+      <c r="J22" s="80" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="80" t="s">
+        <v>754</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>756</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>796</v>
+      </c>
+      <c r="D23" s="80" t="s">
+        <v>797</v>
+      </c>
+      <c r="E23" s="80" t="s">
+        <v>798</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>812</v>
+      </c>
+      <c r="G23" s="80" t="s">
+        <v>799</v>
+      </c>
+      <c r="H23" s="80" t="s">
+        <v>800</v>
+      </c>
+      <c r="I23" s="80" t="s">
+        <v>801</v>
+      </c>
+      <c r="J23" s="80" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="95" t="s">
+        <v>807</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>808</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>809</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>810</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>811</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>813</v>
+      </c>
+      <c r="G24" s="95" t="s">
+        <v>814</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>815</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>816</v>
+      </c>
+      <c r="J24" s="95" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="95" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="95" t="s">
+        <v>820</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>820</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="80" t="s">
+        <v>784</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>803</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>758</v>
+      </c>
+      <c r="D26" s="80">
+        <v>5</v>
+      </c>
+      <c r="E26" s="80">
+        <v>0</v>
+      </c>
+      <c r="F26" s="80">
+        <v>0</v>
+      </c>
+      <c r="G26" s="80">
+        <v>1</v>
+      </c>
+      <c r="H26" s="80">
+        <v>1</v>
+      </c>
+      <c r="I26" s="80">
+        <v>1</v>
+      </c>
+      <c r="J26" s="80">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE180"/>
   <sheetViews>
@@ -26237,7 +27043,7 @@
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="54" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="88"/>
@@ -26425,7 +27231,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="54" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -26817,7 +27623,7 @@
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D45" s="54" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F45" s="88"/>
       <c r="G45" s="88"/>
@@ -29799,7 +30605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
@@ -29818,65 +30624,65 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="68"/>
       <c r="B1" s="66" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="C1" s="70"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
       <c r="C2" s="67" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
       <c r="C3" s="67" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="68"/>
       <c r="D4" s="67" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="68"/>
       <c r="E5" s="67" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="68"/>
       <c r="E6" s="69" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="68"/>
       <c r="E7" s="69"/>
       <c r="F7" s="67" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="68"/>
       <c r="E8" s="69"/>
       <c r="G8" s="67" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="H8" s="67" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="68"/>
       <c r="E9" s="69"/>
       <c r="G9" s="67" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="I9" s="67">
         <v>1</v>
@@ -29903,14 +30709,14 @@
         <v>4</v>
       </c>
       <c r="L12" s="80" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="68"/>
       <c r="E13" s="69"/>
       <c r="G13" s="67" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="I13" s="67">
         <v>5</v>
@@ -29920,7 +30726,7 @@
       <c r="A14" s="68"/>
       <c r="E14" s="69"/>
       <c r="F14" s="80" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="O14" s="80"/>
     </row>
@@ -29931,93 +30737,93 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="68"/>
       <c r="D16" s="67" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="68"/>
       <c r="E17" s="67" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="68"/>
       <c r="E18" s="67" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="68"/>
       <c r="G19" s="67" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="68"/>
       <c r="F20" s="69" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="G20" s="67" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
       <c r="F21" s="69" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G21" s="67" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="68"/>
       <c r="F22" s="69" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G22" s="67" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="68"/>
       <c r="F23" s="69" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="68"/>
       <c r="E24" s="67" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="68"/>
       <c r="E25" s="69"/>
       <c r="F25" s="67" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G25" s="67" t="s">
-        <v>671</v>
-      </c>
-      <c r="H25" s="91" t="s">
-        <v>653</v>
-      </c>
-      <c r="I25" s="91"/>
+        <v>659</v>
+      </c>
+      <c r="H25" s="93" t="s">
+        <v>641</v>
+      </c>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="68"/>
       <c r="H26" s="67" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="I26" s="67" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -30026,13 +30832,13 @@
         <v>78</v>
       </c>
       <c r="G27" s="67" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H27" s="67" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="I27" s="67" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -30041,13 +30847,13 @@
         <v>80</v>
       </c>
       <c r="G28" s="67" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="H28" s="67" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="I28" s="67" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -30056,13 +30862,13 @@
         <v>82</v>
       </c>
       <c r="G29" s="67" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H29" s="67" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="I29" s="67" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -30071,63 +30877,63 @@
         <v>86</v>
       </c>
       <c r="G30" s="67" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="I30" s="67" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="68"/>
       <c r="F31" s="67" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="G31" s="67" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="H31" s="67" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="I31" s="67" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="C32" s="67" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="68"/>
       <c r="D33" s="67" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="68"/>
       <c r="D34" s="67" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="68"/>
       <c r="E35" s="67" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="68"/>
       <c r="E36" s="67" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D37" s="66" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="E37" s="67">
         <v>1</v>
@@ -30139,7 +30945,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="67" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="I37" s="67">
         <v>19</v>
@@ -30150,22 +30956,22 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D38" s="66" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="G38" s="67" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="I38" s="67" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="J38" s="67" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -30178,7 +30984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK105"/>
   <sheetViews>
@@ -30240,7 +31046,7 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>21</v>
@@ -30264,13 +31070,13 @@
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
       <c r="C12" s="2"/>
       <c r="E12" s="23" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>25</v>
@@ -30322,13 +31128,13 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E17" s="23" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>26</v>
@@ -30352,7 +31158,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D20" s="23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -30363,7 +31169,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D21" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -30373,7 +31179,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D24" s="23" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -30388,7 +31194,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -30399,7 +31205,7 @@
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="D28" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -30424,7 +31230,7 @@
       <c r="A29" s="30"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -30471,7 +31277,7 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -30494,7 +31300,7 @@
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -30518,7 +31324,7 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -30539,12 +31345,12 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -30607,7 +31413,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="E37" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -30638,13 +31444,13 @@
     <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="30"/>
       <c r="E44" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="30"/>
       <c r="F45" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.15">
@@ -30654,7 +31460,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="F47" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.15">
@@ -30669,7 +31475,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F50" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:34" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -30677,13 +31483,13 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="D59" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A60" s="30"/>
       <c r="E60" s="23" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
@@ -30717,22 +31523,22 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F61" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F62" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="F63" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="3:37" x14ac:dyDescent="0.15">
       <c r="E65" s="46" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
@@ -30769,7 +31575,7 @@
     </row>
     <row r="66" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F66" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="3:37" x14ac:dyDescent="0.15">
@@ -30784,7 +31590,7 @@
     </row>
     <row r="70" spans="3:37" x14ac:dyDescent="0.15">
       <c r="E70" s="46" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="23"/>
@@ -30820,7 +31626,7 @@
     </row>
     <row r="71" spans="3:37" x14ac:dyDescent="0.15">
       <c r="F71" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>42</v>
@@ -30843,7 +31649,7 @@
     </row>
     <row r="77" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="3:37" x14ac:dyDescent="0.15">
@@ -30853,7 +31659,7 @@
     </row>
     <row r="79" spans="3:37" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="3:12" x14ac:dyDescent="0.15">
@@ -30907,7 +31713,7 @@
     </row>
     <row r="94" spans="3:12" x14ac:dyDescent="0.15">
       <c r="E94" s="23" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="23"/>
@@ -30931,7 +31737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I59"/>
   <sheetViews>
@@ -30946,22 +31752,22 @@
   <sheetData>
     <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="43" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="43" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="45" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -30969,12 +31775,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="44" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="45" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -30995,7 +31801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
@@ -31012,174 +31818,174 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B2" s="80" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" s="80" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" s="80" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C5" s="79" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C6" s="80" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D7" s="82" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E7" s="80" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D8" s="82" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D9" s="82" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D10" s="82"/>
       <c r="E10" s="80" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D11" s="82"/>
       <c r="F11" s="80" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D12" s="82"/>
       <c r="F12" s="80" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D13" s="82" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D14" s="82" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="Q14" s="80" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="R14" s="80" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C15" s="80" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="P15" s="80" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="Q15" s="80" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="R15" s="84" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="S15" s="80" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D16" s="80" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="Q16" s="80" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="S16" s="80" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C17" s="80" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q18" s="80" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="R18" s="80" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="P19" s="80" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q20" s="80" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="R20" s="80" t="s">
         <v>78</v>
@@ -31187,7 +31993,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q21" s="80" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="R21" s="80" t="s">
         <v>80</v>
@@ -31200,7 +32006,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="80" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="R23" s="80" t="s">
         <v>88</v>
@@ -31208,25 +32014,25 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="80" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C25" s="80" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="P25" s="80" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="P26" s="80" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="80" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -31236,7 +32042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -31251,7 +32057,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -31276,7 +32082,7 @@
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -31324,7 +32130,7 @@
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -31348,7 +32154,7 @@
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -31372,7 +32178,7 @@
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="23" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -31396,7 +32202,7 @@
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -31419,12 +32225,12 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="48" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
@@ -31443,7 +32249,7 @@
     <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
       <c r="B12" s="50" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -31461,7 +32267,7 @@
     <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
       <c r="B13" s="50" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
@@ -31479,7 +32285,7 @@
     <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
       <c r="B14" s="50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
@@ -31497,7 +32303,7 @@
     <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="B15" s="48" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -31515,7 +32321,7 @@
     <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
       <c r="B16" s="48" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48"/>
@@ -31533,7 +32339,7 @@
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="48" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -31550,7 +32356,7 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -31571,16 +32377,16 @@
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -31595,10 +32401,10 @@
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>553</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -31609,7 +32415,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -31621,13 +32427,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>555</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>

--- a/gd/技能逻辑/技能逻辑.xlsx
+++ b/gd/技能逻辑/技能逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="3795" windowWidth="32265" windowHeight="16440"/>
+    <workbookView xWindow="6045" yWindow="3795" windowWidth="32265" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="普通技能逻辑" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="865">
   <si>
     <t>怪物大招逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3480,67 +3480,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(原因是配置了五行系数，而此系数目前为0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.b1 to b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log里面buff的目标错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升相同属性的buff可以相互替代/刷新，若buff可以带来多种属性的提升则挨个判断是否可以替代或刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同ID的替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同ID的共存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非周期触发Buff的替代/刷新（见 Buff添加与结算流图分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同非周期触发Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同源同ID：指释放者为同一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非同源或同源不同ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同源同ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc大招使用度AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc大招使用度AI决定了它使用大招的频率与随机范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4.法伤治疗伤害为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(原因是配置了五行系数，而此系数目前为0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.b1 to b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log里面buff的目标错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.仍欠缺内容：buff类型，dot叠加，能量积攒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升相同属性的buff可以相互替代/刷新，若buff可以带来多种属性的提升则挨个判断是否可以替代或刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相同ID的替代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同ID的共存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非周期触发Buff的替代/刷新（见 Buff添加与结算流图分页）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同非周期触发Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同源同ID：指释放者为同一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非同源或同源不同ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同源同ID</t>
+    <t>定义大招使用间隔及向前随机的区间长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保NPC在固定间隔肯定可以使用一次大招，只是会在固定的区间内随机具体释放的行动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例：若配置为大招频率为10，随机范围为2，则每10次行动视为一个组，放大招行动次数会在每组第9和第10次行动中roll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15939,8 +15959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC808"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B489" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311:G314"/>
+    <sheetView topLeftCell="B427" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K485" sqref="K485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -21156,7 +21176,7 @@
     <row r="431" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A431" s="74"/>
       <c r="C431" s="61" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D431" s="61"/>
       <c r="E431" s="61"/>
@@ -21176,7 +21196,7 @@
       <c r="A432" s="74"/>
       <c r="C432" s="61"/>
       <c r="D432" s="61" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E432" s="61"/>
       <c r="F432" s="61"/>
@@ -21263,7 +21283,7 @@
       <c r="E436" s="97"/>
       <c r="F436" s="97"/>
       <c r="G436" s="97" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="H436" s="47"/>
       <c r="I436" s="97"/>
@@ -21336,7 +21356,7 @@
       <c r="A440" s="74"/>
       <c r="C440" s="61"/>
       <c r="D440" s="100" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E440" s="92"/>
       <c r="F440" s="92"/>
@@ -21356,7 +21376,7 @@
       <c r="C441" s="61"/>
       <c r="D441" s="100"/>
       <c r="E441" s="92" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F441" s="92"/>
       <c r="G441" s="92"/>
@@ -21375,7 +21395,7 @@
       <c r="C442" s="61"/>
       <c r="D442" s="100"/>
       <c r="E442" s="92" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F442" s="92"/>
       <c r="G442" s="92"/>
@@ -21471,7 +21491,7 @@
       <c r="D447" s="61"/>
       <c r="E447" s="75"/>
       <c r="F447" s="92" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G447" s="100"/>
       <c r="H447" s="61"/>
@@ -21511,7 +21531,7 @@
       <c r="D449" s="61"/>
       <c r="E449" s="75"/>
       <c r="F449" s="61" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G449" s="61"/>
       <c r="H449" s="61"/>
@@ -21533,7 +21553,7 @@
       <c r="E450" s="75"/>
       <c r="F450" s="61"/>
       <c r="G450" s="61" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H450" s="61"/>
       <c r="I450" s="61"/>
@@ -21570,7 +21590,7 @@
       <c r="D452" s="61"/>
       <c r="E452" s="61"/>
       <c r="F452" s="61" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G452" s="61"/>
       <c r="H452" s="61"/>
@@ -22017,7 +22037,7 @@
       <c r="C474" s="100"/>
       <c r="D474" s="92"/>
       <c r="E474" s="100" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F474" s="92"/>
       <c r="G474" s="92"/>
@@ -22037,7 +22057,7 @@
       <c r="D475" s="92"/>
       <c r="E475" s="100"/>
       <c r="F475" s="92" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G475" s="92"/>
       <c r="H475" s="92"/>
@@ -22056,7 +22076,7 @@
       <c r="D476" s="92"/>
       <c r="E476" s="100"/>
       <c r="F476" s="92" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G476" s="92"/>
       <c r="H476" s="92"/>
@@ -22131,7 +22151,7 @@
       <c r="C480" s="61"/>
       <c r="D480" s="61"/>
       <c r="E480" s="58" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F480" s="59">
         <v>3</v>
@@ -22154,7 +22174,7 @@
       <c r="C481" s="61"/>
       <c r="D481" s="61"/>
       <c r="E481" s="58" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F481" s="59">
         <v>1</v>
@@ -22198,7 +22218,7 @@
       <c r="C483" s="61"/>
       <c r="D483" s="61"/>
       <c r="E483" s="92" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F483" s="57"/>
       <c r="G483" s="57"/>
@@ -22217,7 +22237,7 @@
       <c r="C484" s="61"/>
       <c r="D484" s="61"/>
       <c r="E484" s="92" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F484" s="57"/>
       <c r="G484" s="57"/>
@@ -26932,8 +26952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31112,10 +31132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31479,6 +31499,31 @@
         <v>652</v>
       </c>
     </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C39" s="66" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D40" s="79" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D41" s="66" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E42" s="66" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E43" s="66" t="s">
+        <v>864</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H25:I25"/>
@@ -31493,7 +31538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -32311,7 +32356,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32552,7 +32597,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32610,27 +32655,27 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="79" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="79" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="79" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="79" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="79" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/gd/技能逻辑/技能逻辑.xlsx
+++ b/gd/技能逻辑/技能逻辑.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="880">
   <si>
     <t>怪物大招逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2120,10 +2120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>例如：怪物本身技能使用间隔为2，则该怪物释放该技能后2次释放技能均不能使用该技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2501,9 +2497,6 @@
   </si>
   <si>
     <t>普通AI模板</t>
-  </si>
-  <si>
-    <t>可以确定该Effect需要搜寻到的目标数量，也可以选择所有符合目标验证的目标</t>
   </si>
   <si>
     <t>AI逻辑</t>
@@ -3472,95 +3465,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3.受伤比未和25%取最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(原因是配置了五行系数，而此系数目前为0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.b1 to b1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log里面buff的目标错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升相同属性的buff可以相互替代/刷新，若buff可以带来多种属性的提升则挨个判断是否可以替代或刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相同ID的替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同ID的共存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非周期触发Buff的替代/刷新（见 Buff添加与结算流图分页）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同非周期触发Buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同源同ID：指释放者为同一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非同源或同源不同ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同源同ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc大招使用度AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc大招使用度AI决定了它使用大招的频率与随机范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.法伤治疗伤害为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.仍欠缺内容：buff类型，dot叠加，能量积攒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义大招使用间隔及向前随机的区间长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保NPC在固定间隔肯定可以使用一次大招，只是会在固定的区间内随机具体释放的行动次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例：若配置为大招频率为10，随机范围为2，则每10次行动视为一个组，放大招行动次数会在每组第9和第10次行动中roll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2.属性相克目前系数为1，未测试法术相克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.受伤比未和25%取最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(原因是配置了五行系数，而此系数目前为0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.b1 to b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log里面buff的目标错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升相同属性的buff可以相互替代/刷新，若buff可以带来多种属性的提升则挨个判断是否可以替代或刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相同ID的替代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同ID的共存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非周期触发Buff的替代/刷新（见 Buff添加与结算流图分页）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同非周期触发Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同源同ID：指释放者为同一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非同源或同源不同ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同源同ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc大招使用度AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc大招使用度AI决定了它使用大招的频率与随机范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.法伤治疗伤害为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.仍欠缺内容：buff类型，dot叠加，能量积攒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义大招使用间隔及向前随机的区间长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确保NPC在固定间隔肯定可以使用一次大招，只是会在固定的区间内随机具体释放的行动次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例：若配置为大招频率为10，随机范围为2，则每10次行动视为一个组，放大招行动次数会在每组第9和第10次行动中roll</t>
+    <t>可以确定该Effect需要搜寻到的目标数量，也可以选择所有符合目标验证的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：怪物本身技能使用间隔为2，则该怪物释放该技能后2次释放技能均不能使用该技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级:指几个技能在同一个行动时均可释放，优先释放哪一个（AI的前后顺序决定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能使用间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage触发的后续effect（damage的命中判定还是不需要了。。。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能仍需定义给己方的buff肯定命中（这样buff 的跳过命中判定就不需要了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要定义出boss的具体技能以及技能的释放条件和释放间隔（前置），释放优先级，目标的选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标的选择：根据技能的不同可随意修改技能的目标选择（其中Buff技能需要判定目标身上是否已有本buff，释放在木有该buff的目标上）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossAI逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.spell类型（目前木有啥用，唯一有用处的可能为AI选择）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.技能使用间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.damage触发的后续effect（damage的命中判定还是不需要了。。。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.可能仍需定义给己方的buff肯定命中（这样buff 的跳过命中判定就不需要了）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放条件：第几进程，第几次行动 ，血量低于，剩余某类型弱点个数多少等等（以后可能还有很多奇怪的玩意）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入一个Boss释放技能间隔的概念：使用技能时，需要判定该技能与上次释放该技能的行动间隔，即需要计数，例如技能A的释放间隔为4则释放A技能后4次行动不可释放A，将A置为不可用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放前置指：在boss的前几次行动时，技能为不可用状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4170,12 +4231,6 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4190,6 +4245,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -15959,8 +16020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC808"/>
   <sheetViews>
-    <sheetView topLeftCell="B427" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K485" sqref="K485"/>
+    <sheetView topLeftCell="B149" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118:W124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15982,7 +16043,7 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C2" s="75" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
@@ -16004,7 +16065,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>50</v>
@@ -16033,7 +16094,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C8" s="75" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
@@ -16056,19 +16117,19 @@
     <row r="10" spans="1:29" s="76" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="77"/>
       <c r="C10" s="82" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C11" s="11"/>
       <c r="E11" s="69" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="69"/>
@@ -16097,7 +16158,7 @@
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C12" s="11"/>
       <c r="E12" s="69" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="69"/>
@@ -16128,7 +16189,7 @@
       <c r="C13" s="11"/>
       <c r="E13" s="69"/>
       <c r="F13" s="69" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
@@ -16157,7 +16218,7 @@
       <c r="C14" s="11"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
@@ -16188,7 +16249,7 @@
       <c r="E15" s="69"/>
       <c r="F15" s="69"/>
       <c r="G15" s="69" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H15" s="69"/>
       <c r="I15" s="69"/>
@@ -16215,14 +16276,14 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C16" s="11"/>
       <c r="E16" s="69"/>
       <c r="F16" s="69"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I16" s="69"/>
       <c r="J16" s="69"/>
@@ -16249,7 +16310,7 @@
     <row r="17" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C17" s="11"/>
       <c r="E17" s="69" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F17" s="69"/>
       <c r="G17" s="69"/>
@@ -16280,7 +16341,7 @@
       <c r="C18" s="11"/>
       <c r="E18" s="69"/>
       <c r="F18" s="69" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
@@ -16308,12 +16369,12 @@
     </row>
     <row r="19" spans="1:29" ht="33" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C19" s="11"/>
       <c r="E19" s="69"/>
       <c r="F19" s="69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G19" s="69"/>
       <c r="H19" s="69"/>
@@ -16343,7 +16404,7 @@
       <c r="C20" s="11"/>
       <c r="E20" s="69"/>
       <c r="F20" s="69" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G20" s="69"/>
       <c r="H20" s="69"/>
@@ -16373,7 +16434,7 @@
       <c r="C21" s="11"/>
       <c r="E21" s="69"/>
       <c r="F21" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
@@ -16403,7 +16464,7 @@
       <c r="C22" s="11"/>
       <c r="E22" s="69"/>
       <c r="F22" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
@@ -16434,7 +16495,7 @@
       <c r="C23" s="82"/>
       <c r="E23" s="82"/>
       <c r="F23" s="75" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G23" s="75"/>
       <c r="H23" s="82"/>
@@ -16463,7 +16524,7 @@
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="C24" s="11"/>
       <c r="E24" s="69" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F24" s="69"/>
       <c r="G24" s="69"/>
@@ -16494,7 +16555,7 @@
       <c r="C25" s="11"/>
       <c r="E25" s="69"/>
       <c r="F25" s="69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G25" s="69"/>
       <c r="H25" s="69"/>
@@ -16522,13 +16583,13 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C26" s="11"/>
       <c r="E26" s="69"/>
       <c r="F26" s="69"/>
       <c r="G26" s="69" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H26" s="69"/>
       <c r="I26" s="69"/>
@@ -16555,13 +16616,13 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C27" s="11"/>
       <c r="E27" s="69"/>
       <c r="F27" s="69"/>
       <c r="G27" s="69" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
@@ -16591,7 +16652,7 @@
       <c r="E28" s="69"/>
       <c r="F28" s="69"/>
       <c r="G28" s="69" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
@@ -16621,7 +16682,7 @@
       <c r="E29" s="69"/>
       <c r="F29" s="69"/>
       <c r="G29" s="69" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H29" s="69"/>
       <c r="I29" s="69"/>
@@ -16650,7 +16711,7 @@
       <c r="C30" s="11"/>
       <c r="E30" s="69"/>
       <c r="F30" s="47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -16681,7 +16742,7 @@
       <c r="E31" s="69"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
@@ -16711,7 +16772,7 @@
       <c r="E32" s="69"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47"/>
@@ -16741,7 +16802,7 @@
       <c r="E33" s="69"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
@@ -16771,7 +16832,7 @@
       <c r="E34" s="69"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
@@ -16799,7 +16860,7 @@
     <row r="35" spans="3:29" x14ac:dyDescent="0.15">
       <c r="C35" s="11"/>
       <c r="E35" s="69" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
@@ -16830,7 +16891,7 @@
       <c r="C36" s="11"/>
       <c r="E36" s="69"/>
       <c r="F36" s="69" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
@@ -16860,10 +16921,10 @@
       <c r="C37" s="11"/>
       <c r="E37" s="69"/>
       <c r="F37" s="90" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G37" s="90" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H37" s="90"/>
       <c r="I37" s="69"/>
@@ -17588,60 +17649,74 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F113" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E114" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F115" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E116" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F117" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E118" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="Q118" s="3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="119" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F119" s="63" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.15">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="120" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="Q120" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="121" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C121" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D122" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="Q122" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="124" spans="3:17" x14ac:dyDescent="0.15">
       <c r="C124" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="Q124" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="125" spans="3:17" x14ac:dyDescent="0.15">
       <c r="D125" s="3" t="s">
         <v>93</v>
       </c>
@@ -17649,12 +17724,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:17" x14ac:dyDescent="0.15">
       <c r="F126" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E127" s="15" t="s">
         <v>96</v>
       </c>
@@ -17663,7 +17738,7 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
     </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:17" x14ac:dyDescent="0.15">
       <c r="E128" s="15"/>
       <c r="F128" s="15" t="s">
         <v>97</v>
@@ -17892,7 +17967,7 @@
     <row r="147" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="74"/>
       <c r="D147" s="69" t="s">
-        <v>517</v>
+        <v>864</v>
       </c>
     </row>
     <row r="148" spans="1:18" s="69" customFormat="1" x14ac:dyDescent="0.15">
@@ -18009,7 +18084,7 @@
     <row r="161" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D161" s="84"/>
       <c r="E161" s="84" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F161" s="84"/>
       <c r="G161" s="84"/>
@@ -18046,7 +18121,7 @@
     </row>
     <row r="164" spans="3:18" x14ac:dyDescent="0.15">
       <c r="D164" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="165" spans="3:18" x14ac:dyDescent="0.15">
@@ -18061,7 +18136,7 @@
     </row>
     <row r="168" spans="3:18" x14ac:dyDescent="0.15">
       <c r="F168" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="169" spans="3:18" x14ac:dyDescent="0.15">
@@ -18324,7 +18399,7 @@
     </row>
     <row r="190" spans="3:16" x14ac:dyDescent="0.15">
       <c r="F190" s="84" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G190" s="84"/>
       <c r="H190" s="84"/>
@@ -18422,7 +18497,7 @@
     </row>
     <row r="203" spans="6:14" x14ac:dyDescent="0.15">
       <c r="G203" s="84" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H203" s="84"/>
       <c r="I203" s="84"/>
@@ -18431,7 +18506,7 @@
     <row r="204" spans="6:14" x14ac:dyDescent="0.15">
       <c r="G204" s="84"/>
       <c r="H204" s="84" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I204" s="84"/>
       <c r="J204" s="84"/>
@@ -18447,14 +18522,14 @@
     <row r="206" spans="6:14" x14ac:dyDescent="0.15">
       <c r="G206" s="84"/>
       <c r="H206" s="84" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I206" s="84"/>
       <c r="J206" s="84"/>
     </row>
     <row r="207" spans="6:14" x14ac:dyDescent="0.15">
       <c r="G207" s="84" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H207" s="84"/>
       <c r="I207" s="84"/>
@@ -18463,7 +18538,7 @@
     <row r="208" spans="6:14" x14ac:dyDescent="0.15">
       <c r="G208" s="84"/>
       <c r="H208" s="84" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I208" s="84"/>
       <c r="J208" s="84"/>
@@ -18486,7 +18561,7 @@
     </row>
     <row r="211" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G211" s="84" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H211" s="84"/>
       <c r="I211" s="84"/>
@@ -18495,7 +18570,7 @@
     <row r="212" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G212" s="84"/>
       <c r="H212" s="84" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I212" s="84"/>
       <c r="J212" s="84"/>
@@ -18558,7 +18633,7 @@
     </row>
     <row r="221" spans="6:15" x14ac:dyDescent="0.15">
       <c r="H221" s="66" t="s">
-        <v>616</v>
+        <v>863</v>
       </c>
       <c r="I221" s="64"/>
       <c r="J221" s="64"/>
@@ -19308,7 +19383,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E259" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.15">
@@ -19340,7 +19415,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F266" s="11" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G266" s="11"/>
     </row>
@@ -19372,7 +19447,7 @@
     <row r="272" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A272" s="74"/>
       <c r="F272" s="90" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G272" s="90"/>
       <c r="H272" s="90"/>
@@ -19383,7 +19458,7 @@
       <c r="A273" s="74"/>
       <c r="F273" s="90"/>
       <c r="G273" s="90" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H273" s="90"/>
       <c r="I273" s="90"/>
@@ -19449,7 +19524,7 @@
     <row r="285" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A285" s="74"/>
       <c r="G285" s="69" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="286" spans="1:13" s="69" customFormat="1" x14ac:dyDescent="0.15">
@@ -19487,7 +19562,7 @@
         <v>211</v>
       </c>
       <c r="H288" s="69" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="289" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.15">
@@ -19643,40 +19718,40 @@
       <c r="G310" s="11"/>
     </row>
     <row r="311" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C311" s="101" t="s">
+      <c r="C311" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="D311" s="101"/>
-      <c r="E311" s="101"/>
-      <c r="F311" s="101"/>
-      <c r="G311" s="101"/>
+      <c r="D311" s="99"/>
+      <c r="E311" s="99"/>
+      <c r="F311" s="99"/>
+      <c r="G311" s="99"/>
     </row>
     <row r="312" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C312" s="101"/>
-      <c r="D312" s="101" t="s">
+      <c r="C312" s="99"/>
+      <c r="D312" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="E312" s="101"/>
-      <c r="F312" s="101"/>
-      <c r="G312" s="101"/>
+      <c r="E312" s="99"/>
+      <c r="F312" s="99"/>
+      <c r="G312" s="99"/>
     </row>
     <row r="313" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C313" s="101"/>
-      <c r="D313" s="101" t="s">
+      <c r="C313" s="99"/>
+      <c r="D313" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="E313" s="101"/>
-      <c r="F313" s="101"/>
-      <c r="G313" s="101"/>
+      <c r="E313" s="99"/>
+      <c r="F313" s="99"/>
+      <c r="G313" s="99"/>
     </row>
     <row r="314" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C314" s="101"/>
-      <c r="D314" s="101" t="s">
+      <c r="C314" s="99"/>
+      <c r="D314" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="E314" s="101"/>
-      <c r="F314" s="101"/>
-      <c r="G314" s="101"/>
+      <c r="E314" s="99"/>
+      <c r="F314" s="99"/>
+      <c r="G314" s="99"/>
     </row>
     <row r="315" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C315" s="22"/>
@@ -19839,7 +19914,7 @@
       <c r="C333" s="11"/>
       <c r="D333" s="86"/>
       <c r="E333" s="86" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F333" s="85"/>
       <c r="G333" s="11"/>
@@ -19857,7 +19932,7 @@
     <row r="334" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C334" s="11"/>
       <c r="D334" s="83" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E334" s="26"/>
       <c r="F334" s="11"/>
@@ -19877,7 +19952,7 @@
       <c r="C335" s="11"/>
       <c r="D335" s="26"/>
       <c r="E335" s="26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F335" s="11"/>
       <c r="G335" s="11"/>
@@ -19896,7 +19971,7 @@
       <c r="A336" s="80"/>
       <c r="C336" s="82"/>
       <c r="D336" s="89" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E336" s="89"/>
       <c r="F336" s="90"/>
@@ -19917,7 +19992,7 @@
       <c r="C337" s="82"/>
       <c r="D337" s="89"/>
       <c r="E337" s="89" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F337" s="90"/>
       <c r="G337" s="82"/>
@@ -19957,7 +20032,7 @@
       <c r="C339" s="82"/>
       <c r="D339" s="89"/>
       <c r="E339" s="89" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F339" s="90"/>
       <c r="G339" s="82"/>
@@ -19995,7 +20070,7 @@
       <c r="C341" s="11"/>
       <c r="D341" s="26"/>
       <c r="E341" s="26" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="11"/>
@@ -20033,7 +20108,7 @@
       <c r="C343" s="11"/>
       <c r="D343" s="26"/>
       <c r="E343" s="26" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="11"/>
@@ -20089,7 +20164,7 @@
     <row r="346" spans="1:20" s="79" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A346" s="80"/>
       <c r="C346" s="90" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D346" s="89"/>
       <c r="E346" s="89"/>
@@ -20113,7 +20188,7 @@
       <c r="A347" s="80"/>
       <c r="C347" s="90"/>
       <c r="D347" s="89" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E347" s="89"/>
       <c r="F347" s="89"/>
@@ -20136,7 +20211,7 @@
       <c r="A348" s="80"/>
       <c r="C348" s="90"/>
       <c r="D348" s="89" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E348" s="89"/>
       <c r="F348" s="89"/>
@@ -20160,10 +20235,10 @@
       <c r="C349" s="90"/>
       <c r="D349" s="89"/>
       <c r="E349" s="89" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F349" s="90" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G349" s="90"/>
       <c r="H349" s="90"/>
@@ -20186,10 +20261,10 @@
       <c r="D350" s="89"/>
       <c r="E350" s="90"/>
       <c r="F350" s="89" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G350" s="90" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H350" s="90"/>
       <c r="I350" s="90"/>
@@ -20214,7 +20289,7 @@
         <v>489</v>
       </c>
       <c r="G351" s="90" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H351" s="90"/>
       <c r="I351" s="90"/>
@@ -20235,10 +20310,10 @@
       <c r="C352" s="90"/>
       <c r="D352" s="89"/>
       <c r="E352" s="89" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F352" s="89" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G352" s="90"/>
       <c r="H352" s="90"/>
@@ -20284,7 +20359,7 @@
       <c r="D354" s="89"/>
       <c r="E354" s="89"/>
       <c r="F354" s="89" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G354" s="90"/>
       <c r="H354" s="90"/>
@@ -20306,7 +20381,7 @@
       <c r="C355" s="90"/>
       <c r="D355" s="89"/>
       <c r="E355" s="89" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F355" s="89"/>
       <c r="G355" s="90"/>
@@ -20330,10 +20405,10 @@
       <c r="D356" s="89"/>
       <c r="E356" s="90"/>
       <c r="F356" s="89" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G356" s="89" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H356" s="90"/>
       <c r="I356" s="90"/>
@@ -20355,10 +20430,10 @@
       <c r="D357" s="89"/>
       <c r="E357" s="90"/>
       <c r="F357" s="89" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G357" s="89" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H357" s="90"/>
       <c r="I357" s="90"/>
@@ -20380,10 +20455,10 @@
       <c r="D358" s="89"/>
       <c r="E358" s="90"/>
       <c r="F358" s="89" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G358" s="89" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H358" s="90"/>
       <c r="I358" s="90"/>
@@ -20441,7 +20516,7 @@
       <c r="D363" s="75"/>
       <c r="E363" s="88"/>
       <c r="F363" s="75" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G363" s="75"/>
       <c r="H363" s="75"/>
@@ -20477,7 +20552,7 @@
       <c r="D365" s="75"/>
       <c r="E365" s="75"/>
       <c r="F365" s="90" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G365" s="90"/>
       <c r="H365" s="90"/>
@@ -20494,7 +20569,7 @@
       <c r="A366" s="30"/>
       <c r="B366" s="11"/>
       <c r="E366" s="47" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="367" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.15">
@@ -21100,7 +21175,7 @@
     <row r="427" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A427" s="74"/>
       <c r="C427" s="61" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D427" s="61"/>
       <c r="E427" s="61"/>
@@ -21118,11 +21193,11 @@
     </row>
     <row r="428" spans="1:16" s="69" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A428" s="74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C428" s="61"/>
       <c r="D428" s="61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E428" s="61"/>
       <c r="F428" s="61"/>
@@ -21176,7 +21251,7 @@
     <row r="431" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A431" s="74"/>
       <c r="C431" s="61" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D431" s="61"/>
       <c r="E431" s="61"/>
@@ -21196,16 +21271,16 @@
       <c r="A432" s="74"/>
       <c r="C432" s="61"/>
       <c r="D432" s="61" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E432" s="61"/>
       <c r="F432" s="61"/>
-      <c r="G432" s="97"/>
-      <c r="H432" s="97"/>
-      <c r="I432" s="97"/>
-      <c r="J432" s="97"/>
-      <c r="K432" s="97"/>
-      <c r="L432" s="97"/>
+      <c r="G432" s="95"/>
+      <c r="H432" s="95"/>
+      <c r="I432" s="95"/>
+      <c r="J432" s="95"/>
+      <c r="K432" s="95"/>
+      <c r="L432" s="95"/>
       <c r="M432" s="61"/>
       <c r="N432" s="61"/>
       <c r="O432" s="61"/>
@@ -21213,18 +21288,18 @@
     </row>
     <row r="433" spans="1:16" s="69" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A433" s="74" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C433" s="61"/>
-      <c r="D433" s="97" t="s">
+      <c r="D433" s="95" t="s">
         <v>455</v>
       </c>
-      <c r="E433" s="97"/>
-      <c r="F433" s="97"/>
-      <c r="G433" s="97"/>
+      <c r="E433" s="95"/>
+      <c r="F433" s="95"/>
+      <c r="G433" s="95"/>
       <c r="H433" s="47"/>
-      <c r="I433" s="97" t="s">
-        <v>518</v>
+      <c r="I433" s="95" t="s">
+        <v>517</v>
       </c>
       <c r="J433" s="61"/>
       <c r="K433" s="61"/>
@@ -21237,15 +21312,15 @@
     <row r="434" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A434" s="74"/>
       <c r="C434" s="61"/>
-      <c r="D434" s="97"/>
-      <c r="E434" s="97" t="s">
+      <c r="D434" s="95"/>
+      <c r="E434" s="95" t="s">
         <v>471</v>
       </c>
-      <c r="F434" s="97"/>
-      <c r="G434" s="97"/>
+      <c r="F434" s="95"/>
+      <c r="G434" s="95"/>
       <c r="H434" s="47"/>
-      <c r="I434" s="97" t="s">
-        <v>519</v>
+      <c r="I434" s="95" t="s">
+        <v>518</v>
       </c>
       <c r="J434" s="61"/>
       <c r="K434" s="61"/>
@@ -21258,14 +21333,14 @@
     <row r="435" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A435" s="74"/>
       <c r="C435" s="61"/>
-      <c r="D435" s="97"/>
-      <c r="E435" s="97"/>
-      <c r="F435" s="97" t="s">
+      <c r="D435" s="95"/>
+      <c r="E435" s="95"/>
+      <c r="F435" s="95" t="s">
         <v>469</v>
       </c>
-      <c r="G435" s="97"/>
+      <c r="G435" s="95"/>
       <c r="H435" s="47"/>
-      <c r="I435" s="97"/>
+      <c r="I435" s="95"/>
       <c r="J435" s="61"/>
       <c r="K435" s="61"/>
       <c r="L435" s="61"/>
@@ -21276,17 +21351,17 @@
     </row>
     <row r="436" spans="1:16" s="69" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A436" s="74" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C436" s="61"/>
-      <c r="D436" s="97"/>
-      <c r="E436" s="97"/>
-      <c r="F436" s="97"/>
-      <c r="G436" s="97" t="s">
-        <v>847</v>
+      <c r="D436" s="95"/>
+      <c r="E436" s="95"/>
+      <c r="F436" s="95"/>
+      <c r="G436" s="95" t="s">
+        <v>844</v>
       </c>
       <c r="H436" s="47"/>
-      <c r="I436" s="97"/>
+      <c r="I436" s="95"/>
       <c r="J436" s="61"/>
       <c r="K436" s="61"/>
       <c r="L436" s="61"/>
@@ -21298,14 +21373,14 @@
     <row r="437" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A437" s="74"/>
       <c r="C437" s="61"/>
-      <c r="D437" s="97"/>
-      <c r="E437" s="97"/>
-      <c r="F437" s="97" t="s">
+      <c r="D437" s="95"/>
+      <c r="E437" s="95"/>
+      <c r="F437" s="95" t="s">
         <v>470</v>
       </c>
-      <c r="G437" s="97"/>
+      <c r="G437" s="95"/>
       <c r="H437" s="47"/>
-      <c r="I437" s="97"/>
+      <c r="I437" s="95"/>
       <c r="J437" s="61"/>
       <c r="K437" s="61"/>
       <c r="L437" s="61"/>
@@ -21317,14 +21392,14 @@
     <row r="438" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A438" s="74"/>
       <c r="C438" s="61"/>
-      <c r="D438" s="97"/>
-      <c r="E438" s="97"/>
-      <c r="F438" s="97"/>
-      <c r="G438" s="97" t="s">
+      <c r="D438" s="95"/>
+      <c r="E438" s="95"/>
+      <c r="F438" s="95"/>
+      <c r="G438" s="95" t="s">
         <v>495</v>
       </c>
       <c r="H438" s="47"/>
-      <c r="I438" s="97"/>
+      <c r="I438" s="95"/>
       <c r="J438" s="61"/>
       <c r="K438" s="61"/>
       <c r="L438" s="61"/>
@@ -21336,13 +21411,13 @@
     <row r="439" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A439" s="74"/>
       <c r="C439" s="61"/>
-      <c r="D439" s="97"/>
+      <c r="D439" s="95"/>
       <c r="E439" s="47"/>
       <c r="F439" s="47"/>
       <c r="G439" s="47"/>
       <c r="H439" s="47"/>
-      <c r="I439" s="97" t="s">
-        <v>520</v>
+      <c r="I439" s="95" t="s">
+        <v>519</v>
       </c>
       <c r="J439" s="61"/>
       <c r="K439" s="61"/>
@@ -21355,14 +21430,14 @@
     <row r="440" spans="1:16" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A440" s="74"/>
       <c r="C440" s="61"/>
-      <c r="D440" s="100" t="s">
-        <v>849</v>
+      <c r="D440" s="98" t="s">
+        <v>846</v>
       </c>
       <c r="E440" s="92"/>
       <c r="F440" s="92"/>
       <c r="G440" s="92"/>
       <c r="H440" s="92"/>
-      <c r="I440" s="100"/>
+      <c r="I440" s="98"/>
       <c r="J440" s="61"/>
       <c r="K440" s="61"/>
       <c r="L440" s="61"/>
@@ -21374,14 +21449,14 @@
     <row r="441" spans="1:16" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A441" s="74"/>
       <c r="C441" s="61"/>
-      <c r="D441" s="100"/>
+      <c r="D441" s="98"/>
       <c r="E441" s="92" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F441" s="92"/>
       <c r="G441" s="92"/>
       <c r="H441" s="92"/>
-      <c r="I441" s="100"/>
+      <c r="I441" s="98"/>
       <c r="J441" s="61"/>
       <c r="K441" s="61"/>
       <c r="L441" s="61"/>
@@ -21393,14 +21468,14 @@
     <row r="442" spans="1:16" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A442" s="74"/>
       <c r="C442" s="61"/>
-      <c r="D442" s="100"/>
+      <c r="D442" s="98"/>
       <c r="E442" s="92" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F442" s="92"/>
       <c r="G442" s="92"/>
       <c r="H442" s="92"/>
-      <c r="I442" s="100"/>
+      <c r="I442" s="98"/>
       <c r="J442" s="61"/>
       <c r="K442" s="61"/>
       <c r="L442" s="61"/>
@@ -21432,7 +21507,7 @@
       <c r="A444" s="74"/>
       <c r="C444" s="61"/>
       <c r="D444" s="61" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E444" s="61"/>
       <c r="F444" s="61"/>
@@ -21471,7 +21546,7 @@
       <c r="C446" s="61"/>
       <c r="D446" s="61"/>
       <c r="E446" s="61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F446" s="61"/>
       <c r="G446" s="61"/>
@@ -21491,9 +21566,9 @@
       <c r="D447" s="61"/>
       <c r="E447" s="75"/>
       <c r="F447" s="92" t="s">
-        <v>856</v>
-      </c>
-      <c r="G447" s="100"/>
+        <v>853</v>
+      </c>
+      <c r="G447" s="98"/>
       <c r="H447" s="61"/>
       <c r="I447" s="61"/>
       <c r="J447" s="61"/>
@@ -21511,7 +21586,7 @@
       <c r="E448" s="75"/>
       <c r="F448" s="61"/>
       <c r="G448" s="61" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H448" s="61"/>
       <c r="I448" s="61"/>
@@ -21525,13 +21600,13 @@
     </row>
     <row r="449" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A449" s="74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C449" s="61"/>
       <c r="D449" s="61"/>
       <c r="E449" s="75"/>
       <c r="F449" s="61" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="G449" s="61"/>
       <c r="H449" s="61"/>
@@ -21546,14 +21621,14 @@
     </row>
     <row r="450" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A450" s="74" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C450" s="61"/>
       <c r="D450" s="61"/>
       <c r="E450" s="75"/>
       <c r="F450" s="61"/>
       <c r="G450" s="61" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="H450" s="61"/>
       <c r="I450" s="61"/>
@@ -21570,7 +21645,7 @@
       <c r="C451" s="61"/>
       <c r="D451" s="61"/>
       <c r="E451" s="61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F451" s="61"/>
       <c r="G451" s="61"/>
@@ -21590,7 +21665,7 @@
       <c r="D452" s="61"/>
       <c r="E452" s="61"/>
       <c r="F452" s="61" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="G452" s="61"/>
       <c r="H452" s="61"/>
@@ -21645,13 +21720,13 @@
       <c r="A455" s="70"/>
       <c r="C455" s="61"/>
       <c r="D455" s="61"/>
-      <c r="E455" s="95" t="s">
+      <c r="E455" s="100" t="s">
         <v>487</v>
       </c>
-      <c r="F455" s="95" t="s">
+      <c r="F455" s="100" t="s">
         <v>486</v>
       </c>
-      <c r="G455" s="95"/>
+      <c r="G455" s="100"/>
       <c r="H455" s="61"/>
       <c r="I455" s="61"/>
       <c r="J455" s="61"/>
@@ -21666,7 +21741,7 @@
       <c r="A456" s="70"/>
       <c r="C456" s="61"/>
       <c r="D456" s="61"/>
-      <c r="E456" s="95"/>
+      <c r="E456" s="100"/>
       <c r="F456" s="60" t="s">
         <v>483</v>
       </c>
@@ -21939,154 +22014,154 @@
     </row>
     <row r="469" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A469" s="70"/>
-      <c r="C469" s="97"/>
+      <c r="C469" s="95"/>
       <c r="D469" s="47"/>
-      <c r="E469" s="98" t="s">
-        <v>581</v>
-      </c>
-      <c r="F469" s="99"/>
-      <c r="G469" s="99"/>
-      <c r="H469" s="99"/>
-      <c r="I469" s="98"/>
-      <c r="J469" s="98"/>
-      <c r="K469" s="97"/>
-      <c r="L469" s="97"/>
-      <c r="M469" s="97"/>
-      <c r="N469" s="97"/>
-      <c r="O469" s="97"/>
+      <c r="E469" s="96" t="s">
+        <v>580</v>
+      </c>
+      <c r="F469" s="97"/>
+      <c r="G469" s="97"/>
+      <c r="H469" s="97"/>
+      <c r="I469" s="96"/>
+      <c r="J469" s="96"/>
+      <c r="K469" s="95"/>
+      <c r="L469" s="95"/>
+      <c r="M469" s="95"/>
+      <c r="N469" s="95"/>
+      <c r="O469" s="95"/>
       <c r="P469" s="47"/>
     </row>
     <row r="470" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A470" s="70"/>
-      <c r="C470" s="97"/>
+      <c r="C470" s="95"/>
       <c r="D470" s="47"/>
-      <c r="E470" s="99"/>
-      <c r="F470" s="97" t="s">
+      <c r="E470" s="97"/>
+      <c r="F470" s="95" t="s">
         <v>469</v>
       </c>
-      <c r="G470" s="97"/>
+      <c r="G470" s="95"/>
       <c r="H470" s="47"/>
-      <c r="I470" s="98"/>
-      <c r="J470" s="98"/>
-      <c r="K470" s="97"/>
-      <c r="L470" s="97"/>
-      <c r="M470" s="97"/>
-      <c r="N470" s="97"/>
-      <c r="O470" s="97"/>
+      <c r="I470" s="96"/>
+      <c r="J470" s="96"/>
+      <c r="K470" s="95"/>
+      <c r="L470" s="95"/>
+      <c r="M470" s="95"/>
+      <c r="N470" s="95"/>
+      <c r="O470" s="95"/>
       <c r="P470" s="47"/>
     </row>
     <row r="471" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A471" s="70"/>
-      <c r="C471" s="97"/>
+      <c r="C471" s="95"/>
       <c r="D471" s="47"/>
-      <c r="E471" s="99"/>
-      <c r="F471" s="97"/>
-      <c r="G471" s="97" t="s">
+      <c r="E471" s="97"/>
+      <c r="F471" s="95"/>
+      <c r="G471" s="95" t="s">
         <v>467</v>
       </c>
       <c r="H471" s="47"/>
-      <c r="I471" s="98"/>
-      <c r="J471" s="98"/>
-      <c r="K471" s="97"/>
-      <c r="L471" s="97"/>
-      <c r="M471" s="97"/>
-      <c r="N471" s="97"/>
-      <c r="O471" s="97"/>
+      <c r="I471" s="96"/>
+      <c r="J471" s="96"/>
+      <c r="K471" s="95"/>
+      <c r="L471" s="95"/>
+      <c r="M471" s="95"/>
+      <c r="N471" s="95"/>
+      <c r="O471" s="95"/>
       <c r="P471" s="47"/>
     </row>
     <row r="472" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A472" s="70"/>
-      <c r="C472" s="97"/>
+      <c r="C472" s="95"/>
       <c r="D472" s="47"/>
-      <c r="E472" s="99"/>
-      <c r="F472" s="97" t="s">
+      <c r="E472" s="97"/>
+      <c r="F472" s="95" t="s">
         <v>470</v>
       </c>
-      <c r="G472" s="97"/>
+      <c r="G472" s="95"/>
       <c r="H472" s="47"/>
-      <c r="I472" s="98"/>
-      <c r="J472" s="98"/>
-      <c r="K472" s="97"/>
-      <c r="L472" s="97"/>
-      <c r="M472" s="97"/>
-      <c r="N472" s="97"/>
-      <c r="O472" s="97"/>
+      <c r="I472" s="96"/>
+      <c r="J472" s="96"/>
+      <c r="K472" s="95"/>
+      <c r="L472" s="95"/>
+      <c r="M472" s="95"/>
+      <c r="N472" s="95"/>
+      <c r="O472" s="95"/>
       <c r="P472" s="47"/>
     </row>
     <row r="473" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A473" s="70"/>
-      <c r="C473" s="97"/>
+      <c r="C473" s="95"/>
       <c r="D473" s="47"/>
-      <c r="E473" s="97"/>
-      <c r="F473" s="97"/>
-      <c r="G473" s="97" t="s">
+      <c r="E473" s="95"/>
+      <c r="F473" s="95"/>
+      <c r="G473" s="95" t="s">
         <v>495</v>
       </c>
       <c r="H473" s="47"/>
-      <c r="I473" s="98"/>
-      <c r="J473" s="98"/>
-      <c r="K473" s="97"/>
-      <c r="L473" s="97"/>
-      <c r="M473" s="97"/>
-      <c r="N473" s="97"/>
-      <c r="O473" s="97"/>
+      <c r="I473" s="96"/>
+      <c r="J473" s="96"/>
+      <c r="K473" s="95"/>
+      <c r="L473" s="95"/>
+      <c r="M473" s="95"/>
+      <c r="N473" s="95"/>
+      <c r="O473" s="95"/>
       <c r="P473" s="47"/>
     </row>
     <row r="474" spans="1:16" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A474" s="70"/>
-      <c r="C474" s="100"/>
+      <c r="C474" s="98"/>
       <c r="D474" s="92"/>
-      <c r="E474" s="100" t="s">
-        <v>849</v>
+      <c r="E474" s="98" t="s">
+        <v>846</v>
       </c>
       <c r="F474" s="92"/>
       <c r="G474" s="92"/>
       <c r="H474" s="92"/>
       <c r="I474" s="92"/>
-      <c r="J474" s="100"/>
-      <c r="K474" s="100"/>
-      <c r="L474" s="100"/>
-      <c r="M474" s="100"/>
-      <c r="N474" s="100"/>
-      <c r="O474" s="100"/>
+      <c r="J474" s="98"/>
+      <c r="K474" s="98"/>
+      <c r="L474" s="98"/>
+      <c r="M474" s="98"/>
+      <c r="N474" s="98"/>
+      <c r="O474" s="98"/>
       <c r="P474" s="92"/>
     </row>
     <row r="475" spans="1:16" s="82" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A475" s="70"/>
-      <c r="C475" s="100"/>
+      <c r="C475" s="98"/>
       <c r="D475" s="92"/>
-      <c r="E475" s="100"/>
+      <c r="E475" s="98"/>
       <c r="F475" s="92" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G475" s="92"/>
       <c r="H475" s="92"/>
       <c r="I475" s="92"/>
-      <c r="J475" s="100"/>
-      <c r="K475" s="100"/>
-      <c r="L475" s="100"/>
-      <c r="M475" s="100"/>
-      <c r="N475" s="100"/>
-      <c r="O475" s="100"/>
+      <c r="J475" s="98"/>
+      <c r="K475" s="98"/>
+      <c r="L475" s="98"/>
+      <c r="M475" s="98"/>
+      <c r="N475" s="98"/>
+      <c r="O475" s="98"/>
       <c r="P475" s="92"/>
     </row>
     <row r="476" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A476" s="70"/>
-      <c r="C476" s="100"/>
+      <c r="C476" s="98"/>
       <c r="D476" s="92"/>
-      <c r="E476" s="100"/>
+      <c r="E476" s="98"/>
       <c r="F476" s="92" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="G476" s="92"/>
       <c r="H476" s="92"/>
       <c r="I476" s="92"/>
-      <c r="J476" s="100"/>
-      <c r="K476" s="100"/>
-      <c r="L476" s="100"/>
-      <c r="M476" s="100"/>
-      <c r="N476" s="100"/>
-      <c r="O476" s="100"/>
+      <c r="J476" s="98"/>
+      <c r="K476" s="98"/>
+      <c r="L476" s="98"/>
+      <c r="M476" s="98"/>
+      <c r="N476" s="98"/>
+      <c r="O476" s="98"/>
       <c r="P476" s="92"/>
     </row>
     <row r="477" spans="1:16" s="82" customFormat="1" x14ac:dyDescent="0.15">
@@ -22110,7 +22185,7 @@
       <c r="A478" s="70"/>
       <c r="C478" s="61"/>
       <c r="D478" s="61" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E478" s="57"/>
       <c r="F478" s="57"/>
@@ -22151,7 +22226,7 @@
       <c r="C480" s="61"/>
       <c r="D480" s="61"/>
       <c r="E480" s="58" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F480" s="59">
         <v>3</v>
@@ -22174,7 +22249,7 @@
       <c r="C481" s="61"/>
       <c r="D481" s="61"/>
       <c r="E481" s="58" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F481" s="59">
         <v>1</v>
@@ -22196,12 +22271,12 @@
       <c r="A482" s="70"/>
       <c r="C482" s="61"/>
       <c r="D482" s="61" t="s">
-        <v>696</v>
-      </c>
-      <c r="E482" s="97" t="s">
-        <v>697</v>
-      </c>
-      <c r="F482" s="98"/>
+        <v>694</v>
+      </c>
+      <c r="E482" s="95" t="s">
+        <v>695</v>
+      </c>
+      <c r="F482" s="96"/>
       <c r="G482" s="57"/>
       <c r="H482" s="57"/>
       <c r="I482" s="57"/>
@@ -22218,7 +22293,7 @@
       <c r="C483" s="61"/>
       <c r="D483" s="61"/>
       <c r="E483" s="92" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F483" s="57"/>
       <c r="G483" s="57"/>
@@ -22237,7 +22312,7 @@
       <c r="C484" s="61"/>
       <c r="D484" s="61"/>
       <c r="E484" s="92" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F484" s="57"/>
       <c r="G484" s="57"/>
@@ -22835,7 +22910,7 @@
     </row>
     <row r="519" spans="1:16" s="69" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A519" s="62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C519" s="61"/>
       <c r="D519" s="61" t="s">
@@ -22856,12 +22931,12 @@
     </row>
     <row r="520" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A520" s="70" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C520" s="61"/>
       <c r="D520" s="61"/>
       <c r="E520" s="57" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F520" s="57"/>
       <c r="G520" s="57"/>
@@ -22880,7 +22955,7 @@
       <c r="C521" s="61"/>
       <c r="D521" s="61"/>
       <c r="E521" s="57" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F521" s="57"/>
       <c r="G521" s="57"/>
@@ -22896,24 +22971,24 @@
     </row>
     <row r="522" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A522" s="70" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C522" s="61"/>
       <c r="D522" s="57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E522" s="57"/>
       <c r="F522" s="75"/>
       <c r="G522" s="61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H522" s="57" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I522" s="57"/>
       <c r="J522" s="57"/>
       <c r="K522" s="61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L522" s="75"/>
       <c r="M522" s="61"/>
@@ -22934,7 +23009,7 @@
       <c r="I523" s="57"/>
       <c r="J523" s="57"/>
       <c r="K523" s="57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L523" s="75"/>
       <c r="M523" s="61"/>
@@ -22944,7 +23019,7 @@
     </row>
     <row r="524" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A524" s="70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C524" s="61"/>
       <c r="D524" s="61"/>
@@ -22965,7 +23040,7 @@
     </row>
     <row r="525" spans="1:16" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A525" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C525" s="61"/>
       <c r="D525" s="61"/>
@@ -23024,7 +23099,7 @@
       <c r="D528" s="61"/>
       <c r="E528" s="57"/>
       <c r="F528" s="57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G528" s="57"/>
       <c r="H528" s="57"/>
@@ -23043,7 +23118,7 @@
       <c r="D529" s="61"/>
       <c r="E529" s="57"/>
       <c r="F529" s="75" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G529" s="57"/>
       <c r="H529" s="57"/>
@@ -23100,7 +23175,7 @@
       <c r="D532" s="61"/>
       <c r="E532" s="57"/>
       <c r="F532" s="57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G532" s="57"/>
       <c r="H532" s="57"/>
@@ -23119,7 +23194,7 @@
       <c r="D533" s="61"/>
       <c r="E533" s="57"/>
       <c r="F533" s="57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G533" s="57"/>
       <c r="H533" s="57"/>
@@ -23138,7 +23213,7 @@
       <c r="D534" s="61"/>
       <c r="E534" s="57"/>
       <c r="F534" s="57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G534" s="57"/>
       <c r="H534" s="57"/>
@@ -24541,7 +24616,7 @@
       <c r="D618" s="85"/>
       <c r="E618" s="85"/>
       <c r="F618" s="85" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G618" s="85"/>
       <c r="H618" s="85"/>
@@ -24743,7 +24818,7 @@
       <c r="B630" s="11"/>
       <c r="C630" s="85"/>
       <c r="D630" s="85" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E630" s="85"/>
       <c r="F630" s="85"/>
@@ -24779,7 +24854,7 @@
       <c r="D632" s="85"/>
       <c r="E632" s="85"/>
       <c r="F632" s="85" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G632" s="85"/>
       <c r="H632" s="85"/>
@@ -24795,7 +24870,7 @@
       <c r="C633" s="85"/>
       <c r="D633" s="85"/>
       <c r="E633" s="85" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F633" s="85"/>
       <c r="G633" s="85"/>
@@ -25025,7 +25100,7 @@
       <c r="D650" s="84"/>
       <c r="E650" s="84"/>
       <c r="F650" s="84" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G650" s="84"/>
       <c r="H650" s="84"/>
@@ -25196,7 +25271,7 @@
       <c r="B661" s="11"/>
       <c r="C661" s="85"/>
       <c r="D661" s="85" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E661" s="85"/>
       <c r="F661" s="85"/>
@@ -25247,7 +25322,7 @@
       <c r="D664" s="85"/>
       <c r="E664" s="85"/>
       <c r="F664" s="85" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G664" s="85"/>
       <c r="H664" s="85"/>
@@ -25263,7 +25338,7 @@
       <c r="C665" s="85"/>
       <c r="D665" s="85"/>
       <c r="E665" s="85" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F665" s="85"/>
       <c r="G665" s="85"/>
@@ -26849,7 +26924,7 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -26870,16 +26945,16 @@
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -26894,10 +26969,10 @@
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -26908,7 +26983,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -26920,13 +26995,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>543</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -26953,7 +27028,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -26979,57 +27054,57 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="78" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="79" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="92" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="79" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C5" s="79">
         <v>0</v>
@@ -27040,10 +27115,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C6" s="79">
         <v>0</v>
@@ -27054,205 +27129,205 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="78" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I9" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J9" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="K9" s="79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L9" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N9" s="79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="O9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P9" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="Q9" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="79" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B10" s="79" t="s">
+        <v>755</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>756</v>
+      </c>
+      <c r="D10" s="79" t="s">
         <v>757</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="E10" s="79" t="s">
         <v>758</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="F10" s="79" t="s">
+        <v>776</v>
+      </c>
+      <c r="G10" s="79" t="s">
         <v>759</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="H10" s="79" t="s">
         <v>760</v>
       </c>
-      <c r="F10" s="79" t="s">
-        <v>778</v>
-      </c>
-      <c r="G10" s="79" t="s">
+      <c r="I10" s="79" t="s">
         <v>761</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="J10" s="79" t="s">
         <v>762</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="K10" s="79" t="s">
         <v>763</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="L10" s="79" t="s">
         <v>764</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="M10" s="79" t="s">
         <v>765</v>
       </c>
-      <c r="L10" s="79" t="s">
+      <c r="N10" s="79" t="s">
         <v>766</v>
       </c>
-      <c r="M10" s="79" t="s">
+      <c r="O10" s="79" t="s">
         <v>767</v>
       </c>
-      <c r="N10" s="79" t="s">
+      <c r="P10" s="79" t="s">
         <v>768</v>
       </c>
-      <c r="O10" s="79" t="s">
+      <c r="Q10" s="79" t="s">
         <v>769</v>
-      </c>
-      <c r="P10" s="79" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q10" s="79" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="92" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C11" s="92" t="s">
+        <v>813</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>814</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>828</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>779</v>
+      </c>
+      <c r="G11" s="92" t="s">
         <v>815</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="H11" s="92" t="s">
         <v>816</v>
       </c>
-      <c r="E11" s="92" t="s">
-        <v>830</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>781</v>
-      </c>
-      <c r="G11" s="92" t="s">
+      <c r="I11" s="92" t="s">
+        <v>780</v>
+      </c>
+      <c r="J11" s="92" t="s">
         <v>817</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="K11" s="92" t="s">
+        <v>822</v>
+      </c>
+      <c r="L11" s="92" t="s">
         <v>818</v>
       </c>
-      <c r="I11" s="92" t="s">
+      <c r="M11" s="92" t="s">
         <v>782</v>
       </c>
-      <c r="J11" s="92" t="s">
+      <c r="N11" s="92" t="s">
+        <v>783</v>
+      </c>
+      <c r="O11" s="92" t="s">
+        <v>784</v>
+      </c>
+      <c r="P11" s="92" t="s">
         <v>819</v>
       </c>
-      <c r="K11" s="92" t="s">
-        <v>824</v>
-      </c>
-      <c r="L11" s="92" t="s">
-        <v>820</v>
-      </c>
-      <c r="M11" s="92" t="s">
-        <v>784</v>
-      </c>
-      <c r="N11" s="92" t="s">
+      <c r="Q11" s="92" t="s">
         <v>785</v>
-      </c>
-      <c r="O11" s="92" t="s">
-        <v>786</v>
-      </c>
-      <c r="P11" s="92" t="s">
-        <v>821</v>
-      </c>
-      <c r="Q11" s="92" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="92" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C12" s="92" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="H12" s="92" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="M12" s="92" t="s">
+        <v>825</v>
+      </c>
+      <c r="O12" s="92" t="s">
+        <v>826</v>
+      </c>
+      <c r="P12" s="92" t="s">
         <v>827</v>
-      </c>
-      <c r="O12" s="92" t="s">
-        <v>828</v>
-      </c>
-      <c r="P12" s="92" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="92" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G13" s="93" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="L13" s="91" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="79" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B15" s="79">
         <v>0</v>
@@ -27267,12 +27342,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="79" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="79" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B16" s="79">
         <v>1</v>
@@ -27293,12 +27368,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="79" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="79" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B17" s="79">
         <v>2</v>
@@ -27313,18 +27388,18 @@
         <v>0</v>
       </c>
       <c r="J17" s="79" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="K17" s="79">
         <v>0</v>
       </c>
       <c r="L17" s="91" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="79" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B18" s="79">
         <v>3</v>
@@ -27339,7 +27414,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="91" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M18" s="79">
         <v>0</v>
@@ -27356,7 +27431,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="79" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B19" s="79">
         <v>4</v>
@@ -27371,130 +27446,130 @@
         <v>0</v>
       </c>
       <c r="Q19" s="79" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="78" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B22" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C22" s="79" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E22" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G22" s="79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H22" s="79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I22" s="79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J22" s="79" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="79" t="s">
+        <v>744</v>
+      </c>
+      <c r="B23" s="79" t="s">
         <v>746</v>
       </c>
-      <c r="B23" s="79" t="s">
-        <v>748</v>
-      </c>
       <c r="C23" s="79" t="s">
+        <v>786</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>787</v>
+      </c>
+      <c r="E23" s="79" t="s">
         <v>788</v>
       </c>
-      <c r="D23" s="79" t="s">
+      <c r="F23" s="79" t="s">
+        <v>802</v>
+      </c>
+      <c r="G23" s="79" t="s">
         <v>789</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="H23" s="79" t="s">
         <v>790</v>
       </c>
-      <c r="F23" s="79" t="s">
-        <v>804</v>
-      </c>
-      <c r="G23" s="79" t="s">
+      <c r="I23" s="79" t="s">
         <v>791</v>
       </c>
-      <c r="H23" s="79" t="s">
+      <c r="J23" s="79" t="s">
         <v>792</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>793</v>
-      </c>
-      <c r="J23" s="79" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="92" t="s">
+        <v>797</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>798</v>
+      </c>
+      <c r="C24" s="92" t="s">
         <v>799</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="D24" s="92" t="s">
         <v>800</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="E24" s="92" t="s">
         <v>801</v>
       </c>
-      <c r="D24" s="92" t="s">
-        <v>802</v>
-      </c>
-      <c r="E24" s="92" t="s">
+      <c r="F24" s="92" t="s">
         <v>803</v>
       </c>
-      <c r="F24" s="92" t="s">
+      <c r="G24" s="92" t="s">
+        <v>804</v>
+      </c>
+      <c r="H24" s="92" t="s">
         <v>805</v>
       </c>
-      <c r="G24" s="92" t="s">
+      <c r="I24" s="92" t="s">
         <v>806</v>
       </c>
-      <c r="H24" s="92" t="s">
+      <c r="J24" s="92" t="s">
         <v>807</v>
-      </c>
-      <c r="I24" s="92" t="s">
-        <v>808</v>
-      </c>
-      <c r="J24" s="92" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E25" s="92" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F25" s="92" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G25" s="92" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="79" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C26" s="79" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D26" s="79">
         <v>5</v>
@@ -27528,7 +27603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE180"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
@@ -27568,7 +27643,7 @@
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="87"/>
@@ -27756,7 +27831,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -28148,7 +28223,7 @@
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D45" s="54" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F45" s="87"/>
       <c r="G45" s="87"/>
@@ -31132,10 +31207,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -31149,65 +31224,65 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="67"/>
       <c r="B1" s="65" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="C2" s="66" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="67"/>
       <c r="C3" s="66" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="67"/>
       <c r="D4" s="66" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="67"/>
       <c r="E5" s="66" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="67"/>
       <c r="E6" s="68" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
       <c r="E7" s="68"/>
       <c r="F7" s="66" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="67"/>
       <c r="E8" s="68"/>
       <c r="G8" s="66" t="s">
+        <v>625</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>648</v>
+      </c>
+      <c r="I8" s="66" t="s">
         <v>627</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>650</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="67"/>
       <c r="E9" s="68"/>
       <c r="G9" s="66" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I9" s="66">
         <v>1</v>
@@ -31234,14 +31309,14 @@
         <v>4</v>
       </c>
       <c r="L12" s="79" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="67"/>
       <c r="E13" s="68"/>
       <c r="G13" s="66" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I13" s="66">
         <v>5</v>
@@ -31251,7 +31326,7 @@
       <c r="A14" s="67"/>
       <c r="E14" s="68"/>
       <c r="F14" s="79" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="O14" s="79"/>
     </row>
@@ -31262,93 +31337,93 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="67"/>
       <c r="D16" s="66" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="67"/>
       <c r="E17" s="66" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="67"/>
       <c r="E18" s="66" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="67"/>
       <c r="G19" s="66" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="67"/>
       <c r="F20" s="68" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="67"/>
       <c r="F21" s="68" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="67"/>
       <c r="F22" s="68" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="67"/>
       <c r="F23" s="68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G23" s="66" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="67"/>
       <c r="E24" s="66" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F24" s="66" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="67"/>
       <c r="E25" s="68"/>
       <c r="F25" s="66" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>651</v>
-      </c>
-      <c r="H25" s="96" t="s">
-        <v>633</v>
-      </c>
-      <c r="I25" s="96"/>
+        <v>649</v>
+      </c>
+      <c r="H25" s="101" t="s">
+        <v>631</v>
+      </c>
+      <c r="I25" s="101"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="67"/>
       <c r="H26" s="66" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I26" s="66" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -31357,13 +31432,13 @@
         <v>78</v>
       </c>
       <c r="G27" s="66" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I27" s="66" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -31372,13 +31447,13 @@
         <v>80</v>
       </c>
       <c r="G28" s="66" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I28" s="66" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -31387,13 +31462,13 @@
         <v>82</v>
       </c>
       <c r="G29" s="66" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I29" s="66" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -31402,63 +31477,63 @@
         <v>86</v>
       </c>
       <c r="G30" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="I30" s="66" t="s">
         <v>638</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>638</v>
-      </c>
-      <c r="I30" s="66" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="67"/>
       <c r="F31" s="66" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G31" s="66" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I31" s="66" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="67"/>
       <c r="C32" s="66" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="67"/>
       <c r="D33" s="66" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="67"/>
       <c r="D34" s="66" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="67"/>
       <c r="E35" s="66" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="67"/>
       <c r="E36" s="66" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D37" s="65" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E37" s="66">
         <v>1</v>
@@ -31470,7 +31545,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I37" s="66">
         <v>19</v>
@@ -31481,47 +31556,85 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D38" s="65" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E38" s="66" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F38" s="66" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G38" s="66" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I38" s="66" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="J38" s="66" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C39" s="66" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D40" s="79" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D41" s="66" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E42" s="66" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E43" s="66" t="s">
-        <v>864</v>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C45" s="66" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D46" s="66" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D47" s="66" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D48" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D49" s="66" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D50" s="66" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D51" s="66" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -31538,7 +31651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK105"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B46" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -32368,174 +32481,174 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="79" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B2" s="79" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C2" s="79" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" s="79" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" s="79" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C5" s="78" t="s">
+        <v>600</v>
+      </c>
+      <c r="D5" s="78" t="s">
         <v>601</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="E5" s="78" t="s">
         <v>602</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C6" s="79" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D7" s="81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D8" s="81" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D9" s="81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D10" s="81"/>
       <c r="E10" s="79" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F10" s="79" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D11" s="81"/>
       <c r="F11" s="79" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D12" s="81"/>
       <c r="F12" s="79" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D13" s="81" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D14" s="81" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="Q14" s="79" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="R14" s="79" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C15" s="79" t="s">
+        <v>605</v>
+      </c>
+      <c r="D15" s="81" t="s">
         <v>606</v>
       </c>
-      <c r="D15" s="81" t="s">
-        <v>607</v>
-      </c>
       <c r="P15" s="79" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Q15" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R15" s="83" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="S15" s="79" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D16" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="Q16" s="79" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="R16" s="83" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="S16" s="79" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C17" s="79" t="s">
+        <v>608</v>
+      </c>
+      <c r="D17" s="79" t="s">
         <v>609</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="E17" s="79" t="s">
         <v>610</v>
-      </c>
-      <c r="E17" s="79" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q18" s="79" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="R18" s="79" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="P19" s="79" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q20" s="79" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="R20" s="79" t="s">
         <v>78</v>
@@ -32543,7 +32656,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q21" s="79" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="R21" s="79" t="s">
         <v>80</v>
@@ -32556,7 +32669,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="79" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R23" s="79" t="s">
         <v>88</v>
@@ -32564,25 +32677,25 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C25" s="79" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P25" s="79" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="P26" s="79" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="79" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -32594,10 +32707,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32607,75 +32720,95 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="78" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="79" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="79" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="79" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="79" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" s="79" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" s="79" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B12" s="79" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B14" s="79" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" s="79" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="79" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="79" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="79" t="s">
-        <v>861</v>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="79" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="79" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="79" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="79" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>

--- a/gd/技能逻辑/技能逻辑.xlsx
+++ b/gd/技能逻辑/技能逻辑.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,23 +14,24 @@
   <sheets>
     <sheet name="目录" sheetId="11" r:id="rId1"/>
     <sheet name="普通技能逻辑" sheetId="3" r:id="rId2"/>
-    <sheet name="导表说明" sheetId="8" r:id="rId3"/>
-    <sheet name="Buff添加与结算流图" sheetId="5" r:id="rId4"/>
-    <sheet name="AI逻辑" sheetId="7" r:id="rId5"/>
-    <sheet name="AI配置表" sheetId="12" r:id="rId6"/>
-    <sheet name="大招逻辑" sheetId="1" r:id="rId7"/>
-    <sheet name="大招流程图" sheetId="2" r:id="rId8"/>
-    <sheet name="技能设计规范" sheetId="6" r:id="rId9"/>
-    <sheet name="需求拆分（程序开发）" sheetId="9" r:id="rId10"/>
-    <sheet name="策划验收" sheetId="10" r:id="rId11"/>
-    <sheet name="自用" sheetId="4" r:id="rId12"/>
+    <sheet name="技能释放生效流程" sheetId="13" r:id="rId3"/>
+    <sheet name="导表说明" sheetId="8" r:id="rId4"/>
+    <sheet name="Buff添加与结算流图" sheetId="5" r:id="rId5"/>
+    <sheet name="AI逻辑" sheetId="7" r:id="rId6"/>
+    <sheet name="AI配置表" sheetId="12" r:id="rId7"/>
+    <sheet name="大招逻辑" sheetId="1" r:id="rId8"/>
+    <sheet name="大招流程图" sheetId="2" r:id="rId9"/>
+    <sheet name="技能设计规范" sheetId="6" r:id="rId10"/>
+    <sheet name="需求拆分（程序开发）" sheetId="9" r:id="rId11"/>
+    <sheet name="策划验收" sheetId="10" r:id="rId12"/>
+    <sheet name="自用" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1116">
   <si>
     <t>怪物大招逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4483,6 +4484,34 @@
   </si>
   <si>
     <t>副本怪物调用勤奋度与性格（固定）直接调用2个表格内数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要进行命中判定的effect类型</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDamage （备注：若伤害类型为周期性伤害也不判断命中）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectApplyBuff</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>除以上类型effect外，其他effect不计算命中，即直接命中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论任何类型的effect类型，当目标为友方时，则不进行命中判断</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加技能释放生效流程分页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5056,7 +5085,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5449,6 +5478,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="27" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5497,9 +5529,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="27" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="27" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9138,6 +9168,2352 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="组合 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="1257300"/>
+          <a:ext cx="13931265" cy="10982325"/>
+          <a:chOff x="1303020" y="457200"/>
+          <a:chExt cx="10568940" cy="6827520"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="26" idx="2"/>
+            <a:endCxn id="27" idx="0"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3154680" y="5646420"/>
+            <a:ext cx="0" cy="213360"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent5"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="组合 3"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1303020" y="457200"/>
+            <a:ext cx="10568940" cy="6827520"/>
+            <a:chOff x="1440180" y="586740"/>
+            <a:chExt cx="10568940" cy="6827520"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="23" idx="2"/>
+              <a:endCxn id="24" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3288030" y="2628900"/>
+              <a:ext cx="0" cy="266700"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="直接箭头连接符 48"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="23" idx="1"/>
+              <a:endCxn id="27" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000" flipH="1" flipV="1">
+              <a:off x="2179320" y="2164080"/>
+              <a:ext cx="335280" cy="4118610"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector3">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -68182"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="7" name="组合 6"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1440180" y="586740"/>
+              <a:ext cx="10568940" cy="6827520"/>
+              <a:chOff x="1203960" y="160020"/>
+              <a:chExt cx="10568940" cy="6827520"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="8" name="矩形 7"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5615940" y="3200400"/>
+                <a:ext cx="1546860" cy="731520"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>起效后对该</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                  <a:t>Effect/Buff</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>涉及的所有目标作如下判定</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="9" name="矩形 8"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7886700" y="274320"/>
+                <a:ext cx="3718560" cy="6591300"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="28575"/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="accent3"/>
+              </a:lnRef>
+              <a:fillRef idx="2">
+                <a:schemeClr val="accent3"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="accent3"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="10" name="矩形 9"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8298180" y="1226820"/>
+                <a:ext cx="1196340" cy="685800"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>已</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="zh-Hans" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>起效后对该</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Effect/Buff</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>对后续</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Effect</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>的影响</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="流程图: 决策 10"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8061960" y="2385060"/>
+                <a:ext cx="1668780" cy="929640"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartDecision">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>是否导致目标死亡</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="12" name="圆角矩形 11"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8515614" y="6156365"/>
+                <a:ext cx="899160" cy="464820"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>进行下一个</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                  <a:t>Effect</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>结算</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="28" idx="3"/>
+                <a:endCxn id="8" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4998720" y="3566160"/>
+                <a:ext cx="617220" cy="0"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="8" idx="3"/>
+                <a:endCxn id="9" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="7162800" y="3566160"/>
+                <a:ext cx="723900" cy="3810"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="10" idx="2"/>
+                <a:endCxn id="11" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8896350" y="1912620"/>
+                <a:ext cx="0" cy="472440"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="11" idx="2"/>
+                <a:endCxn id="65" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="8895949" y="3314700"/>
+                <a:ext cx="401" cy="321256"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="11" idx="3"/>
+                <a:endCxn id="18" idx="1"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="9730740" y="2849411"/>
+                <a:ext cx="601980" cy="469"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent5"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent5"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent5"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="18" name="矩形 17"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10332720" y="2601724"/>
+                <a:ext cx="1196340" cy="495373"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                  <a:t>跳过后续序列中该目标发起的所有发出</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                  <a:t>Effect</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="19" name="组合 18"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1203960" y="160020"/>
+                <a:ext cx="10568940" cy="6827520"/>
+                <a:chOff x="1203960" y="160020"/>
+                <a:chExt cx="10568940" cy="6827520"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="20" name="矩形 19"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1203960" y="160020"/>
+                  <a:ext cx="10568940" cy="6827520"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="28575">
+                  <a:solidFill>
+                    <a:srgbClr val="002060"/>
+                  </a:solidFill>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="21" name="矩形 20"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2545080" y="666104"/>
+                  <a:ext cx="1005840" cy="457200"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>读取</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                    <a:t>Caster</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>与</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                    <a:t>Target</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>属性</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="21" idx="2"/>
+                  <a:endCxn id="23" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3048000" y="1123304"/>
+                  <a:ext cx="3810" cy="149236"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="23" name="流程图: 决策 22"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1943100" y="1272540"/>
+                  <a:ext cx="2217420" cy="929640"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartDecision">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>是否是周期伤害</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                    <a:t>buff</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>类</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+                    <a:t>effect</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="24" name="流程图: 决策 23"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1943100" y="2468880"/>
+                  <a:ext cx="2217420" cy="929640"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartDecision">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>目标是否为友方目标</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="25" name="流程图: 决策 24"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1943100" y="3657600"/>
+                  <a:ext cx="2217420" cy="929640"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartDecision">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>是否为需要进行命中判断类</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="26" name="流程图: 决策 25"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2278380" y="4762500"/>
+                  <a:ext cx="1554480" cy="586740"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartDecision">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>是否命中</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="27" name="流程图: 决策 26"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2278380" y="5562600"/>
+                  <a:ext cx="1554480" cy="586740"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartDecision">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>是否暴击</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="28" name="矩形 27"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1280160" y="266700"/>
+                  <a:ext cx="3718560" cy="6598920"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="28575"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent3"/>
+                </a:lnRef>
+                <a:fillRef idx="2">
+                  <a:schemeClr val="accent3"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent3"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="24" idx="2"/>
+                  <a:endCxn id="25" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3051810" y="3398520"/>
+                  <a:ext cx="0" cy="259080"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="25" idx="2"/>
+                  <a:endCxn id="26" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3051810" y="4587240"/>
+                  <a:ext cx="3810" cy="175260"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="31" name="直接箭头连接符 48"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="24" idx="1"/>
+                  <a:endCxn id="27" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="10800000" flipH="1" flipV="1">
+                  <a:off x="1943100" y="2933700"/>
+                  <a:ext cx="335280" cy="2922270"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val -68182"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="32" name="直接箭头连接符 48"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="25" idx="1"/>
+                  <a:endCxn id="27" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm rot="10800000" flipH="1" flipV="1">
+                  <a:off x="1943100" y="4122420"/>
+                  <a:ext cx="335280" cy="1733550"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val -68182"/>
+                  </a:avLst>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="33" name="矩形 32"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4030980" y="4899660"/>
+                  <a:ext cx="914400" cy="320040"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>显示未命中</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="26" idx="3"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3832860" y="5055870"/>
+                  <a:ext cx="198120" cy="3810"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="35" name="矩形 34"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4076700" y="5615940"/>
+                  <a:ext cx="861060" cy="472440"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>计算暴击效果起效</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="27" idx="3"/>
+                  <a:endCxn id="35" idx="1"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="3832860" y="5852160"/>
+                  <a:ext cx="243840" cy="3810"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="37" name="矩形 36"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2583180" y="6324600"/>
+                  <a:ext cx="944880" cy="472440"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:r>
+                    <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+                    <a:t>不计算暴击效果起效</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="27" idx="2"/>
+                  <a:endCxn id="37" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3055620" y="6149340"/>
+                  <a:ext cx="0" cy="175260"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="3">
+                  <a:schemeClr val="accent5"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent5"/>
+                </a:fillRef>
+                <a:effectRef idx="2">
+                  <a:schemeClr val="accent5"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>52355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>36529</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="9725024" y="7596155"/>
+          <a:ext cx="598505" cy="3680333"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38195"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537862</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537862</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10824862" y="8343836"/>
+          <a:ext cx="0" cy="342964"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270812</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="圆角矩形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="1495425"/>
+          <a:ext cx="1185212" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+            <a:t>Effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>结算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>开始</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364006</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>373290</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3107206" y="1924050"/>
+          <a:ext cx="9284" cy="147305"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266098</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171386</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="流程图: 决策 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="6848475"/>
+          <a:ext cx="2199673" cy="1495361"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目标是否处于可打断阶段</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266098</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="流程图: 决策 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="8686800"/>
+          <a:ext cx="2199673" cy="1495361"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>是否</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>具有打断效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>4731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>36529</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170339</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="1"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="9725024" y="9434481"/>
+          <a:ext cx="598505" cy="1842008"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38195"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266098</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>4731</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直接箭头连接符 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="79" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11924698" y="9429751"/>
+          <a:ext cx="486377" cy="4730"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="流程图: 决策 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12411075" y="8886826"/>
+          <a:ext cx="1800225" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>打断是否成功</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>535943</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>280989</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接箭头连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11758059" y="9723359"/>
+          <a:ext cx="1303813" cy="1802446"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14206538" y="9429751"/>
+          <a:ext cx="4762" cy="876299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矩形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13658850" y="10306050"/>
+          <a:ext cx="1095375" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>跳过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>目标被打断的发出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>effect</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>535943</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直接箭头连接符 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="2"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12639121" y="9709071"/>
+          <a:ext cx="437039" cy="2697796"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>118412</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="圆角矩形 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="7943850"/>
+          <a:ext cx="1185212" cy="747681"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>进行下一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+            <a:t>Effect</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+            <a:t>结算</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>211606</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>214238</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>80091</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直接箭头连接符 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="0"/>
+          <a:endCxn id="93" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5012206" y="8691531"/>
+          <a:ext cx="2632" cy="189660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -13527,7 +15903,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13617,7 +15993,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15035,7 +17411,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -16905,7 +19281,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17211,10 +19587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -17404,17 +19780,17 @@
     </row>
     <row r="11" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="100"/>
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="141" t="s">
         <v>862</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140" t="s">
+      <c r="C11" s="142"/>
+      <c r="D11" s="143" t="s">
         <v>863</v>
       </c>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="141"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="144"/>
       <c r="I11" s="101"/>
       <c r="J11" s="101"/>
       <c r="K11" s="101"/>
@@ -17428,11 +19804,11 @@
         <v>864</v>
       </c>
       <c r="C12" s="107"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="135"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="138"/>
       <c r="I12" s="101"/>
       <c r="J12" s="101"/>
       <c r="K12" s="101"/>
@@ -17446,11 +19822,11 @@
         <v>865</v>
       </c>
       <c r="C13" s="107"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
       <c r="I13" s="101"/>
       <c r="J13" s="101"/>
       <c r="K13" s="101"/>
@@ -17464,11 +19840,11 @@
         <v>866</v>
       </c>
       <c r="C14" s="107"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="101"/>
       <c r="J14" s="101"/>
       <c r="K14" s="101"/>
@@ -17482,11 +19858,11 @@
         <v>867</v>
       </c>
       <c r="C15" s="108"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
       <c r="I15" s="101"/>
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
@@ -17502,11 +19878,11 @@
       <c r="C16" s="108" t="s">
         <v>868</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="138"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
@@ -17520,11 +19896,11 @@
         <v>870</v>
       </c>
       <c r="C17" s="108"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="138"/>
       <c r="I17" s="101"/>
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
@@ -17538,11 +19914,11 @@
         <v>871</v>
       </c>
       <c r="C18" s="110"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="137"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="140"/>
       <c r="I18" s="101"/>
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
@@ -17892,19 +20268,19 @@
       <c r="B33" s="101"/>
       <c r="C33" s="101"/>
       <c r="D33" s="101"/>
-      <c r="E33" s="150"/>
+      <c r="E33" s="134"/>
       <c r="F33" s="102"/>
       <c r="G33" s="102" t="s">
         <v>943</v>
       </c>
-      <c r="H33" s="152" t="s">
+      <c r="H33" s="136" t="s">
         <v>1105</v>
       </c>
       <c r="I33" s="101"/>
       <c r="J33" s="101"/>
       <c r="K33" s="101"/>
       <c r="L33" s="101"/>
-      <c r="M33" s="152" t="s">
+      <c r="M33" s="136" t="s">
         <v>1106</v>
       </c>
       <c r="N33" s="101"/>
@@ -17912,40 +20288,38 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
+      <c r="B34" s="101" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C34" s="111">
+        <v>42151</v>
+      </c>
       <c r="D34" s="101"/>
-      <c r="E34" s="151"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="102"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
+      <c r="G34" s="102" t="s">
+        <v>943</v>
+      </c>
+      <c r="H34" s="153" t="s">
+        <v>1115</v>
+      </c>
       <c r="I34" s="101"/>
       <c r="J34" s="101"/>
       <c r="K34" s="101"/>
       <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
+      <c r="M34" s="136"/>
       <c r="N34" s="101"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A35" s="100" t="s">
-        <v>883</v>
-      </c>
-      <c r="B35" s="101" t="s">
-        <v>884</v>
-      </c>
-      <c r="C35" s="102" t="s">
-        <v>885</v>
-      </c>
-      <c r="D35" s="102" t="s">
-        <v>886</v>
-      </c>
-      <c r="E35" s="102" t="s">
-        <v>887</v>
-      </c>
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="G35" s="101"/>
       <c r="H35" s="101"/>
       <c r="I35" s="101"/>
       <c r="J35" s="101"/>
@@ -17955,41 +20329,67 @@
       <c r="N35" s="101"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36" s="100" t="s">
+        <v>883</v>
+      </c>
       <c r="B36" s="101" t="s">
+        <v>884</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>885</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>886</v>
+      </c>
+      <c r="E36" s="102" t="s">
+        <v>887</v>
+      </c>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B37" s="101" t="s">
         <v>1025</v>
       </c>
-      <c r="C36" s="111">
+      <c r="C37" s="111">
         <v>42145</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D37" s="78" t="s">
         <v>1077</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E37" s="78" t="s">
         <v>1079</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="E37" s="78" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E38" s="78" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E39" s="78" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E40" s="78" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E41" s="78" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="E42" s="78" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -18032,6 +20432,247 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="78"/>
+    <col min="4" max="4" width="11.5" style="78" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1" s="78" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B2" s="78" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C3" s="78" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B4" s="78" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C5" s="77" t="s">
+        <v>587</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>588</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C6" s="78" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>579</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D7" s="80" t="s">
+        <v>580</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D8" s="80" t="s">
+        <v>581</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D9" s="80" t="s">
+        <v>591</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>638</v>
+      </c>
+      <c r="F9" s="78" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D10" s="80"/>
+      <c r="E10" s="78" t="s">
+        <v>639</v>
+      </c>
+      <c r="F10" s="78" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D11" s="80"/>
+      <c r="F11" s="78" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D12" s="80"/>
+      <c r="F12" s="78" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D13" s="80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D14" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q14" s="78" t="s">
+        <v>655</v>
+      </c>
+      <c r="R14" s="78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C15" s="78" t="s">
+        <v>592</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>593</v>
+      </c>
+      <c r="P15" s="78" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q15" s="78" t="s">
+        <v>643</v>
+      </c>
+      <c r="R15" s="82" t="s">
+        <v>657</v>
+      </c>
+      <c r="S15" s="78" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D16" s="78" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q16" s="78" t="s">
+        <v>644</v>
+      </c>
+      <c r="R16" s="82" t="s">
+        <v>658</v>
+      </c>
+      <c r="S16" s="78" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C17" s="78" t="s">
+        <v>595</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>596</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q18" s="78" t="s">
+        <v>655</v>
+      </c>
+      <c r="R18" s="78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="P19" s="78" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q20" s="78" t="s">
+        <v>643</v>
+      </c>
+      <c r="R20" s="78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="Q21" s="78" t="s">
+        <v>644</v>
+      </c>
+      <c r="R21" s="78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R22" s="78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="78" t="s">
+        <v>598</v>
+      </c>
+      <c r="R23" s="78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="78" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C25" s="78" t="s">
+        <v>600</v>
+      </c>
+      <c r="P25" s="78" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="P26" s="78" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="78" t="s">
+        <v>601</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18205,7 +20846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18220,7 +20861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -24473,13 +27114,13 @@
       <c r="A459" s="69"/>
       <c r="C459" s="60"/>
       <c r="D459" s="60"/>
-      <c r="E459" s="148" t="s">
+      <c r="E459" s="151" t="s">
         <v>475</v>
       </c>
-      <c r="F459" s="148" t="s">
+      <c r="F459" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="G459" s="148"/>
+      <c r="G459" s="151"/>
       <c r="H459" s="60"/>
       <c r="I459" s="60"/>
       <c r="J459" s="60"/>
@@ -24494,7 +27135,7 @@
       <c r="A460" s="69"/>
       <c r="C460" s="60"/>
       <c r="D460" s="60"/>
-      <c r="E460" s="148"/>
+      <c r="E460" s="151"/>
       <c r="F460" s="59" t="s">
         <v>471</v>
       </c>
@@ -29304,6 +31945,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="78"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B1" s="82" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="82"/>
+      <c r="C2" s="81" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="82"/>
+      <c r="C3" s="81" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C4" s="82" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C5" s="82" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -29952,11 +32672,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AE180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -33558,7 +36278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
@@ -33774,10 +36494,10 @@
       <c r="G27" s="65" t="s">
         <v>631</v>
       </c>
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="152" t="s">
         <v>617</v>
       </c>
-      <c r="I27" s="149"/>
+      <c r="I27" s="152"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="66"/>
@@ -34446,7 +37166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
@@ -35133,7 +37853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK105"/>
   <sheetViews>
@@ -35886,7 +38606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I59"/>
   <sheetViews>
@@ -35948,245 +38668,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="9" style="78"/>
-    <col min="4" max="4" width="11.5" style="78" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="78"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B2" s="78" t="s">
-        <v>649</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C3" s="78" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="B4" s="78" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C5" s="77" t="s">
-        <v>587</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>588</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C6" s="78" t="s">
-        <v>590</v>
-      </c>
-      <c r="D6" s="80" t="s">
-        <v>579</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D7" s="80" t="s">
-        <v>580</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D8" s="80" t="s">
-        <v>581</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D9" s="80" t="s">
-        <v>591</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>638</v>
-      </c>
-      <c r="F9" s="78" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D10" s="80"/>
-      <c r="E10" s="78" t="s">
-        <v>639</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D11" s="80"/>
-      <c r="F11" s="78" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D12" s="80"/>
-      <c r="F12" s="78" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D13" s="80" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D14" s="80" t="s">
-        <v>575</v>
-      </c>
-      <c r="Q14" s="78" t="s">
-        <v>655</v>
-      </c>
-      <c r="R14" s="78" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C15" s="78" t="s">
-        <v>592</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>593</v>
-      </c>
-      <c r="P15" s="78" t="s">
-        <v>656</v>
-      </c>
-      <c r="Q15" s="78" t="s">
-        <v>643</v>
-      </c>
-      <c r="R15" s="82" t="s">
-        <v>657</v>
-      </c>
-      <c r="S15" s="78" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="D16" s="78" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q16" s="78" t="s">
-        <v>644</v>
-      </c>
-      <c r="R16" s="82" t="s">
-        <v>658</v>
-      </c>
-      <c r="S16" s="78" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C17" s="78" t="s">
-        <v>595</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>596</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="Q18" s="78" t="s">
-        <v>655</v>
-      </c>
-      <c r="R18" s="78" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="P19" s="78" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="Q20" s="78" t="s">
-        <v>643</v>
-      </c>
-      <c r="R20" s="78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="Q21" s="78" t="s">
-        <v>644</v>
-      </c>
-      <c r="R21" s="78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="R22" s="78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="78" t="s">
-        <v>598</v>
-      </c>
-      <c r="R23" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B24" s="78" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C25" s="78" t="s">
-        <v>600</v>
-      </c>
-      <c r="P25" s="78" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="P26" s="78" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B28" s="78" t="s">
-        <v>601</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/gd/技能逻辑/技能逻辑.xlsx
+++ b/gd/技能逻辑/技能逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="3795" windowWidth="32265" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="6045" yWindow="3795" windowWidth="32265" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1064">
   <si>
     <t>提示方式：手指滑动特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,10 +299,6 @@
   </si>
   <si>
     <t>Effect根据配置的延迟时间依次生效</t>
-  </si>
-  <si>
-    <t>EffectPersistent可配置是否进行命中判断</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如参数配置为进行判断，则进行命中判断</t>
@@ -4162,6 +4158,14 @@
   </si>
   <si>
     <t>添加偷懒动作文档说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectPersistent可配置是否进行命中判断</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>置灰Persistent命中判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4735,7 +4739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5126,6 +5130,14 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="28" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5174,14 +5186,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="28" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15807,10 +15817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -15822,10 +15832,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B1" s="93" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="94"/>
@@ -15858,10 +15868,10 @@
     </row>
     <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="94"/>
@@ -15894,10 +15904,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="92" t="s">
+        <v>756</v>
+      </c>
+      <c r="B5" s="93" t="s">
         <v>757</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>758</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94"/>
@@ -15930,10 +15940,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="92" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C7" s="93"/>
       <c r="D7" s="97"/>
@@ -15982,7 +15992,7 @@
     </row>
     <row r="10" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="92" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
@@ -16000,17 +16010,17 @@
     </row>
     <row r="11" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92"/>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="144" t="s">
+        <v>759</v>
+      </c>
+      <c r="C11" s="145"/>
+      <c r="D11" s="146" t="s">
         <v>760</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142" t="s">
-        <v>761</v>
-      </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
       <c r="I11" s="93"/>
       <c r="J11" s="93"/>
       <c r="K11" s="93"/>
@@ -16021,14 +16031,14 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="92"/>
       <c r="B12" s="98" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C12" s="99"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="137"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="141"/>
       <c r="I12" s="93"/>
       <c r="J12" s="93"/>
       <c r="K12" s="93"/>
@@ -16039,14 +16049,14 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="92"/>
       <c r="B13" s="98" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C13" s="99"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="146"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="150"/>
       <c r="I13" s="93"/>
       <c r="J13" s="93"/>
       <c r="K13" s="93"/>
@@ -16057,14 +16067,14 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="92"/>
       <c r="B14" s="98" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C14" s="99"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="149"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="153"/>
       <c r="I14" s="93"/>
       <c r="J14" s="93"/>
       <c r="K14" s="93"/>
@@ -16075,14 +16085,14 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="92"/>
       <c r="B15" s="98" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C15" s="100"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="137"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="93"/>
       <c r="J15" s="93"/>
       <c r="K15" s="93"/>
@@ -16093,16 +16103,16 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="92"/>
       <c r="B16" s="98" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>766</v>
-      </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="137"/>
+        <v>765</v>
+      </c>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="141"/>
       <c r="I16" s="93"/>
       <c r="J16" s="93"/>
       <c r="K16" s="93"/>
@@ -16113,14 +16123,14 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="92"/>
       <c r="B17" s="98" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C17" s="100"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
       <c r="I17" s="93"/>
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
@@ -16131,14 +16141,14 @@
     <row r="18" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="92"/>
       <c r="B18" s="101" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C18" s="102"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="139"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="143"/>
       <c r="I18" s="93"/>
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
@@ -16164,25 +16174,25 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="92" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" s="93" t="s">
         <v>770</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="C20" s="94" t="s">
         <v>771</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="D20" s="94" t="s">
         <v>772</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="E20" s="94" t="s">
         <v>773</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="F20" s="94" t="s">
         <v>774</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="G20" s="94" t="s">
         <v>775</v>
-      </c>
-      <c r="G20" s="94" t="s">
-        <v>776</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="93"/>
@@ -16211,19 +16221,19 @@
     <row r="22" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A22" s="92"/>
       <c r="B22" s="93" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C22" s="103">
         <v>42094</v>
       </c>
       <c r="D22" s="94" t="s">
+        <v>777</v>
+      </c>
+      <c r="E22" s="94" t="s">
         <v>778</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="F22" s="94" t="s">
         <v>779</v>
-      </c>
-      <c r="F22" s="94" t="s">
-        <v>780</v>
       </c>
       <c r="G22" s="94"/>
       <c r="H22" s="109"/>
@@ -16237,20 +16247,20 @@
     <row r="23" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A23" s="92"/>
       <c r="B23" s="93" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C23" s="103">
         <v>42114</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E23" s="105"/>
       <c r="G23" s="94" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H23" s="107" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I23" s="109"/>
       <c r="J23" s="109"/>
@@ -16262,7 +16272,7 @@
     <row r="24" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A24" s="92"/>
       <c r="B24" s="93" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C24" s="103">
         <v>42118</v>
@@ -16271,10 +16281,10 @@
       <c r="E24" s="106"/>
       <c r="F24" s="93"/>
       <c r="G24" s="94" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H24" s="107" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="I24" s="109"/>
       <c r="J24" s="109"/>
@@ -16284,7 +16294,7 @@
     </row>
     <row r="25" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B25" s="93" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C25" s="103">
         <v>42125</v>
@@ -16292,15 +16302,15 @@
       <c r="E25" s="104"/>
       <c r="F25" s="94"/>
       <c r="G25" s="94" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H25" s="107" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I25" s="109"/>
       <c r="J25" s="109"/>
       <c r="K25" s="109" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L25" s="109"/>
       <c r="M25" s="109"/>
@@ -16308,7 +16318,7 @@
     </row>
     <row r="26" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B26" s="93" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C26" s="103">
         <v>42129</v>
@@ -16316,10 +16326,10 @@
       <c r="E26" s="74"/>
       <c r="F26" s="94"/>
       <c r="G26" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H26" s="107" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I26" s="109"/>
       <c r="J26" s="109"/>
@@ -16330,7 +16340,7 @@
     </row>
     <row r="27" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B27" s="93" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C27" s="103">
         <v>42131</v>
@@ -16338,25 +16348,25 @@
       <c r="E27" s="82"/>
       <c r="F27" s="94"/>
       <c r="G27" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H27" s="107" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I27" s="109"/>
       <c r="J27" s="108" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K27" s="109"/>
       <c r="L27" s="108" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M27" s="109"/>
       <c r="N27" s="93"/>
     </row>
     <row r="28" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B28" s="93" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C28" s="103">
         <v>42136</v>
@@ -16364,15 +16374,15 @@
       <c r="E28" s="74"/>
       <c r="F28" s="94"/>
       <c r="G28" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H28" s="107" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I28" s="109"/>
       <c r="J28" s="109"/>
       <c r="K28" s="108" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
@@ -16380,7 +16390,7 @@
     </row>
     <row r="29" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B29" s="93" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C29" s="103">
         <v>42140</v>
@@ -16388,10 +16398,10 @@
       <c r="E29" s="74"/>
       <c r="F29" s="94"/>
       <c r="G29" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H29" s="107" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I29" s="93"/>
       <c r="J29" s="93"/>
@@ -16402,7 +16412,7 @@
     </row>
     <row r="30" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B30" s="93" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C30" s="103">
         <v>42144</v>
@@ -16410,25 +16420,25 @@
       <c r="E30" s="19"/>
       <c r="F30" s="94"/>
       <c r="G30" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H30" s="107" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I30" s="93"/>
       <c r="J30" s="108" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K30" s="93"/>
       <c r="L30" s="109" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M30" s="93"/>
       <c r="N30" s="93"/>
     </row>
     <row r="31" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B31" s="93" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C31" s="103">
         <v>42145</v>
@@ -16436,15 +16446,15 @@
       <c r="E31" s="123"/>
       <c r="F31" s="94"/>
       <c r="G31" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H31" s="107" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I31" s="93"/>
       <c r="J31" s="108"/>
       <c r="K31" s="108" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L31" s="93"/>
       <c r="M31" s="93"/>
@@ -16452,7 +16462,7 @@
     </row>
     <row r="32" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B32" s="93" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C32" s="103">
         <v>42145</v>
@@ -16460,10 +16470,10 @@
       <c r="E32" s="120"/>
       <c r="F32" s="94"/>
       <c r="G32" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H32" s="107" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I32" s="93"/>
       <c r="J32" s="108"/>
@@ -16472,7 +16482,7 @@
       <c r="M32" s="93"/>
       <c r="N32" s="93"/>
       <c r="P32" s="124" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="Q32" s="124"/>
       <c r="R32" s="124"/>
@@ -16480,7 +16490,7 @@
       <c r="T32" s="124"/>
       <c r="U32" s="124"/>
       <c r="W32" s="124" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
@@ -16491,27 +16501,27 @@
       <c r="E33" s="125"/>
       <c r="F33" s="94"/>
       <c r="G33" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H33" s="108" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I33" s="93"/>
       <c r="J33" s="93"/>
       <c r="K33" s="93"/>
       <c r="L33" s="93"/>
       <c r="M33" s="108" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="N33" s="93"/>
       <c r="R33" s="71" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A34" s="93"/>
       <c r="B34" s="93" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C34" s="103">
         <v>42151</v>
@@ -16520,10 +16530,10 @@
       <c r="E34" s="126"/>
       <c r="F34" s="94"/>
       <c r="G34" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H34" s="127" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I34" s="93"/>
       <c r="J34" s="93"/>
@@ -16535,7 +16545,7 @@
     <row r="35" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A35" s="93"/>
       <c r="B35" s="93" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C35" s="103">
         <v>42152</v>
@@ -16544,10 +16554,10 @@
       <c r="E35" s="126"/>
       <c r="F35" s="94"/>
       <c r="G35" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H35" s="127" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I35" s="93"/>
       <c r="J35" s="93"/>
@@ -16559,7 +16569,7 @@
     <row r="36" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A36" s="93"/>
       <c r="B36" s="93" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C36" s="103">
         <v>42153</v>
@@ -16568,15 +16578,15 @@
       <c r="E36" s="126"/>
       <c r="F36" s="94"/>
       <c r="G36" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H36" s="127" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="93"/>
       <c r="J36" s="93"/>
       <c r="K36" s="109" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="L36" s="93"/>
       <c r="M36" s="108"/>
@@ -16590,10 +16600,10 @@
       <c r="E37" s="126"/>
       <c r="F37" s="94"/>
       <c r="G37" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H37" s="108" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I37" s="93"/>
       <c r="J37" s="93"/>
@@ -16605,7 +16615,7 @@
     <row r="38" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A38" s="93"/>
       <c r="B38" s="93" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C38" s="103">
         <v>42156</v>
@@ -16614,10 +16624,10 @@
       <c r="E38" s="131"/>
       <c r="F38" s="94"/>
       <c r="G38" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H38" s="108" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I38" s="93"/>
       <c r="J38" s="93"/>
@@ -16629,7 +16639,7 @@
     <row r="39" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A39" s="93"/>
       <c r="B39" s="93" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C39" s="103">
         <v>42159</v>
@@ -16638,10 +16648,10 @@
       <c r="E39" s="126"/>
       <c r="F39" s="94"/>
       <c r="G39" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H39" s="108" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="I39" s="93"/>
       <c r="J39" s="93"/>
@@ -16653,7 +16663,7 @@
     <row r="40" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A40" s="93"/>
       <c r="B40" s="93" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C40" s="103">
         <v>42177</v>
@@ -16662,10 +16672,10 @@
       <c r="E40" s="126"/>
       <c r="F40" s="94"/>
       <c r="G40" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H40" s="127" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="I40" s="93"/>
       <c r="J40" s="93"/>
@@ -16679,13 +16689,13 @@
       <c r="B41" s="93"/>
       <c r="C41" s="103"/>
       <c r="D41" s="93"/>
-      <c r="E41" s="152"/>
+      <c r="E41" s="136"/>
       <c r="F41" s="94"/>
       <c r="G41" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H41" s="108" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="I41" s="93"/>
       <c r="J41" s="93"/>
@@ -16697,19 +16707,19 @@
     <row r="42" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A42" s="93"/>
       <c r="B42" s="93" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C42" s="103">
         <v>42179</v>
       </c>
       <c r="D42" s="93"/>
-      <c r="E42" s="155"/>
+      <c r="E42" s="139"/>
       <c r="F42" s="94"/>
       <c r="G42" s="94" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H42" s="108" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I42" s="93"/>
       <c r="J42" s="93"/>
@@ -16718,25 +16728,19 @@
       <c r="M42" s="93"/>
       <c r="N42" s="93"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="92" t="s">
-        <v>781</v>
-      </c>
-      <c r="B43" s="93" t="s">
-        <v>782</v>
-      </c>
-      <c r="C43" s="94" t="s">
-        <v>783</v>
-      </c>
-      <c r="D43" s="94" t="s">
-        <v>784</v>
-      </c>
-      <c r="E43" s="94" t="s">
-        <v>785</v>
-      </c>
+    <row r="43" spans="1:18" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A43" s="93"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="93"/>
+      <c r="G43" s="94" t="s">
+        <v>836</v>
+      </c>
+      <c r="H43" s="127" t="s">
+        <v>1063</v>
+      </c>
       <c r="I43" s="93"/>
       <c r="J43" s="93"/>
       <c r="K43" s="93"/>
@@ -16745,42 +16749,68 @@
       <c r="N43" s="93"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44" s="92" t="s">
+        <v>780</v>
+      </c>
       <c r="B44" s="93" t="s">
-        <v>917</v>
-      </c>
-      <c r="C44" s="103">
+        <v>781</v>
+      </c>
+      <c r="C44" s="94" t="s">
+        <v>782</v>
+      </c>
+      <c r="D44" s="94" t="s">
+        <v>783</v>
+      </c>
+      <c r="E44" s="94" t="s">
+        <v>784</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B45" s="93" t="s">
+        <v>916</v>
+      </c>
+      <c r="C45" s="103">
         <v>42145</v>
       </c>
-      <c r="D44" s="71" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E44" s="71" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D45" s="71" t="s">
+        <v>1013</v>
+      </c>
       <c r="E45" s="71" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E46" s="71" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E47" s="71" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="E48" s="71" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E49" s="71" t="s">
-        <v>968</v>
+        <v>966</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E50" s="71" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -16819,6 +16849,7 @@
     <hyperlink ref="H38" location="普通技能逻辑!D161" display="添加switch配置项"/>
     <hyperlink ref="H39" location="策划验收!B43" display="添加新版AI验收情况"/>
     <hyperlink ref="H41" location="导表说明!G22" display="添加怪物AI释放大招配置"/>
+    <hyperlink ref="H42" location="普通技能逻辑!D6" display="添加偷懒动作文档说明"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16836,7 +16867,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="71" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -16850,7 +16881,7 @@
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="71"/>
       <c r="B2" s="71" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -16874,7 +16905,7 @@
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="71"/>
       <c r="B4" s="71" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -16898,7 +16929,7 @@
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="71"/>
       <c r="B6" s="71" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -16922,7 +16953,7 @@
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="71"/>
       <c r="B8" s="71" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
@@ -16935,7 +16966,7 @@
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="71"/>
       <c r="B9" s="71" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="71"/>
@@ -16959,7 +16990,7 @@
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="71"/>
       <c r="B11" s="71" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="71"/>
@@ -16972,7 +17003,7 @@
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="71"/>
       <c r="B12" s="71" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="71"/>
@@ -16996,7 +17027,7 @@
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C14" s="71"/>
       <c r="D14" s="71"/>
@@ -17020,7 +17051,7 @@
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="71"/>
@@ -17044,7 +17075,7 @@
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="71"/>
       <c r="B18" s="71" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -17068,7 +17099,7 @@
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="71"/>
       <c r="B20" s="71" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C20" s="71"/>
       <c r="D20" s="71"/>
@@ -17092,7 +17123,7 @@
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="71"/>
       <c r="B22" s="71" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C22" s="71"/>
       <c r="D22" s="71"/>
@@ -17116,7 +17147,7 @@
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="71"/>
       <c r="B24" s="71" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
@@ -17139,7 +17170,7 @@
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="71" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B26" s="71"/>
       <c r="C26" s="71"/>
@@ -17153,7 +17184,7 @@
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="71"/>
       <c r="B27" s="71" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
@@ -17166,7 +17197,7 @@
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="71"/>
       <c r="B28" s="71" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="71"/>
@@ -17190,7 +17221,7 @@
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="71"/>
       <c r="B30" s="71" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -17203,7 +17234,7 @@
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="71"/>
       <c r="B31" s="71" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C31" s="71"/>
       <c r="D31" s="71"/>
@@ -17227,7 +17258,7 @@
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="71"/>
       <c r="B33" s="71" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C33" s="71"/>
       <c r="D33" s="71"/>
@@ -17240,13 +17271,13 @@
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="71"/>
       <c r="B34" s="71" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C34" s="71"/>
       <c r="D34" s="71"/>
       <c r="E34" s="71"/>
       <c r="F34" s="71" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G34" s="71"/>
       <c r="H34" s="71"/>
@@ -17266,7 +17297,7 @@
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="71"/>
       <c r="B36" s="71" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C36" s="71"/>
       <c r="D36" s="71"/>
@@ -17279,7 +17310,7 @@
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="71"/>
       <c r="B37" s="71" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C37" s="71"/>
       <c r="D37" s="71"/>
@@ -17303,7 +17334,7 @@
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="71"/>
       <c r="B39" s="71" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C39" s="71"/>
       <c r="D39" s="71"/>
@@ -17316,7 +17347,7 @@
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="71"/>
       <c r="B40" s="71" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C40" s="71"/>
       <c r="D40" s="71"/>
@@ -17339,7 +17370,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="71" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
@@ -17353,7 +17384,7 @@
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="71"/>
       <c r="B43" s="71" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C43" s="71"/>
       <c r="D43" s="71"/>
@@ -17377,7 +17408,7 @@
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="71"/>
       <c r="B45" s="71" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
@@ -17401,7 +17432,7 @@
     <row r="47" spans="1:9" s="56" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="71"/>
       <c r="B47" s="71" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C47" s="71"/>
       <c r="D47" s="71"/>
@@ -17415,7 +17446,7 @@
       <c r="A48" s="71"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D48" s="71"/>
       <c r="E48" s="71"/>
@@ -17438,7 +17469,7 @@
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="71"/>
       <c r="B50" s="71" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C50" s="71"/>
       <c r="D50" s="71"/>
@@ -17462,7 +17493,7 @@
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="71"/>
       <c r="B52" s="71" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C52" s="71"/>
       <c r="D52" s="71"/>
@@ -17485,7 +17516,7 @@
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B54" s="71" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
   </sheetData>
@@ -17509,7 +17540,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -17534,7 +17565,7 @@
     <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -17582,7 +17613,7 @@
     <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -17606,7 +17637,7 @@
     <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -17630,7 +17661,7 @@
     <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -17654,7 +17685,7 @@
     <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -17677,12 +17708,12 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -17701,7 +17732,7 @@
     <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
@@ -17719,7 +17750,7 @@
     <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -17737,7 +17768,7 @@
     <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -17755,7 +17786,7 @@
     <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="40"/>
       <c r="B15" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -17773,7 +17804,7 @@
     <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -17791,7 +17822,7 @@
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
@@ -17808,7 +17839,7 @@
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -17829,16 +17860,16 @@
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -17853,10 +17884,10 @@
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -17867,7 +17898,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -17879,13 +17910,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -17911,8 +17942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -17934,7 +17965,7 @@
     </row>
     <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="134" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D2" s="135"/>
       <c r="E2" s="135"/>
@@ -17956,7 +17987,7 @@
     </row>
     <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>2</v>
@@ -17965,7 +17996,7 @@
     <row r="4" spans="1:36" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="72"/>
       <c r="C4" s="116" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D4" s="116"/>
       <c r="E4" s="116"/>
@@ -18004,7 +18035,7 @@
     <row r="5" spans="1:36" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="72"/>
       <c r="C5" s="116" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
@@ -18042,10 +18073,10 @@
       <c r="A6" s="72"/>
       <c r="C6" s="116"/>
       <c r="D6" s="116" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="116" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F6" s="116"/>
       <c r="G6" s="116"/>
@@ -18081,16 +18112,16 @@
       <c r="A7" s="72"/>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
-      <c r="E7" s="154" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
+      <c r="E7" s="138" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
       <c r="M7" s="116"/>
       <c r="N7" s="112"/>
       <c r="O7" s="112"/>
@@ -18118,16 +18149,16 @@
       <c r="A8" s="72"/>
       <c r="C8" s="116"/>
       <c r="D8" s="116"/>
-      <c r="E8" s="154" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
+      <c r="E8" s="138" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
       <c r="M8" s="116"/>
       <c r="N8" s="112"/>
       <c r="O8" s="112"/>
@@ -18157,7 +18188,7 @@
         <v>3</v>
       </c>
       <c r="AF9" s="43" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AG9" s="133"/>
     </row>
@@ -18180,7 +18211,7 @@
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67"/>
@@ -18203,19 +18234,19 @@
     <row r="15" spans="1:36" s="68" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="69"/>
       <c r="C15" s="74" t="s">
+        <v>545</v>
+      </c>
+      <c r="D15" s="71" t="s">
         <v>546</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C16" s="7"/>
       <c r="E16" s="61" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="61"/>
@@ -18244,7 +18275,7 @@
     <row r="17" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="7"/>
       <c r="E17" s="61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="61"/>
@@ -18275,7 +18306,7 @@
       <c r="C18" s="7"/>
       <c r="E18" s="61"/>
       <c r="F18" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
@@ -18304,7 +18335,7 @@
       <c r="C19" s="7"/>
       <c r="E19" s="61"/>
       <c r="F19" s="61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G19" s="61"/>
       <c r="H19" s="61"/>
@@ -18335,7 +18366,7 @@
       <c r="E20" s="61"/>
       <c r="F20" s="61"/>
       <c r="G20" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
@@ -18362,14 +18393,14 @@
     </row>
     <row r="21" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C21" s="7"/>
       <c r="E21" s="61"/>
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
       <c r="H21" s="61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -18396,7 +18427,7 @@
     <row r="22" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="7"/>
       <c r="E22" s="61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F22" s="61"/>
       <c r="G22" s="61"/>
@@ -18427,7 +18458,7 @@
       <c r="C23" s="7"/>
       <c r="E23" s="61"/>
       <c r="F23" s="61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
@@ -18455,12 +18486,12 @@
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C24" s="7"/>
       <c r="E24" s="61"/>
       <c r="F24" s="61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G24" s="61"/>
       <c r="H24" s="61"/>
@@ -18490,7 +18521,7 @@
       <c r="C25" s="7"/>
       <c r="E25" s="61"/>
       <c r="F25" s="61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
@@ -18520,7 +18551,7 @@
       <c r="C26" s="7"/>
       <c r="E26" s="61"/>
       <c r="F26" s="61" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
@@ -18550,7 +18581,7 @@
       <c r="C27" s="7"/>
       <c r="E27" s="61"/>
       <c r="F27" s="39" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -18581,7 +18612,7 @@
       <c r="C28" s="74"/>
       <c r="E28" s="74"/>
       <c r="F28" s="67" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G28" s="67"/>
       <c r="H28" s="74"/>
@@ -18610,7 +18641,7 @@
     <row r="29" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="7"/>
       <c r="E29" s="61" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F29" s="61"/>
       <c r="G29" s="61"/>
@@ -18641,7 +18672,7 @@
       <c r="C30" s="7"/>
       <c r="E30" s="61"/>
       <c r="F30" s="61" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G30" s="61"/>
       <c r="H30" s="61"/>
@@ -18669,13 +18700,13 @@
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C31" s="7"/>
       <c r="E31" s="61"/>
       <c r="F31" s="61"/>
       <c r="G31" s="61" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H31" s="61"/>
       <c r="I31" s="61"/>
@@ -18702,13 +18733,13 @@
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C32" s="7"/>
       <c r="E32" s="61"/>
       <c r="F32" s="61"/>
       <c r="G32" s="61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H32" s="61"/>
       <c r="I32" s="61"/>
@@ -18738,7 +18769,7 @@
       <c r="E33" s="61"/>
       <c r="F33" s="61"/>
       <c r="G33" s="61" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H33" s="61"/>
       <c r="I33" s="61"/>
@@ -18768,7 +18799,7 @@
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
       <c r="G34" s="61" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -18797,7 +18828,7 @@
       <c r="C35" s="7"/>
       <c r="E35" s="61"/>
       <c r="F35" s="39" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -18828,7 +18859,7 @@
       <c r="E36" s="61"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="39"/>
@@ -18858,7 +18889,7 @@
       <c r="E37" s="61"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="39"/>
@@ -18888,7 +18919,7 @@
       <c r="E38" s="61"/>
       <c r="F38" s="39"/>
       <c r="G38" s="39" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
@@ -18918,7 +18949,7 @@
       <c r="E39" s="61"/>
       <c r="F39" s="39"/>
       <c r="G39" s="39" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="39"/>
@@ -18946,7 +18977,7 @@
     <row r="40" spans="3:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="7"/>
       <c r="E40" s="61" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F40" s="61"/>
       <c r="G40" s="61"/>
@@ -18977,7 +19008,7 @@
       <c r="C41" s="7"/>
       <c r="E41" s="61"/>
       <c r="F41" s="61" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G41" s="61"/>
       <c r="H41" s="61"/>
@@ -19007,10 +19038,10 @@
       <c r="C42" s="7"/>
       <c r="E42" s="61"/>
       <c r="F42" s="82" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G42" s="82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H42" s="82"/>
       <c r="I42" s="61"/>
@@ -19742,31 +19773,31 @@
     </row>
     <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="72"/>
       <c r="D111" s="9"/>
       <c r="E111" s="71" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="72"/>
       <c r="D112" s="9"/>
       <c r="F112" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E113" s="71" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F114" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -19806,7 +19837,7 @@
     </row>
     <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F122" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -19826,13 +19857,13 @@
     </row>
     <row r="126" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F126" s="55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="72"/>
       <c r="E127" s="135" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F127" s="135"/>
       <c r="G127" s="135"/>
@@ -19841,7 +19872,7 @@
     <row r="128" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E128" s="135"/>
       <c r="F128" s="135" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G128" s="135"/>
       <c r="H128" s="135"/>
@@ -20106,19 +20137,19 @@
     <row r="153" spans="1:28" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="91"/>
       <c r="C153" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="154" spans="1:28" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="91"/>
       <c r="D154" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="155" spans="1:28" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="91"/>
       <c r="D155" s="11" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="156" spans="1:28" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -20185,7 +20216,7 @@
       <c r="C166" s="128"/>
       <c r="D166" s="129"/>
       <c r="E166" s="129" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F166" s="129"/>
       <c r="G166" s="129"/>
@@ -20207,7 +20238,7 @@
       <c r="D167" s="129"/>
       <c r="E167" s="129"/>
       <c r="F167" s="129" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G167" s="129"/>
       <c r="H167" s="129"/>
@@ -20241,7 +20272,7 @@
     </row>
     <row r="169" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D169" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="170" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -20257,7 +20288,7 @@
     <row r="172" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="173" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F173" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="174" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -20270,6 +20301,7 @@
       <c r="F176" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="H176" s="156"/>
     </row>
     <row r="177" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F177" s="3" t="s">
@@ -20300,178 +20332,178 @@
     <row r="180" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
-      <c r="E180" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
-      <c r="L180" s="7"/>
-      <c r="M180" s="7"/>
-      <c r="N180" s="7"/>
+      <c r="E180" s="157" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F180" s="157"/>
+      <c r="G180" s="157"/>
+      <c r="H180" s="157"/>
+      <c r="I180" s="157"/>
+      <c r="J180" s="157"/>
+      <c r="K180" s="157"/>
+      <c r="L180" s="157"/>
+      <c r="M180" s="157"/>
+      <c r="N180" s="157"/>
       <c r="O180" s="7"/>
       <c r="P180" s="7"/>
     </row>
     <row r="181" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="7"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
+      <c r="E181" s="157"/>
+      <c r="F181" s="157" t="s">
+        <v>73</v>
+      </c>
+      <c r="G181" s="157"/>
+      <c r="H181" s="157"/>
+      <c r="I181" s="157"/>
+      <c r="J181" s="157"/>
+      <c r="K181" s="157"/>
+      <c r="L181" s="157"/>
+      <c r="M181" s="157"/>
+      <c r="N181" s="157"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
     <row r="182" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
-      <c r="L182" s="7"/>
-      <c r="M182" s="7"/>
-      <c r="N182" s="7"/>
+      <c r="E182" s="157"/>
+      <c r="F182" s="157"/>
+      <c r="G182" s="157" t="s">
+        <v>74</v>
+      </c>
+      <c r="H182" s="157"/>
+      <c r="I182" s="157"/>
+      <c r="J182" s="157"/>
+      <c r="K182" s="157"/>
+      <c r="L182" s="157"/>
+      <c r="M182" s="157"/>
+      <c r="N182" s="157"/>
       <c r="O182" s="7"/>
       <c r="P182" s="7"/>
     </row>
     <row r="183" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="7"/>
-      <c r="L183" s="7"/>
-      <c r="M183" s="7"/>
-      <c r="N183" s="7"/>
+      <c r="E183" s="157"/>
+      <c r="F183" s="157"/>
+      <c r="G183" s="157" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" s="157"/>
+      <c r="I183" s="157"/>
+      <c r="J183" s="157"/>
+      <c r="K183" s="157"/>
+      <c r="L183" s="157"/>
+      <c r="M183" s="157"/>
+      <c r="N183" s="157"/>
       <c r="O183" s="7"/>
       <c r="P183" s="7"/>
     </row>
     <row r="184" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="7"/>
+      <c r="E184" s="157"/>
+      <c r="F184" s="157"/>
+      <c r="G184" s="157"/>
+      <c r="H184" s="157" t="s">
+        <v>76</v>
+      </c>
+      <c r="I184" s="157"/>
+      <c r="J184" s="157"/>
+      <c r="K184" s="157"/>
+      <c r="L184" s="157"/>
+      <c r="M184" s="157"/>
+      <c r="N184" s="157"/>
       <c r="O184" s="7"/>
       <c r="P184" s="7"/>
     </row>
     <row r="185" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
+      <c r="E185" s="157"/>
+      <c r="F185" s="157"/>
+      <c r="G185" s="157"/>
+      <c r="H185" s="157" t="s">
+        <v>77</v>
+      </c>
+      <c r="I185" s="157"/>
+      <c r="J185" s="157"/>
+      <c r="K185" s="157"/>
+      <c r="L185" s="157"/>
+      <c r="M185" s="157"/>
+      <c r="N185" s="157"/>
       <c r="O185" s="7"/>
       <c r="P185" s="7"/>
     </row>
     <row r="186" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
+      <c r="E186" s="157"/>
+      <c r="F186" s="157"/>
+      <c r="G186" s="157"/>
+      <c r="H186" s="157"/>
+      <c r="I186" s="157"/>
+      <c r="J186" s="157"/>
+      <c r="K186" s="157"/>
+      <c r="L186" s="157"/>
+      <c r="M186" s="157"/>
+      <c r="N186" s="157"/>
       <c r="O186" s="7"/>
       <c r="P186" s="7"/>
     </row>
     <row r="187" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
-      <c r="E187" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
+      <c r="E187" s="157" t="s">
+        <v>78</v>
+      </c>
+      <c r="F187" s="157"/>
+      <c r="G187" s="157"/>
+      <c r="H187" s="157"/>
+      <c r="I187" s="157"/>
+      <c r="J187" s="157"/>
+      <c r="K187" s="157"/>
+      <c r="L187" s="157"/>
+      <c r="M187" s="157"/>
+      <c r="N187" s="157"/>
       <c r="O187" s="7"/>
       <c r="P187" s="7"/>
     </row>
     <row r="188" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7"/>
-      <c r="I188" s="7"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
+      <c r="E188" s="157"/>
+      <c r="F188" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="G188" s="157"/>
+      <c r="H188" s="157"/>
+      <c r="I188" s="157"/>
+      <c r="J188" s="157"/>
+      <c r="K188" s="157"/>
+      <c r="L188" s="157"/>
+      <c r="M188" s="157"/>
+      <c r="N188" s="157"/>
       <c r="O188" s="7"/>
       <c r="P188" s="7"/>
     </row>
     <row r="189" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G189" s="7"/>
-      <c r="H189" s="7"/>
-      <c r="I189" s="7"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
+      <c r="E189" s="157"/>
+      <c r="F189" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="G189" s="157"/>
+      <c r="H189" s="157"/>
+      <c r="I189" s="157"/>
+      <c r="J189" s="157"/>
+      <c r="K189" s="157"/>
+      <c r="L189" s="157"/>
+      <c r="M189" s="157"/>
+      <c r="N189" s="157"/>
       <c r="O189" s="7"/>
       <c r="P189" s="7"/>
     </row>
@@ -20494,7 +20526,7 @@
     <row r="191" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C191" s="7"/>
       <c r="D191" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -20511,18 +20543,18 @@
     </row>
     <row r="192" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E192" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F193" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="194" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="195" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F195" s="76" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G195" s="76"/>
       <c r="H195" s="76"/>
@@ -20536,7 +20568,7 @@
     <row r="196" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F196" s="76"/>
       <c r="G196" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H196" s="76"/>
       <c r="I196" s="76"/>
@@ -20559,7 +20591,7 @@
     </row>
     <row r="198" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F198" s="76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G198" s="76"/>
       <c r="H198" s="76"/>
@@ -20573,7 +20605,7 @@
     <row r="199" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F199" s="76"/>
       <c r="G199" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H199" s="76"/>
       <c r="I199" s="76"/>
@@ -20586,42 +20618,42 @@
     <row r="200" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="201" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F201" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="202" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G202" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="203" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F203" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="204" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G204" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H205" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G206" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H207" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="208" spans="6:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G208" s="76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H208" s="76"/>
       <c r="I208" s="76"/>
@@ -20630,14 +20662,14 @@
     <row r="209" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G209" s="76"/>
       <c r="H209" s="76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I209" s="76"/>
       <c r="J209" s="76"/>
     </row>
     <row r="210" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G210" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H210" s="76"/>
       <c r="I210" s="76"/>
@@ -20646,14 +20678,14 @@
     <row r="211" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G211" s="76"/>
       <c r="H211" s="76" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I211" s="76"/>
       <c r="J211" s="76"/>
     </row>
     <row r="212" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G212" s="76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H212" s="76"/>
       <c r="I212" s="76"/>
@@ -20662,14 +20694,14 @@
     <row r="213" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G213" s="76"/>
       <c r="H213" s="76" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I213" s="76"/>
       <c r="J213" s="76"/>
     </row>
     <row r="214" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G214" s="76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H214" s="76"/>
       <c r="I214" s="76"/>
@@ -20678,14 +20710,14 @@
     <row r="215" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G215" s="76"/>
       <c r="H215" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I215" s="76"/>
       <c r="J215" s="76"/>
     </row>
     <row r="216" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G216" s="76" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H216" s="76"/>
       <c r="I216" s="76"/>
@@ -20694,14 +20726,14 @@
     <row r="217" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G217" s="76"/>
       <c r="H217" s="76" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I217" s="76"/>
       <c r="J217" s="76"/>
     </row>
     <row r="218" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G218" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H218" s="12"/>
       <c r="I218" s="13"/>
@@ -20710,14 +20742,14 @@
     <row r="219" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G219" s="12"/>
       <c r="H219" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
     </row>
     <row r="220" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G220" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H220" s="12"/>
       <c r="I220" s="13"/>
@@ -20726,14 +20758,14 @@
     <row r="221" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G221" s="12"/>
       <c r="H221" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
     </row>
     <row r="222" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G222" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H222" s="12"/>
       <c r="I222" s="13"/>
@@ -20742,7 +20774,7 @@
     <row r="223" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G223" s="12"/>
       <c r="H223" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -20750,15 +20782,15 @@
     <row r="224" spans="7:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="225" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F225" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G225" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="226" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H226" s="58" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I226" s="56"/>
       <c r="J226" s="56"/>
@@ -20775,22 +20807,22 @@
     </row>
     <row r="228" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H228" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F229" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="230" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G230" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="231" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F231" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G231" s="11"/>
       <c r="H231" s="11"/>
@@ -20815,7 +20847,7 @@
     <row r="232" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F232" s="11"/>
       <c r="G232" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H232" s="11"/>
       <c r="I232" s="11"/>
@@ -20861,7 +20893,7 @@
     <row r="234" spans="6:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F234" s="11"/>
       <c r="G234" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H234" s="11"/>
       <c r="I234" s="11"/>
@@ -20886,7 +20918,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
       <c r="H235" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I235" s="15"/>
       <c r="J235" s="11"/>
@@ -20910,7 +20942,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
       <c r="H236" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="11"/>
@@ -20934,7 +20966,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
       <c r="H237" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="11"/>
@@ -20958,7 +20990,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
       <c r="H238" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I238" s="15"/>
       <c r="J238" s="11"/>
@@ -20983,7 +21015,7 @@
       <c r="G239" s="11"/>
       <c r="H239" s="14"/>
       <c r="I239" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J239" s="11"/>
       <c r="K239" s="11"/>
@@ -21029,7 +21061,7 @@
       <c r="G241" s="11"/>
       <c r="H241" s="11"/>
       <c r="I241" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J241" s="11"/>
       <c r="K241" s="11"/>
@@ -21053,7 +21085,7 @@
       <c r="G242" s="11"/>
       <c r="H242" s="11"/>
       <c r="I242" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J242" s="11"/>
       <c r="K242" s="11"/>
@@ -21099,7 +21131,7 @@
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
       <c r="I244" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J244" s="11"/>
       <c r="K244" s="11"/>
@@ -21123,7 +21155,7 @@
       <c r="G245" s="11"/>
       <c r="H245" s="11"/>
       <c r="I245" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J245" s="11"/>
       <c r="K245" s="11"/>
@@ -21169,7 +21201,7 @@
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
       <c r="I247" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J247" s="11"/>
       <c r="K247" s="11"/>
@@ -21193,7 +21225,7 @@
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
       <c r="I248" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J248" s="11"/>
       <c r="K248" s="11"/>
@@ -21239,7 +21271,7 @@
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
       <c r="I250" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J250" s="11"/>
       <c r="K250" s="11"/>
@@ -21263,7 +21295,7 @@
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
       <c r="I251" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J251" s="11"/>
       <c r="K251" s="11"/>
@@ -21308,7 +21340,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
       <c r="H253" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="11"/>
@@ -21332,7 +21364,7 @@
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
       <c r="H254" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I254" s="15"/>
       <c r="J254" s="11"/>
@@ -21357,7 +21389,7 @@
       <c r="G255" s="11"/>
       <c r="H255" s="15"/>
       <c r="I255" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J255" s="11"/>
       <c r="K255" s="11"/>
@@ -21381,7 +21413,7 @@
       <c r="G256" s="11"/>
       <c r="H256" s="14"/>
       <c r="I256" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
@@ -21405,7 +21437,7 @@
       <c r="G257" s="11"/>
       <c r="H257" s="15"/>
       <c r="I257" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J257" s="11"/>
       <c r="K257" s="11"/>
@@ -21429,7 +21461,7 @@
       <c r="G258" s="11"/>
       <c r="H258" s="15"/>
       <c r="I258" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J258" s="11"/>
       <c r="K258" s="11"/>
@@ -21453,7 +21485,7 @@
       <c r="G259" s="11"/>
       <c r="H259" s="15"/>
       <c r="I259" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J259" s="11"/>
       <c r="K259" s="11"/>
@@ -21477,7 +21509,7 @@
       <c r="G260" s="11"/>
       <c r="H260" s="15"/>
       <c r="I260" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J260" s="11"/>
       <c r="K260" s="11"/>
@@ -21499,41 +21531,41 @@
     <row r="261" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="262" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D262" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="263" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E263" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="264" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E264" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="265" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E265" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="266" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="267" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F267" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G267" s="7"/>
     </row>
     <row r="268" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F268" s="18"/>
       <c r="G268" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="269" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F269" s="7"/>
       <c r="G269" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="270" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -21542,20 +21574,20 @@
     </row>
     <row r="271" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F271" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G271" s="7"/>
     </row>
     <row r="272" spans="4:25" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F272" s="7"/>
       <c r="G272" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="274" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F274" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G274" s="39"/>
       <c r="H274" s="39"/>
@@ -21565,7 +21597,7 @@
     <row r="275" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F275" s="39"/>
       <c r="G275" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="39"/>
@@ -21575,7 +21607,7 @@
     <row r="277" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="66"/>
       <c r="F277" s="82" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G277" s="82"/>
       <c r="H277" s="82"/>
@@ -21586,7 +21618,7 @@
       <c r="A278" s="66"/>
       <c r="F278" s="82"/>
       <c r="G278" s="82" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H278" s="82"/>
       <c r="I278" s="82"/>
@@ -21598,7 +21630,7 @@
     <row r="280" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="66"/>
       <c r="F280" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="281" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -21607,19 +21639,19 @@
     <row r="282" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="66"/>
       <c r="E282" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="283" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="66"/>
       <c r="F283" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="284" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="66"/>
       <c r="F284" s="61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="285" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -21628,81 +21660,81 @@
     <row r="286" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="66"/>
       <c r="E286" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="287" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="66"/>
       <c r="F287" s="61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="288" spans="1:10" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="66"/>
       <c r="G288" s="61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="289" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="66"/>
       <c r="H289" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="290" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="66"/>
       <c r="G290" s="61" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="291" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="66"/>
       <c r="H291" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="I291" s="61" t="s">
         <v>149</v>
-      </c>
-      <c r="I291" s="61" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="292" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="66"/>
       <c r="H292" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="I292" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="I292" s="61" t="s">
+      <c r="J292" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="J292" s="61" t="s">
+      <c r="K292" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="K292" s="61" t="s">
+      <c r="L292" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="L292" s="61" t="s">
+      <c r="M292" s="61" t="s">
         <v>155</v>
-      </c>
-      <c r="M292" s="61" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="293" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H293" s="61" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="294" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="66"/>
       <c r="G294" s="61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="295" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="66"/>
       <c r="G295" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="296" spans="1:13" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -21710,49 +21742,49 @@
     </row>
     <row r="297" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D297" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E298" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F299" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G300" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F301" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G302" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J302" s="7"/>
       <c r="K302" s="7"/>
     </row>
     <row r="303" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F303" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G304" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="305" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C305" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -21768,7 +21800,7 @@
     </row>
     <row r="307" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C307" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -21778,7 +21810,7 @@
     <row r="308" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C308" s="7"/>
       <c r="D308" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E308" s="7"/>
       <c r="F308" s="7"/>
@@ -21787,7 +21819,7 @@
     <row r="309" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C309" s="7"/>
       <c r="D309" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
@@ -21797,14 +21829,14 @@
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F310" s="7"/>
       <c r="G310" s="7"/>
     </row>
     <row r="311" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C311" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -21814,7 +21846,7 @@
     <row r="312" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C312" s="7"/>
       <c r="D312" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
@@ -21823,7 +21855,7 @@
     <row r="313" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C313" s="7"/>
       <c r="D313" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
@@ -21833,7 +21865,7 @@
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F314" s="7"/>
       <c r="G314" s="7"/>
@@ -21847,7 +21879,7 @@
     </row>
     <row r="316" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C316" s="90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D316" s="90"/>
       <c r="E316" s="90"/>
@@ -21857,7 +21889,7 @@
     <row r="317" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C317" s="90"/>
       <c r="D317" s="90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E317" s="90"/>
       <c r="F317" s="90"/>
@@ -21866,7 +21898,7 @@
     <row r="318" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C318" s="90"/>
       <c r="D318" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E318" s="90"/>
       <c r="F318" s="90"/>
@@ -21875,7 +21907,7 @@
     <row r="319" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C319" s="90"/>
       <c r="D319" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E319" s="90"/>
       <c r="F319" s="90"/>
@@ -21890,7 +21922,7 @@
     </row>
     <row r="321" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C321" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D321" s="17"/>
       <c r="E321" s="17"/>
@@ -21900,7 +21932,7 @@
     <row r="322" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C322" s="17"/>
       <c r="D322" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E322" s="17"/>
       <c r="F322" s="17"/>
@@ -21909,7 +21941,7 @@
     <row r="323" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C323" s="17"/>
       <c r="D323" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E323" s="17"/>
       <c r="F323" s="17"/>
@@ -21918,7 +21950,7 @@
     <row r="324" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C324" s="17"/>
       <c r="D324" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E324" s="17"/>
       <c r="F324" s="17"/>
@@ -21926,7 +21958,7 @@
     <row r="325" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="326" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C326" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D326" s="21"/>
       <c r="G326" s="17"/>
@@ -21936,7 +21968,7 @@
     </row>
     <row r="328" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C328" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D328" s="21"/>
       <c r="G328" s="17"/>
@@ -21954,19 +21986,19 @@
     <row r="331" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="5"/>
       <c r="B331" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G331" s="17"/>
     </row>
     <row r="332" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C332" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G332" s="17"/>
     </row>
     <row r="333" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D333" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
@@ -21976,7 +22008,7 @@
     <row r="334" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D334" s="7"/>
       <c r="E334" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F334" s="7"/>
       <c r="G334" s="17"/>
@@ -21985,7 +22017,7 @@
     <row r="335" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C335" s="7"/>
       <c r="D335" s="78" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E335" s="78"/>
       <c r="F335" s="77"/>
@@ -22005,7 +22037,7 @@
       <c r="C336" s="7"/>
       <c r="D336" s="78"/>
       <c r="E336" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F336" s="77"/>
       <c r="G336" s="7"/>
@@ -22023,7 +22055,7 @@
     <row r="337" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C337" s="7"/>
       <c r="D337" s="78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E337" s="78"/>
       <c r="F337" s="77"/>
@@ -22043,7 +22075,7 @@
       <c r="C338" s="7"/>
       <c r="D338" s="78"/>
       <c r="E338" s="78" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F338" s="77"/>
       <c r="G338" s="7"/>
@@ -22061,7 +22093,7 @@
     <row r="339" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C339" s="7"/>
       <c r="D339" s="75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E339" s="22"/>
       <c r="F339" s="7"/>
@@ -22081,7 +22113,7 @@
       <c r="C340" s="7"/>
       <c r="D340" s="22"/>
       <c r="E340" s="22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
@@ -22100,7 +22132,7 @@
       <c r="A341" s="72"/>
       <c r="C341" s="74"/>
       <c r="D341" s="81" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E341" s="81"/>
       <c r="F341" s="82"/>
@@ -22121,7 +22153,7 @@
       <c r="C342" s="74"/>
       <c r="D342" s="81"/>
       <c r="E342" s="81" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F342" s="82"/>
       <c r="G342" s="74"/>
@@ -22140,7 +22172,7 @@
       <c r="A343" s="72"/>
       <c r="C343" s="74"/>
       <c r="D343" s="81" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E343" s="81"/>
       <c r="F343" s="82"/>
@@ -22161,7 +22193,7 @@
       <c r="C344" s="74"/>
       <c r="D344" s="81"/>
       <c r="E344" s="81" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F344" s="82"/>
       <c r="G344" s="74"/>
@@ -22179,7 +22211,7 @@
     <row r="345" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C345" s="7"/>
       <c r="D345" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E345" s="22"/>
       <c r="F345" s="7"/>
@@ -22199,7 +22231,7 @@
       <c r="C346" s="7"/>
       <c r="D346" s="22"/>
       <c r="E346" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
@@ -22217,7 +22249,7 @@
     <row r="347" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C347" s="7"/>
       <c r="D347" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E347" s="22"/>
       <c r="F347" s="7"/>
@@ -22237,7 +22269,7 @@
       <c r="C348" s="7"/>
       <c r="D348" s="22"/>
       <c r="E348" s="22" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
@@ -22255,7 +22287,7 @@
     <row r="349" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C349" s="7"/>
       <c r="D349" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E349" s="22"/>
       <c r="F349" s="22"/>
@@ -22275,7 +22307,7 @@
       <c r="C350" s="7"/>
       <c r="D350" s="22"/>
       <c r="E350" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F350" s="22"/>
       <c r="G350" s="7"/>
@@ -22293,11 +22325,11 @@
     <row r="351" spans="1:17" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="72"/>
       <c r="C351" s="74"/>
-      <c r="D351" s="153" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E351" s="153"/>
-      <c r="F351" s="153"/>
+      <c r="D351" s="137" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E351" s="137"/>
+      <c r="F351" s="137"/>
       <c r="G351" s="74"/>
       <c r="H351" s="74"/>
       <c r="I351" s="74"/>
@@ -22313,11 +22345,11 @@
     <row r="352" spans="1:17" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="72"/>
       <c r="C352" s="74"/>
-      <c r="D352" s="153"/>
-      <c r="E352" s="153" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F352" s="153"/>
+      <c r="D352" s="137"/>
+      <c r="E352" s="137" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F352" s="137"/>
       <c r="G352" s="74"/>
       <c r="H352" s="74"/>
       <c r="I352" s="74"/>
@@ -22333,7 +22365,7 @@
     <row r="353" spans="1:20" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="72"/>
       <c r="C353" s="82" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D353" s="81"/>
       <c r="E353" s="81"/>
@@ -22357,7 +22389,7 @@
       <c r="A354" s="72"/>
       <c r="C354" s="82"/>
       <c r="D354" s="81" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E354" s="81"/>
       <c r="F354" s="81"/>
@@ -22380,7 +22412,7 @@
       <c r="A355" s="72"/>
       <c r="C355" s="82"/>
       <c r="D355" s="81" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E355" s="81"/>
       <c r="F355" s="81"/>
@@ -22404,10 +22436,10 @@
       <c r="C356" s="82"/>
       <c r="D356" s="81"/>
       <c r="E356" s="81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F356" s="82" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G356" s="82"/>
       <c r="H356" s="82"/>
@@ -22430,10 +22462,10 @@
       <c r="D357" s="81"/>
       <c r="E357" s="82"/>
       <c r="F357" s="81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G357" s="82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H357" s="82"/>
       <c r="I357" s="82"/>
@@ -22455,10 +22487,10 @@
       <c r="D358" s="81"/>
       <c r="E358" s="81"/>
       <c r="F358" s="81" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G358" s="82" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H358" s="82"/>
       <c r="I358" s="82"/>
@@ -22479,10 +22511,10 @@
       <c r="C359" s="82"/>
       <c r="D359" s="81"/>
       <c r="E359" s="81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F359" s="81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G359" s="82"/>
       <c r="H359" s="82"/>
@@ -22505,7 +22537,7 @@
       <c r="D360" s="81"/>
       <c r="E360" s="81"/>
       <c r="F360" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G360" s="82"/>
       <c r="H360" s="82"/>
@@ -22528,7 +22560,7 @@
       <c r="D361" s="81"/>
       <c r="E361" s="81"/>
       <c r="F361" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G361" s="82"/>
       <c r="H361" s="82"/>
@@ -22550,7 +22582,7 @@
       <c r="C362" s="82"/>
       <c r="D362" s="81"/>
       <c r="E362" s="81" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F362" s="81"/>
       <c r="G362" s="82"/>
@@ -22574,10 +22606,10 @@
       <c r="D363" s="81"/>
       <c r="E363" s="82"/>
       <c r="F363" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G363" s="81" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H363" s="82"/>
       <c r="I363" s="82"/>
@@ -22599,10 +22631,10 @@
       <c r="D364" s="81"/>
       <c r="E364" s="82"/>
       <c r="F364" s="81" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G364" s="81" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H364" s="82"/>
       <c r="I364" s="82"/>
@@ -22624,10 +22656,10 @@
       <c r="D365" s="81"/>
       <c r="E365" s="82"/>
       <c r="F365" s="81" t="s">
+        <v>609</v>
+      </c>
+      <c r="G365" s="81" t="s">
         <v>610</v>
-      </c>
-      <c r="G365" s="81" t="s">
-        <v>611</v>
       </c>
       <c r="H365" s="82"/>
       <c r="I365" s="82"/>
@@ -22646,19 +22678,19 @@
     <row r="366" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="66"/>
       <c r="C366" s="61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="66"/>
       <c r="D367" s="61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="368" spans="1:20" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="66"/>
       <c r="D368" s="61" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="369" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22666,7 +22698,7 @@
       <c r="C369" s="67"/>
       <c r="D369" s="67"/>
       <c r="E369" s="80" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F369" s="67"/>
       <c r="G369" s="67"/>
@@ -22685,7 +22717,7 @@
       <c r="D370" s="67"/>
       <c r="E370" s="80"/>
       <c r="F370" s="67" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G370" s="67"/>
       <c r="H370" s="67"/>
@@ -22702,7 +22734,7 @@
       <c r="C371" s="67"/>
       <c r="D371" s="67"/>
       <c r="E371" s="67" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F371" s="67"/>
       <c r="G371" s="67"/>
@@ -22721,7 +22753,7 @@
       <c r="D372" s="67"/>
       <c r="E372" s="67"/>
       <c r="F372" s="82" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G372" s="82"/>
       <c r="H372" s="82"/>
@@ -22738,91 +22770,91 @@
       <c r="A373" s="26"/>
       <c r="B373" s="7"/>
       <c r="E373" s="39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="374" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="26"/>
       <c r="B374" s="7"/>
       <c r="C374" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="375" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="26"/>
       <c r="B375" s="7"/>
       <c r="D375" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="376" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="26"/>
       <c r="B376" s="7"/>
       <c r="D376" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="377" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="26"/>
       <c r="B377" s="7"/>
       <c r="E377" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="378" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="26"/>
       <c r="B378" s="7"/>
       <c r="E378" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="379" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="26"/>
       <c r="B379" s="7"/>
       <c r="F379" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="380" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="26"/>
       <c r="B380" s="7"/>
       <c r="E380" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="381" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="26"/>
       <c r="B381" s="7"/>
       <c r="F381" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="382" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="26"/>
       <c r="B382" s="7"/>
       <c r="D382" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="383" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="26"/>
       <c r="B383" s="7"/>
       <c r="E383" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="384" spans="1:16" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="26"/>
       <c r="B384" s="7"/>
       <c r="E384" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="385" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="26"/>
       <c r="B385" s="7"/>
       <c r="E385" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="386" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22833,7 +22865,7 @@
       <c r="A387" s="26"/>
       <c r="B387" s="7"/>
       <c r="C387" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="388" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22844,7 +22876,7 @@
       <c r="A389" s="26"/>
       <c r="B389" s="7"/>
       <c r="D389" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="390" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22855,42 +22887,42 @@
       <c r="A391" s="26"/>
       <c r="B391" s="7"/>
       <c r="E391" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="392" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="26"/>
       <c r="B392" s="7"/>
       <c r="F392" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="393" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="26"/>
       <c r="B393" s="7"/>
       <c r="F393" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="394" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="26"/>
       <c r="B394" s="7"/>
       <c r="G394" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="395" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="26"/>
       <c r="B395" s="7"/>
       <c r="F395" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="396" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="26"/>
       <c r="B396" s="7"/>
       <c r="G396" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="397" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22901,56 +22933,56 @@
       <c r="A398" s="26"/>
       <c r="B398" s="7"/>
       <c r="E398" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="399" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="26"/>
       <c r="B399" s="7"/>
       <c r="F399" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="400" spans="1:7" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="26"/>
       <c r="B400" s="7"/>
       <c r="F400" s="39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="401" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="26"/>
       <c r="B401" s="7"/>
       <c r="G401" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="402" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="26"/>
       <c r="B402" s="7"/>
       <c r="G402" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="403" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="26"/>
       <c r="B403" s="7"/>
       <c r="G403" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="404" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="26"/>
       <c r="B404" s="7"/>
       <c r="F404" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="405" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="26"/>
       <c r="B405" s="7"/>
       <c r="G405" s="39" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="406" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -22961,35 +22993,35 @@
       <c r="A407" s="26"/>
       <c r="B407" s="7"/>
       <c r="E407" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="408" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="26"/>
       <c r="B408" s="7"/>
       <c r="F408" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="409" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="26"/>
       <c r="B409" s="7"/>
       <c r="G409" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="410" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="26"/>
       <c r="B410" s="7"/>
       <c r="F410" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="411" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="26"/>
       <c r="B411" s="7"/>
       <c r="G411" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="412" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -23000,27 +23032,27 @@
       <c r="A413" s="26"/>
       <c r="B413" s="7"/>
       <c r="E413" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="414" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="26"/>
       <c r="B414" s="7"/>
       <c r="F414" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="415" spans="1:15" s="39" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="26"/>
       <c r="B415" s="7"/>
       <c r="F415" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="416" spans="1:15" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="66"/>
       <c r="C416" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D416" s="62"/>
       <c r="E416" s="62"/>
@@ -23039,7 +23071,7 @@
       <c r="A417" s="66"/>
       <c r="C417" s="62"/>
       <c r="D417" s="62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E417" s="62"/>
       <c r="F417" s="62"/>
@@ -23059,7 +23091,7 @@
       <c r="C418" s="62"/>
       <c r="D418" s="62"/>
       <c r="E418" s="63" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F418" s="62"/>
       <c r="G418" s="62"/>
@@ -23079,7 +23111,7 @@
       <c r="D419" s="62"/>
       <c r="E419" s="62"/>
       <c r="F419" s="62" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G419" s="62"/>
       <c r="H419" s="62"/>
@@ -23097,7 +23129,7 @@
       <c r="C420" s="62"/>
       <c r="D420" s="62"/>
       <c r="E420" s="63" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F420" s="62"/>
       <c r="G420" s="62"/>
@@ -23117,7 +23149,7 @@
       <c r="D421" s="62"/>
       <c r="E421" s="62"/>
       <c r="F421" s="62" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G421" s="62"/>
       <c r="H421" s="62"/>
@@ -23135,7 +23167,7 @@
       <c r="C422" s="62"/>
       <c r="D422" s="62"/>
       <c r="E422" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F422" s="62"/>
       <c r="G422" s="62"/>
@@ -23155,7 +23187,7 @@
       <c r="D423" s="62"/>
       <c r="E423" s="62"/>
       <c r="F423" s="62" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G423" s="62"/>
       <c r="H423" s="62"/>
@@ -23172,7 +23204,7 @@
       <c r="C424" s="43"/>
       <c r="D424" s="43"/>
       <c r="E424" s="44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F424" s="43"/>
       <c r="G424" s="43"/>
@@ -23191,7 +23223,7 @@
       <c r="D425" s="43"/>
       <c r="E425" s="43"/>
       <c r="F425" s="43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G425" s="43"/>
       <c r="H425" s="43"/>
@@ -23207,7 +23239,7 @@
       <c r="C426" s="43"/>
       <c r="D426" s="43"/>
       <c r="E426" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F426" s="43"/>
       <c r="G426" s="43"/>
@@ -23225,7 +23257,7 @@
       <c r="D427" s="43"/>
       <c r="E427" s="43"/>
       <c r="F427" s="43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G427" s="43"/>
       <c r="H427" s="43"/>
@@ -23241,7 +23273,7 @@
       <c r="C428" s="47"/>
       <c r="D428" s="43"/>
       <c r="E428" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F428" s="43"/>
       <c r="G428" s="43"/>
@@ -23259,7 +23291,7 @@
       <c r="D429" s="43"/>
       <c r="E429" s="43"/>
       <c r="F429" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G429" s="43"/>
       <c r="H429" s="43"/>
@@ -23275,7 +23307,7 @@
       <c r="C430" s="43"/>
       <c r="D430" s="43"/>
       <c r="E430" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F430" s="43"/>
       <c r="G430" s="43"/>
@@ -23293,7 +23325,7 @@
       <c r="D431" s="43"/>
       <c r="E431" s="43"/>
       <c r="F431" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G431" s="43"/>
       <c r="H431" s="43"/>
@@ -23310,7 +23342,7 @@
       <c r="C432" s="62"/>
       <c r="D432" s="62"/>
       <c r="E432" s="62" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F432" s="62"/>
       <c r="G432" s="62"/>
@@ -23329,7 +23361,7 @@
       <c r="D433" s="62"/>
       <c r="E433" s="62"/>
       <c r="F433" s="62" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G433" s="62"/>
       <c r="H433" s="62"/>
@@ -23344,7 +23376,7 @@
     <row r="434" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="66"/>
       <c r="C434" s="53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D434" s="53"/>
       <c r="E434" s="53"/>
@@ -23362,11 +23394,11 @@
     </row>
     <row r="435" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="66" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C435" s="53"/>
       <c r="D435" s="53" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E435" s="53"/>
       <c r="F435" s="53"/>
@@ -23385,7 +23417,7 @@
       <c r="A436" s="66"/>
       <c r="C436" s="53"/>
       <c r="D436" s="85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E436" s="85"/>
       <c r="F436" s="85"/>
@@ -23420,7 +23452,7 @@
     <row r="438" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="66"/>
       <c r="C438" s="53" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D438" s="53"/>
       <c r="E438" s="53"/>
@@ -23440,7 +23472,7 @@
       <c r="A439" s="66"/>
       <c r="C439" s="53"/>
       <c r="D439" s="53" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E439" s="53"/>
       <c r="F439" s="53"/>
@@ -23457,18 +23489,18 @@
     </row>
     <row r="440" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="66" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C440" s="53"/>
       <c r="D440" s="86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E440" s="86"/>
       <c r="F440" s="86"/>
       <c r="G440" s="86"/>
       <c r="H440" s="39"/>
       <c r="I440" s="86" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J440" s="53"/>
       <c r="K440" s="53"/>
@@ -23483,13 +23515,13 @@
       <c r="C441" s="53"/>
       <c r="D441" s="86"/>
       <c r="E441" s="86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F441" s="86"/>
       <c r="G441" s="86"/>
       <c r="H441" s="39"/>
       <c r="I441" s="86" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J441" s="53"/>
       <c r="K441" s="53"/>
@@ -23505,7 +23537,7 @@
       <c r="D442" s="86"/>
       <c r="E442" s="86"/>
       <c r="F442" s="86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G442" s="86"/>
       <c r="H442" s="39"/>
@@ -23520,14 +23552,14 @@
     </row>
     <row r="443" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="66" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C443" s="53"/>
       <c r="D443" s="86"/>
       <c r="E443" s="86"/>
       <c r="F443" s="86"/>
       <c r="G443" s="86" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H443" s="39"/>
       <c r="I443" s="86"/>
@@ -23545,7 +23577,7 @@
       <c r="D444" s="86"/>
       <c r="E444" s="86"/>
       <c r="F444" s="86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G444" s="86"/>
       <c r="H444" s="39"/>
@@ -23565,7 +23597,7 @@
       <c r="E445" s="86"/>
       <c r="F445" s="86"/>
       <c r="G445" s="86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H445" s="39"/>
       <c r="I445" s="86"/>
@@ -23586,7 +23618,7 @@
       <c r="G446" s="39"/>
       <c r="H446" s="39"/>
       <c r="I446" s="86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J446" s="53"/>
       <c r="K446" s="53"/>
@@ -23600,7 +23632,7 @@
       <c r="A447" s="66"/>
       <c r="C447" s="53"/>
       <c r="D447" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E447" s="84"/>
       <c r="F447" s="84"/>
@@ -23620,7 +23652,7 @@
       <c r="C448" s="53"/>
       <c r="D448" s="89"/>
       <c r="E448" s="84" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F448" s="84"/>
       <c r="G448" s="84"/>
@@ -23639,7 +23671,7 @@
       <c r="C449" s="53"/>
       <c r="D449" s="89"/>
       <c r="E449" s="84" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F449" s="84"/>
       <c r="G449" s="84"/>
@@ -23656,7 +23688,7 @@
     <row r="450" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="66"/>
       <c r="C450" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D450" s="53"/>
       <c r="E450" s="53"/>
@@ -23676,7 +23708,7 @@
       <c r="A451" s="66"/>
       <c r="C451" s="53"/>
       <c r="D451" s="53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E451" s="53"/>
       <c r="F451" s="53"/>
@@ -23695,7 +23727,7 @@
       <c r="A452" s="66"/>
       <c r="C452" s="53"/>
       <c r="D452" s="53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E452" s="53"/>
       <c r="F452" s="53"/>
@@ -23715,7 +23747,7 @@
       <c r="C453" s="53"/>
       <c r="D453" s="53"/>
       <c r="E453" s="53" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F453" s="53"/>
       <c r="G453" s="53"/>
@@ -23735,7 +23767,7 @@
       <c r="D454" s="53"/>
       <c r="E454" s="67"/>
       <c r="F454" s="84" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G454" s="89"/>
       <c r="H454" s="53"/>
@@ -23755,7 +23787,7 @@
       <c r="E455" s="67"/>
       <c r="F455" s="53"/>
       <c r="G455" s="53" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H455" s="53"/>
       <c r="I455" s="53"/>
@@ -23769,13 +23801,13 @@
     </row>
     <row r="456" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="66" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C456" s="53"/>
       <c r="D456" s="53"/>
       <c r="E456" s="67"/>
       <c r="F456" s="53" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G456" s="53"/>
       <c r="H456" s="53"/>
@@ -23790,14 +23822,14 @@
     </row>
     <row r="457" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C457" s="53"/>
       <c r="D457" s="53"/>
       <c r="E457" s="67"/>
       <c r="F457" s="53"/>
       <c r="G457" s="53" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H457" s="53"/>
       <c r="I457" s="53"/>
@@ -23814,7 +23846,7 @@
       <c r="C458" s="53"/>
       <c r="D458" s="53"/>
       <c r="E458" s="53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F458" s="53"/>
       <c r="G458" s="53"/>
@@ -23834,7 +23866,7 @@
       <c r="D459" s="53"/>
       <c r="E459" s="53"/>
       <c r="F459" s="53" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G459" s="53"/>
       <c r="H459" s="53"/>
@@ -23850,7 +23882,7 @@
     <row r="460" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="66"/>
       <c r="C460" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D460" s="53"/>
       <c r="E460" s="53"/>
@@ -23870,7 +23902,7 @@
       <c r="A461" s="63"/>
       <c r="C461" s="53"/>
       <c r="D461" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E461" s="53"/>
       <c r="F461" s="53"/>
@@ -23889,13 +23921,13 @@
       <c r="A462" s="62"/>
       <c r="C462" s="53"/>
       <c r="D462" s="53"/>
-      <c r="E462" s="150" t="s">
-        <v>389</v>
-      </c>
-      <c r="F462" s="150" t="s">
+      <c r="E462" s="154" t="s">
         <v>388</v>
       </c>
-      <c r="G462" s="150"/>
+      <c r="F462" s="154" t="s">
+        <v>387</v>
+      </c>
+      <c r="G462" s="154"/>
       <c r="H462" s="53"/>
       <c r="I462" s="53"/>
       <c r="J462" s="53"/>
@@ -23910,12 +23942,12 @@
       <c r="A463" s="62"/>
       <c r="C463" s="53"/>
       <c r="D463" s="53"/>
-      <c r="E463" s="150"/>
+      <c r="E463" s="154"/>
       <c r="F463" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G463" s="52" t="s">
         <v>385</v>
-      </c>
-      <c r="G463" s="52" t="s">
-        <v>386</v>
       </c>
       <c r="H463" s="53"/>
       <c r="I463" s="53"/>
@@ -23932,13 +23964,13 @@
       <c r="C464" s="53"/>
       <c r="D464" s="53"/>
       <c r="E464" s="52" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F464" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G464" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H464" s="53"/>
       <c r="I464" s="53"/>
@@ -23955,13 +23987,13 @@
       <c r="C465" s="53"/>
       <c r="D465" s="53"/>
       <c r="E465" s="52" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F465" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G465" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H465" s="53"/>
       <c r="I465" s="53"/>
@@ -23978,13 +24010,13 @@
       <c r="C466" s="53"/>
       <c r="D466" s="53"/>
       <c r="E466" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F466" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G466" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H466" s="53"/>
       <c r="I466" s="53"/>
@@ -24001,13 +24033,13 @@
       <c r="C467" s="53"/>
       <c r="D467" s="53"/>
       <c r="E467" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F467" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G467" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H467" s="53"/>
       <c r="I467" s="53"/>
@@ -24024,13 +24056,13 @@
       <c r="C468" s="53"/>
       <c r="D468" s="53"/>
       <c r="E468" s="50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F468" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G468" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H468" s="53"/>
       <c r="I468" s="53"/>
@@ -24047,13 +24079,13 @@
       <c r="C469" s="53"/>
       <c r="D469" s="53"/>
       <c r="E469" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F469" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G469" s="51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H469" s="53"/>
       <c r="I469" s="53"/>
@@ -24069,7 +24101,7 @@
       <c r="A470" s="62"/>
       <c r="C470" s="53"/>
       <c r="D470" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E470" s="49"/>
       <c r="F470" s="49"/>
@@ -24089,10 +24121,10 @@
       <c r="C471" s="53"/>
       <c r="D471" s="53"/>
       <c r="E471" s="49" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F471" s="49" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G471" s="49"/>
       <c r="H471" s="49"/>
@@ -24110,7 +24142,7 @@
       <c r="C472" s="110"/>
       <c r="D472" s="110"/>
       <c r="E472" s="111" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F472" s="111"/>
       <c r="G472" s="111"/>
@@ -24146,10 +24178,10 @@
       <c r="C474" s="53"/>
       <c r="D474" s="53"/>
       <c r="E474" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="F474" s="49" t="s">
         <v>392</v>
-      </c>
-      <c r="F474" s="49" t="s">
-        <v>393</v>
       </c>
       <c r="G474" s="49"/>
       <c r="H474" s="49"/>
@@ -24182,7 +24214,7 @@
     <row r="476" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="62"/>
       <c r="C476" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D476" s="67"/>
       <c r="E476" s="67"/>
@@ -24202,7 +24234,7 @@
       <c r="A477" s="62"/>
       <c r="C477" s="53"/>
       <c r="D477" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E477" s="53"/>
       <c r="F477" s="49"/>
@@ -24222,7 +24254,7 @@
       <c r="C478" s="86"/>
       <c r="D478" s="39"/>
       <c r="E478" s="87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F478" s="88"/>
       <c r="G478" s="88"/>
@@ -24242,7 +24274,7 @@
       <c r="D479" s="39"/>
       <c r="E479" s="88"/>
       <c r="F479" s="86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G479" s="86"/>
       <c r="H479" s="39"/>
@@ -24262,7 +24294,7 @@
       <c r="E480" s="88"/>
       <c r="F480" s="86"/>
       <c r="G480" s="86" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H480" s="39"/>
       <c r="I480" s="87"/>
@@ -24280,7 +24312,7 @@
       <c r="D481" s="39"/>
       <c r="E481" s="88"/>
       <c r="F481" s="86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G481" s="86"/>
       <c r="H481" s="39"/>
@@ -24300,7 +24332,7 @@
       <c r="E482" s="86"/>
       <c r="F482" s="86"/>
       <c r="G482" s="86" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H482" s="39"/>
       <c r="I482" s="87"/>
@@ -24317,7 +24349,7 @@
       <c r="C483" s="89"/>
       <c r="D483" s="84"/>
       <c r="E483" s="89" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F483" s="84"/>
       <c r="G483" s="84"/>
@@ -24337,7 +24369,7 @@
       <c r="D484" s="84"/>
       <c r="E484" s="89"/>
       <c r="F484" s="84" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G484" s="84"/>
       <c r="H484" s="84"/>
@@ -24356,7 +24388,7 @@
       <c r="D485" s="84"/>
       <c r="E485" s="89"/>
       <c r="F485" s="84" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G485" s="84"/>
       <c r="H485" s="84"/>
@@ -24390,7 +24422,7 @@
       <c r="A487" s="62"/>
       <c r="C487" s="53"/>
       <c r="D487" s="53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E487" s="49"/>
       <c r="F487" s="49"/>
@@ -24411,10 +24443,10 @@
       <c r="D488" s="53"/>
       <c r="E488" s="48"/>
       <c r="F488" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="G488" s="50" t="s">
         <v>401</v>
-      </c>
-      <c r="G488" s="50" t="s">
-        <v>402</v>
       </c>
       <c r="H488" s="49"/>
       <c r="I488" s="49"/>
@@ -24431,13 +24463,13 @@
       <c r="C489" s="53"/>
       <c r="D489" s="53"/>
       <c r="E489" s="50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F489" s="51">
         <v>3</v>
       </c>
       <c r="G489" s="51" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H489" s="49"/>
       <c r="I489" s="49"/>
@@ -24454,13 +24486,13 @@
       <c r="C490" s="53"/>
       <c r="D490" s="53"/>
       <c r="E490" s="50" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F490" s="51">
         <v>1</v>
       </c>
       <c r="G490" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H490" s="49"/>
       <c r="I490" s="49"/>
@@ -24476,10 +24508,10 @@
       <c r="A491" s="62"/>
       <c r="C491" s="53"/>
       <c r="D491" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="E491" s="86" t="s">
         <v>587</v>
-      </c>
-      <c r="E491" s="86" t="s">
-        <v>588</v>
       </c>
       <c r="F491" s="87"/>
       <c r="G491" s="49"/>
@@ -24498,7 +24530,7 @@
       <c r="C492" s="53"/>
       <c r="D492" s="53"/>
       <c r="E492" s="84" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F492" s="49"/>
       <c r="G492" s="49"/>
@@ -24517,7 +24549,7 @@
       <c r="C493" s="53"/>
       <c r="D493" s="53"/>
       <c r="E493" s="84" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F493" s="49"/>
       <c r="G493" s="49"/>
@@ -24551,7 +24583,7 @@
     <row r="495" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="62"/>
       <c r="C495" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D495" s="53"/>
       <c r="E495" s="49"/>
@@ -24571,7 +24603,7 @@
       <c r="A496" s="62"/>
       <c r="C496" s="67"/>
       <c r="D496" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E496" s="49"/>
       <c r="F496" s="49"/>
@@ -25115,11 +25147,11 @@
     </row>
     <row r="528" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A528" s="54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C528" s="53"/>
       <c r="D528" s="53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E528" s="49"/>
       <c r="F528" s="49"/>
@@ -25136,12 +25168,12 @@
     </row>
     <row r="529" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A529" s="62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C529" s="53"/>
       <c r="D529" s="53"/>
       <c r="E529" s="49" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F529" s="49"/>
       <c r="G529" s="49"/>
@@ -25160,7 +25192,7 @@
       <c r="C530" s="53"/>
       <c r="D530" s="53"/>
       <c r="E530" s="49" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F530" s="49"/>
       <c r="G530" s="49"/>
@@ -25176,24 +25208,24 @@
     </row>
     <row r="531" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A531" s="62" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C531" s="53"/>
       <c r="D531" s="49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E531" s="49"/>
       <c r="F531" s="67"/>
       <c r="G531" s="53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H531" s="49" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I531" s="49"/>
       <c r="J531" s="49"/>
       <c r="K531" s="53" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L531" s="67"/>
       <c r="M531" s="53"/>
@@ -25208,13 +25240,13 @@
       <c r="E532" s="44"/>
       <c r="F532" s="44"/>
       <c r="G532" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H532" s="44"/>
       <c r="I532" s="44"/>
       <c r="J532" s="44"/>
       <c r="K532" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L532" s="11"/>
       <c r="M532" s="43"/>
@@ -25224,7 +25256,7 @@
     </row>
     <row r="533" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A533" s="62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C533" s="53"/>
       <c r="D533" s="53"/>
@@ -25236,7 +25268,7 @@
       <c r="J533" s="49"/>
       <c r="K533" s="53"/>
       <c r="L533" s="53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M533" s="53"/>
       <c r="N533" s="53"/>
@@ -25245,7 +25277,7 @@
     </row>
     <row r="534" spans="1:16" s="61" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A534" s="62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C534" s="53"/>
       <c r="D534" s="53"/>
@@ -25284,7 +25316,7 @@
       <c r="C536" s="53"/>
       <c r="D536" s="53"/>
       <c r="E536" s="49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F536" s="49"/>
       <c r="G536" s="49"/>
@@ -25304,7 +25336,7 @@
       <c r="D537" s="53"/>
       <c r="E537" s="49"/>
       <c r="F537" s="49" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G537" s="49"/>
       <c r="H537" s="49"/>
@@ -25323,7 +25355,7 @@
       <c r="D538" s="53"/>
       <c r="E538" s="49"/>
       <c r="F538" s="67" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G538" s="49"/>
       <c r="H538" s="49"/>
@@ -25342,7 +25374,7 @@
       <c r="D539" s="53"/>
       <c r="E539" s="49"/>
       <c r="F539" s="49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G539" s="49"/>
       <c r="H539" s="49"/>
@@ -25360,7 +25392,7 @@
       <c r="C540" s="53"/>
       <c r="D540" s="53"/>
       <c r="E540" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F540" s="49"/>
       <c r="G540" s="49"/>
@@ -25380,7 +25412,7 @@
       <c r="D541" s="53"/>
       <c r="E541" s="49"/>
       <c r="F541" s="49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G541" s="49"/>
       <c r="H541" s="49"/>
@@ -25399,7 +25431,7 @@
       <c r="D542" s="53"/>
       <c r="E542" s="49"/>
       <c r="F542" s="49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G542" s="49"/>
       <c r="H542" s="49"/>
@@ -25418,7 +25450,7 @@
       <c r="D543" s="53"/>
       <c r="E543" s="49"/>
       <c r="F543" s="49" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G543" s="49"/>
       <c r="H543" s="49"/>
@@ -25467,7 +25499,7 @@
     <row r="546" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A546" s="23"/>
       <c r="C546" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D546" s="11"/>
       <c r="E546" s="11"/>
@@ -25487,7 +25519,7 @@
       <c r="A547" s="17"/>
       <c r="C547" s="11"/>
       <c r="D547" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E547" s="11"/>
       <c r="F547" s="11"/>
@@ -25507,7 +25539,7 @@
       <c r="C548" s="11"/>
       <c r="D548" s="11"/>
       <c r="E548" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F548" s="11"/>
       <c r="G548" s="15"/>
@@ -25525,7 +25557,7 @@
       <c r="C549" s="11"/>
       <c r="D549" s="11"/>
       <c r="E549" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F549" s="11"/>
       <c r="G549" s="15"/>
@@ -25543,7 +25575,7 @@
       <c r="C550" s="11"/>
       <c r="D550" s="11"/>
       <c r="E550" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F550" s="11"/>
       <c r="G550" s="15"/>
@@ -25561,7 +25593,7 @@
       <c r="C551" s="11"/>
       <c r="D551" s="11"/>
       <c r="E551" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F551" s="11"/>
       <c r="G551" s="15"/>
@@ -25579,7 +25611,7 @@
       <c r="C552" s="11"/>
       <c r="D552" s="11"/>
       <c r="E552" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F552" s="11"/>
       <c r="G552" s="15"/>
@@ -25596,7 +25628,7 @@
     <row r="553" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C553" s="11"/>
       <c r="D553" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E553" s="11"/>
       <c r="F553" s="11"/>
@@ -25615,7 +25647,7 @@
       <c r="C554" s="11"/>
       <c r="D554" s="11"/>
       <c r="E554" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F554" s="15"/>
       <c r="G554" s="15"/>
@@ -25633,7 +25665,7 @@
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
       <c r="E555" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F555" s="15"/>
       <c r="G555" s="15"/>
@@ -25651,7 +25683,7 @@
       <c r="C556" s="11"/>
       <c r="D556" s="15"/>
       <c r="E556" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F556" s="15"/>
       <c r="G556" s="15"/>
@@ -25669,7 +25701,7 @@
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
       <c r="E557" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F557" s="16"/>
       <c r="G557" s="16"/>
@@ -25688,7 +25720,7 @@
       <c r="D558" s="11"/>
       <c r="E558" s="16"/>
       <c r="F558" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G558" s="16"/>
       <c r="H558" s="11"/>
@@ -25707,7 +25739,7 @@
       <c r="E559" s="16"/>
       <c r="F559" s="16"/>
       <c r="G559" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H559" s="11"/>
       <c r="I559" s="11"/>
@@ -25725,7 +25757,7 @@
       <c r="E560" s="16"/>
       <c r="F560" s="16"/>
       <c r="G560" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H560" s="11"/>
       <c r="I560" s="11"/>
@@ -25743,7 +25775,7 @@
       <c r="E561" s="16"/>
       <c r="F561" s="16"/>
       <c r="G561" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H561" s="11"/>
       <c r="I561" s="11"/>
@@ -25759,7 +25791,7 @@
       <c r="C562" s="11"/>
       <c r="D562" s="11"/>
       <c r="E562" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F562" s="15"/>
       <c r="G562" s="15"/>
@@ -25777,7 +25809,7 @@
       <c r="C563" s="11"/>
       <c r="D563" s="11"/>
       <c r="E563" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F563" s="15"/>
       <c r="G563" s="15"/>
@@ -25795,7 +25827,7 @@
       <c r="C564" s="11"/>
       <c r="D564" s="11"/>
       <c r="E564" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F564" s="15"/>
       <c r="G564" s="15"/>
@@ -25813,7 +25845,7 @@
       <c r="C565" s="11"/>
       <c r="D565" s="11"/>
       <c r="E565" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F565" s="15"/>
       <c r="G565" s="15"/>
@@ -25832,7 +25864,7 @@
       <c r="D566" s="11"/>
       <c r="E566" s="14"/>
       <c r="F566" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G566" s="15"/>
       <c r="H566" s="11"/>
@@ -25850,7 +25882,7 @@
       <c r="D567" s="11"/>
       <c r="E567" s="14"/>
       <c r="F567" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G567" s="15"/>
       <c r="H567" s="11"/>
@@ -25883,7 +25915,7 @@
       <c r="C569" s="11"/>
       <c r="D569" s="11"/>
       <c r="E569" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F569" s="15"/>
       <c r="G569" s="15"/>
@@ -25901,7 +25933,7 @@
       <c r="C570" s="11"/>
       <c r="D570" s="11"/>
       <c r="E570" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F570" s="15"/>
       <c r="G570" s="15"/>
@@ -25920,7 +25952,7 @@
       <c r="D571" s="11"/>
       <c r="E571" s="14"/>
       <c r="F571" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G571" s="15"/>
       <c r="H571" s="11"/>
@@ -25938,7 +25970,7 @@
       <c r="D572" s="11"/>
       <c r="E572" s="14"/>
       <c r="F572" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G572" s="15"/>
       <c r="H572" s="11"/>
@@ -25957,7 +25989,7 @@
       <c r="E573" s="14"/>
       <c r="F573" s="15"/>
       <c r="G573" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H573" s="11"/>
       <c r="I573" s="11"/>
@@ -25975,7 +26007,7 @@
       <c r="E574" s="14"/>
       <c r="F574" s="15"/>
       <c r="G574" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H574" s="11"/>
       <c r="I574" s="11"/>
@@ -26007,7 +26039,7 @@
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
       <c r="E576" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F576" s="15"/>
       <c r="G576" s="15"/>
@@ -26025,7 +26057,7 @@
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
       <c r="E577" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F577" s="15"/>
       <c r="G577" s="15"/>
@@ -26044,7 +26076,7 @@
       <c r="D578" s="11"/>
       <c r="E578" s="14"/>
       <c r="F578" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G578" s="15"/>
       <c r="H578" s="11"/>
@@ -26062,7 +26094,7 @@
       <c r="D579" s="11"/>
       <c r="E579" s="14"/>
       <c r="F579" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G579" s="15"/>
       <c r="H579" s="11"/>
@@ -26081,7 +26113,7 @@
       <c r="E580" s="14"/>
       <c r="F580" s="15"/>
       <c r="G580" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H580" s="11"/>
       <c r="I580" s="11"/>
@@ -26146,7 +26178,7 @@
       <c r="D584" s="11"/>
       <c r="E584" s="14"/>
       <c r="F584" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G584" s="15"/>
       <c r="H584" s="11"/>
@@ -26164,7 +26196,7 @@
       <c r="D585" s="11"/>
       <c r="E585" s="14"/>
       <c r="F585" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G585" s="15"/>
       <c r="H585" s="11"/>
@@ -26182,7 +26214,7 @@
       <c r="D586" s="11"/>
       <c r="E586" s="14"/>
       <c r="F586" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G586" s="15"/>
       <c r="H586" s="11"/>
@@ -26215,7 +26247,7 @@
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
       <c r="E588" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F588" s="15"/>
       <c r="G588" s="15"/>
@@ -26233,7 +26265,7 @@
       <c r="C589" s="11"/>
       <c r="D589" s="11"/>
       <c r="E589" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F589" s="15"/>
       <c r="G589" s="15"/>
@@ -26267,7 +26299,7 @@
       <c r="C591" s="11"/>
       <c r="D591" s="11"/>
       <c r="E591" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F591" s="15"/>
       <c r="G591" s="15"/>
@@ -26285,7 +26317,7 @@
       <c r="C592" s="11"/>
       <c r="D592" s="11"/>
       <c r="E592" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F592" s="15"/>
       <c r="G592" s="15"/>
@@ -26319,7 +26351,7 @@
       <c r="C594" s="11"/>
       <c r="D594" s="11"/>
       <c r="E594" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F594" s="15"/>
       <c r="G594" s="15"/>
@@ -26337,7 +26369,7 @@
       <c r="C595" s="11"/>
       <c r="D595" s="11"/>
       <c r="E595" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F595" s="15"/>
       <c r="G595" s="15"/>
@@ -26371,7 +26403,7 @@
       <c r="C597" s="11"/>
       <c r="D597" s="11"/>
       <c r="E597" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F597" s="15"/>
       <c r="G597" s="15"/>
@@ -26389,7 +26421,7 @@
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
       <c r="E598" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F598" s="15"/>
       <c r="G598" s="15"/>
@@ -26407,7 +26439,7 @@
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
       <c r="E599" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F599" s="15"/>
       <c r="G599" s="15"/>
@@ -26425,7 +26457,7 @@
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
       <c r="E600" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F600" s="15"/>
       <c r="G600" s="15"/>
@@ -26459,7 +26491,7 @@
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
       <c r="E602" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F602" s="15"/>
       <c r="G602" s="15"/>
@@ -26493,7 +26525,7 @@
       <c r="C604" s="11"/>
       <c r="D604" s="11"/>
       <c r="E604" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F604" s="15"/>
       <c r="G604" s="15"/>
@@ -26512,7 +26544,7 @@
       <c r="D605" s="11"/>
       <c r="E605" s="14"/>
       <c r="F605" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G605" s="15"/>
       <c r="H605" s="11"/>
@@ -26529,7 +26561,7 @@
       <c r="C606" s="11"/>
       <c r="D606" s="11"/>
       <c r="E606" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F606" s="15"/>
       <c r="G606" s="15"/>
@@ -26548,7 +26580,7 @@
       <c r="D607" s="11"/>
       <c r="E607" s="14"/>
       <c r="F607" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G607" s="15"/>
       <c r="H607" s="11"/>
@@ -26581,7 +26613,7 @@
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
       <c r="E609" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F609" s="14"/>
       <c r="G609" s="15"/>
@@ -26615,7 +26647,7 @@
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
       <c r="E611" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F611" s="14"/>
       <c r="G611" s="15"/>
@@ -26633,7 +26665,7 @@
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
       <c r="E612" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F612" s="14"/>
       <c r="G612" s="15"/>
@@ -26667,7 +26699,7 @@
       <c r="C614" s="11"/>
       <c r="D614" s="11"/>
       <c r="E614" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F614" s="14"/>
       <c r="G614" s="15"/>
@@ -26685,7 +26717,7 @@
       <c r="C615" s="11"/>
       <c r="D615" s="11"/>
       <c r="E615" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F615" s="14"/>
       <c r="G615" s="15"/>
@@ -26703,7 +26735,7 @@
       <c r="C616" s="11"/>
       <c r="D616" s="11"/>
       <c r="E616" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F616" s="14"/>
       <c r="G616" s="15"/>
@@ -26720,7 +26752,7 @@
     <row r="617" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="618" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C618" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D618" s="76"/>
       <c r="E618" s="76"/>
@@ -26731,7 +26763,7 @@
     <row r="619" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C619" s="76"/>
       <c r="D619" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E619" s="76"/>
       <c r="F619" s="76"/>
@@ -26741,7 +26773,7 @@
     <row r="620" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C620" s="76"/>
       <c r="D620" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E620" s="76"/>
       <c r="F620" s="76"/>
@@ -26752,7 +26784,7 @@
       <c r="C621" s="76"/>
       <c r="D621" s="76"/>
       <c r="E621" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F621" s="76"/>
       <c r="G621" s="76"/>
@@ -26762,7 +26794,7 @@
       <c r="C622" s="76"/>
       <c r="D622" s="76"/>
       <c r="E622" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F622" s="77"/>
       <c r="G622" s="77"/>
@@ -26771,7 +26803,7 @@
     <row r="623" spans="3:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C623" s="76"/>
       <c r="D623" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E623" s="77"/>
       <c r="F623" s="77"/>
@@ -26782,7 +26814,7 @@
       <c r="C624" s="76"/>
       <c r="D624" s="77"/>
       <c r="E624" s="77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F624" s="77"/>
       <c r="G624" s="77"/>
@@ -26791,7 +26823,7 @@
     <row r="625" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C625" s="76"/>
       <c r="D625" s="76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E625" s="76"/>
       <c r="F625" s="76"/>
@@ -26804,7 +26836,7 @@
       <c r="C626" s="77"/>
       <c r="D626" s="77"/>
       <c r="E626" s="77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F626" s="77"/>
       <c r="G626" s="77"/>
@@ -26822,7 +26854,7 @@
       <c r="D627" s="77"/>
       <c r="E627" s="77"/>
       <c r="F627" s="77" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G627" s="77"/>
       <c r="H627" s="77"/>
@@ -26837,7 +26869,7 @@
       <c r="B628" s="7"/>
       <c r="C628" s="77"/>
       <c r="D628" s="77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E628" s="77"/>
       <c r="F628" s="77"/>
@@ -26855,7 +26887,7 @@
       <c r="C629" s="77"/>
       <c r="D629" s="77"/>
       <c r="E629" s="77" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F629" s="77"/>
       <c r="G629" s="77"/>
@@ -26873,7 +26905,7 @@
       <c r="D630" s="77"/>
       <c r="E630" s="77"/>
       <c r="F630" s="77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G630" s="77"/>
       <c r="H630" s="77"/>
@@ -26889,7 +26921,7 @@
       <c r="C631" s="77"/>
       <c r="D631" s="77"/>
       <c r="E631" s="77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F631" s="77"/>
       <c r="G631" s="77"/>
@@ -26907,7 +26939,7 @@
       <c r="D632" s="77"/>
       <c r="E632" s="77"/>
       <c r="F632" s="77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G632" s="77"/>
       <c r="H632" s="77"/>
@@ -26922,7 +26954,7 @@
       <c r="B633" s="7"/>
       <c r="C633" s="77"/>
       <c r="D633" s="77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E633" s="77"/>
       <c r="F633" s="77"/>
@@ -26940,7 +26972,7 @@
       <c r="C634" s="77"/>
       <c r="D634" s="77"/>
       <c r="E634" s="77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F634" s="77"/>
       <c r="G634" s="77"/>
@@ -26956,7 +26988,7 @@
       <c r="B635" s="7"/>
       <c r="C635" s="77"/>
       <c r="D635" s="77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E635" s="77"/>
       <c r="F635" s="77"/>
@@ -26974,7 +27006,7 @@
       <c r="C636" s="77"/>
       <c r="D636" s="77"/>
       <c r="E636" s="77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F636" s="77"/>
       <c r="G636" s="77"/>
@@ -27008,7 +27040,7 @@
       <c r="C638" s="77"/>
       <c r="D638" s="77"/>
       <c r="E638" s="77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F638" s="77"/>
       <c r="G638" s="77"/>
@@ -27024,7 +27056,7 @@
       <c r="B639" s="7"/>
       <c r="C639" s="77"/>
       <c r="D639" s="77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E639" s="77"/>
       <c r="F639" s="77"/>
@@ -27042,7 +27074,7 @@
       <c r="C640" s="77"/>
       <c r="D640" s="77"/>
       <c r="E640" s="77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F640" s="77"/>
       <c r="G640" s="77"/>
@@ -27060,7 +27092,7 @@
       <c r="D641" s="77"/>
       <c r="E641" s="77"/>
       <c r="F641" s="77" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G641" s="77"/>
       <c r="H641" s="77"/>
@@ -27076,7 +27108,7 @@
       <c r="C642" s="77"/>
       <c r="D642" s="77"/>
       <c r="E642" s="77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F642" s="77"/>
       <c r="G642" s="77"/>
@@ -27094,7 +27126,7 @@
       <c r="D643" s="77"/>
       <c r="E643" s="77"/>
       <c r="F643" s="77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G643" s="77"/>
       <c r="H643" s="77"/>
@@ -27109,7 +27141,7 @@
       <c r="B644" s="7"/>
       <c r="C644" s="77"/>
       <c r="D644" s="77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E644" s="77"/>
       <c r="F644" s="77"/>
@@ -27127,7 +27159,7 @@
       <c r="C645" s="77"/>
       <c r="D645" s="77"/>
       <c r="E645" s="77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F645" s="77"/>
       <c r="G645" s="77"/>
@@ -27145,7 +27177,7 @@
       <c r="D646" s="77"/>
       <c r="E646" s="77"/>
       <c r="F646" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G646" s="77"/>
       <c r="H646" s="77"/>
@@ -27175,7 +27207,7 @@
       <c r="B648" s="7"/>
       <c r="C648" s="77"/>
       <c r="D648" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E648" s="77"/>
       <c r="F648" s="77"/>
@@ -27192,7 +27224,7 @@
       <c r="B649" s="7"/>
       <c r="C649" s="77"/>
       <c r="D649" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E649" s="77"/>
       <c r="F649" s="77"/>
@@ -27221,7 +27253,7 @@
     </row>
     <row r="651" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C651" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D651" s="76"/>
       <c r="E651" s="76"/>
@@ -27232,7 +27264,7 @@
     <row r="652" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C652" s="76"/>
       <c r="D652" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E652" s="76"/>
       <c r="F652" s="76"/>
@@ -27242,7 +27274,7 @@
     <row r="653" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C653" s="76"/>
       <c r="D653" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E653" s="76"/>
       <c r="F653" s="76"/>
@@ -27254,7 +27286,7 @@
       <c r="C654" s="76"/>
       <c r="D654" s="76"/>
       <c r="E654" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F654" s="76"/>
       <c r="G654" s="76"/>
@@ -27264,7 +27296,7 @@
     <row r="655" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C655" s="76"/>
       <c r="D655" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E655" s="77"/>
       <c r="F655" s="77"/>
@@ -27275,7 +27307,7 @@
       <c r="C656" s="76"/>
       <c r="D656" s="77"/>
       <c r="E656" s="77" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F656" s="77"/>
       <c r="G656" s="77"/>
@@ -27284,7 +27316,7 @@
     <row r="657" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C657" s="76"/>
       <c r="D657" s="76" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E657" s="76"/>
       <c r="F657" s="76"/>
@@ -27295,7 +27327,7 @@
       <c r="C658" s="76"/>
       <c r="D658" s="76"/>
       <c r="E658" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F658" s="76"/>
       <c r="G658" s="76"/>
@@ -27306,7 +27338,7 @@
       <c r="D659" s="76"/>
       <c r="E659" s="76"/>
       <c r="F659" s="76" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G659" s="76"/>
       <c r="H659" s="76"/>
@@ -27314,7 +27346,7 @@
     <row r="660" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C660" s="76"/>
       <c r="D660" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E660" s="76"/>
       <c r="F660" s="76"/>
@@ -27327,7 +27359,7 @@
       <c r="C661" s="77"/>
       <c r="D661" s="77"/>
       <c r="E661" s="77" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F661" s="77"/>
       <c r="G661" s="77"/>
@@ -27345,7 +27377,7 @@
       <c r="D662" s="77"/>
       <c r="E662" s="77"/>
       <c r="F662" s="77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G662" s="77"/>
       <c r="H662" s="77"/>
@@ -27361,7 +27393,7 @@
       <c r="C663" s="77"/>
       <c r="D663" s="77"/>
       <c r="E663" s="77" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F663" s="77"/>
       <c r="G663" s="77"/>
@@ -27379,7 +27411,7 @@
       <c r="D664" s="77"/>
       <c r="E664" s="77"/>
       <c r="F664" s="77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G664" s="77"/>
       <c r="H664" s="77"/>
@@ -27395,7 +27427,7 @@
       <c r="C665" s="77"/>
       <c r="D665" s="77"/>
       <c r="E665" s="77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F665" s="77"/>
       <c r="G665" s="77"/>
@@ -27413,7 +27445,7 @@
       <c r="D666" s="77"/>
       <c r="E666" s="77"/>
       <c r="F666" s="77" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G666" s="77"/>
       <c r="H666" s="77"/>
@@ -27461,7 +27493,7 @@
       <c r="C669" s="77"/>
       <c r="D669" s="77"/>
       <c r="E669" s="77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F669" s="77"/>
       <c r="G669" s="77"/>
@@ -27477,7 +27509,7 @@
       <c r="B670" s="7"/>
       <c r="C670" s="77"/>
       <c r="D670" s="77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E670" s="77"/>
       <c r="F670" s="77"/>
@@ -27510,7 +27542,7 @@
       <c r="C672" s="77"/>
       <c r="D672" s="77"/>
       <c r="E672" s="77" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F672" s="77"/>
       <c r="G672" s="77"/>
@@ -27528,7 +27560,7 @@
       <c r="D673" s="77"/>
       <c r="E673" s="77"/>
       <c r="F673" s="77" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G673" s="77"/>
       <c r="H673" s="77"/>
@@ -27544,7 +27576,7 @@
       <c r="C674" s="77"/>
       <c r="D674" s="77"/>
       <c r="E674" s="77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F674" s="77"/>
       <c r="G674" s="77"/>
@@ -27562,7 +27594,7 @@
       <c r="D675" s="77"/>
       <c r="E675" s="77"/>
       <c r="F675" s="77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G675" s="77"/>
       <c r="H675" s="77"/>
@@ -27592,7 +27624,7 @@
       <c r="B677" s="7"/>
       <c r="C677" s="77"/>
       <c r="D677" s="77" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E677" s="77"/>
       <c r="F677" s="77"/>
@@ -27609,7 +27641,7 @@
       <c r="B678" s="7"/>
       <c r="C678" s="77"/>
       <c r="D678" s="77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E678" s="77"/>
       <c r="F678" s="77"/>
@@ -27639,31 +27671,31 @@
     <row r="680" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="91"/>
       <c r="C680" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="681" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="91"/>
       <c r="D681" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="682" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="91"/>
       <c r="E682" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="683" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="91"/>
       <c r="F683" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="684" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="91"/>
       <c r="F684" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="685" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -27672,25 +27704,25 @@
     <row r="686" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="91"/>
       <c r="E686" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="687" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="91"/>
       <c r="E687" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="688" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="91"/>
       <c r="E688" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="689" spans="1:13" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="91"/>
       <c r="E689" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="690" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -27712,7 +27744,7 @@
       <c r="A691" s="26"/>
       <c r="B691" s="7"/>
       <c r="C691" s="29" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D691" s="22"/>
       <c r="E691" s="22"/>
@@ -27728,7 +27760,7 @@
     <row r="692" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C692" s="30"/>
       <c r="D692" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E692" s="22"/>
       <c r="F692" s="22"/>
@@ -27740,7 +27772,7 @@
       <c r="C693" s="30"/>
       <c r="D693" s="22"/>
       <c r="E693" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F693" s="22"/>
       <c r="G693" s="22"/>
@@ -27751,7 +27783,7 @@
       <c r="C694" s="30"/>
       <c r="D694" s="22"/>
       <c r="E694" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F694" s="22"/>
       <c r="G694" s="22"/>
@@ -27771,7 +27803,7 @@
       <c r="C696" s="30"/>
       <c r="D696" s="22"/>
       <c r="E696" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F696" s="31"/>
       <c r="G696" s="31"/>
@@ -27783,7 +27815,7 @@
       <c r="D697" s="22"/>
       <c r="E697" s="31"/>
       <c r="F697" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G697" s="31"/>
       <c r="H697" s="31"/>
@@ -27794,7 +27826,7 @@
       <c r="D698" s="22"/>
       <c r="E698" s="31"/>
       <c r="F698" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G698" s="31"/>
       <c r="H698" s="31"/>
@@ -27808,7 +27840,7 @@
       <c r="C700" s="22"/>
       <c r="D700" s="22"/>
       <c r="E700" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F700" s="31"/>
       <c r="G700" s="31"/>
@@ -27819,7 +27851,7 @@
       <c r="C701" s="22"/>
       <c r="D701" s="22"/>
       <c r="E701" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F701" s="22"/>
       <c r="G701" s="22"/>
@@ -28734,7 +28766,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B1" s="75" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C1" s="75"/>
       <c r="D1" s="75"/>
@@ -28746,7 +28778,7 @@
     <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="75"/>
       <c r="C2" s="74" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
@@ -28757,7 +28789,7 @@
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="75"/>
       <c r="C3" s="71" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D3" s="75"/>
       <c r="E3" s="75"/>
@@ -28767,7 +28799,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C4" s="71" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D4" s="75"/>
       <c r="E4" s="75"/>
@@ -28776,7 +28808,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C5" s="75" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.15">
@@ -28823,102 +28855,102 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="71" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B2" s="71" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="C2" s="71" t="s">
-        <v>633</v>
-      </c>
       <c r="D2" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E2" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G2" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="71" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>797</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>798</v>
+      </c>
+      <c r="D3" s="135" t="s">
+        <v>799</v>
+      </c>
+      <c r="E3" s="135" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>800</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>801</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>798</v>
-      </c>
-      <c r="C3" s="135" t="s">
-        <v>799</v>
-      </c>
-      <c r="D3" s="135" t="s">
-        <v>800</v>
-      </c>
-      <c r="E3" s="135" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>801</v>
-      </c>
-      <c r="G3" s="71" t="s">
+      <c r="I3" s="71" t="s">
         <v>802</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="84" t="s">
+        <v>639</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>640</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>641</v>
-      </c>
       <c r="C4" s="135" t="s">
+        <v>806</v>
+      </c>
+      <c r="D4" s="135" t="s">
         <v>807</v>
       </c>
-      <c r="D4" s="135" t="s">
-        <v>808</v>
-      </c>
       <c r="E4" s="135" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G4" s="84" t="s">
+        <v>803</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>804</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="84" t="s">
         <v>805</v>
-      </c>
-      <c r="I4" s="84" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="71" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" s="71" t="s">
         <v>636</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>637</v>
       </c>
       <c r="C5" s="71">
         <v>0</v>
@@ -28930,7 +28962,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -28943,10 +28975,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="71" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" s="71" t="s">
         <v>638</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>639</v>
       </c>
       <c r="C6" s="71">
         <v>0</v>
@@ -28960,208 +28992,208 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="71" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F9" s="71" t="s">
+        <v>631</v>
+      </c>
+      <c r="G9" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="G9" s="71" t="s">
-        <v>633</v>
-      </c>
       <c r="H9" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I9" s="71" t="s">
+        <v>631</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>631</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>641</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>631</v>
+      </c>
+      <c r="M9" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="N9" s="71" t="s">
+        <v>641</v>
+      </c>
+      <c r="O9" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="K9" s="71" t="s">
-        <v>642</v>
-      </c>
-      <c r="L9" s="71" t="s">
+      <c r="P9" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="M9" s="71" t="s">
-        <v>633</v>
-      </c>
-      <c r="N9" s="71" t="s">
-        <v>642</v>
-      </c>
-      <c r="O9" s="71" t="s">
-        <v>633</v>
-      </c>
-      <c r="P9" s="71" t="s">
-        <v>633</v>
-      </c>
       <c r="Q9" s="71" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="71" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B10" s="71" t="s">
+        <v>808</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>642</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>643</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>644</v>
+      </c>
+      <c r="F10" s="71" t="s">
         <v>809</v>
       </c>
-      <c r="C10" s="71" t="s">
-        <v>643</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>644</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="G10" s="71" t="s">
         <v>645</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="H10" s="71" t="s">
+        <v>646</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>648</v>
+      </c>
+      <c r="K10" s="71" t="s">
         <v>810</v>
       </c>
-      <c r="G10" s="71" t="s">
-        <v>646</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>647</v>
-      </c>
-      <c r="I10" s="71" t="s">
-        <v>648</v>
-      </c>
-      <c r="J10" s="71" t="s">
+      <c r="L10" s="71" t="s">
+        <v>811</v>
+      </c>
+      <c r="M10" s="71" t="s">
         <v>649</v>
       </c>
-      <c r="K10" s="71" t="s">
-        <v>811</v>
-      </c>
-      <c r="L10" s="71" t="s">
+      <c r="N10" s="71" t="s">
+        <v>650</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>651</v>
+      </c>
+      <c r="P10" s="71" t="s">
         <v>812</v>
       </c>
-      <c r="M10" s="71" t="s">
-        <v>650</v>
-      </c>
-      <c r="N10" s="71" t="s">
-        <v>651</v>
-      </c>
-      <c r="O10" s="71" t="s">
+      <c r="Q10" s="71" t="s">
         <v>652</v>
-      </c>
-      <c r="P10" s="71" t="s">
-        <v>813</v>
-      </c>
-      <c r="Q10" s="71" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C11" s="84" t="s">
+        <v>685</v>
+      </c>
+      <c r="D11" s="84" t="s">
         <v>686</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="E11" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>659</v>
+      </c>
+      <c r="G11" s="84" t="s">
         <v>687</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="H11" s="84" t="s">
+        <v>688</v>
+      </c>
+      <c r="I11" s="84" t="s">
         <v>814</v>
       </c>
-      <c r="F11" s="84" t="s">
-        <v>660</v>
-      </c>
-      <c r="G11" s="84" t="s">
-        <v>688</v>
-      </c>
-      <c r="H11" s="84" t="s">
+      <c r="J11" s="84" t="s">
         <v>689</v>
       </c>
-      <c r="I11" s="84" t="s">
-        <v>815</v>
-      </c>
-      <c r="J11" s="84" t="s">
+      <c r="K11" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="L11" s="84" t="s">
         <v>690</v>
       </c>
-      <c r="K11" s="84" t="s">
-        <v>695</v>
-      </c>
-      <c r="L11" s="84" t="s">
+      <c r="M11" s="84" t="s">
+        <v>661</v>
+      </c>
+      <c r="N11" s="84" t="s">
+        <v>662</v>
+      </c>
+      <c r="O11" s="84" t="s">
+        <v>663</v>
+      </c>
+      <c r="P11" s="84" t="s">
         <v>691</v>
       </c>
-      <c r="M11" s="84" t="s">
-        <v>662</v>
-      </c>
-      <c r="N11" s="84" t="s">
-        <v>663</v>
-      </c>
-      <c r="O11" s="84" t="s">
+      <c r="Q11" s="84" t="s">
         <v>664</v>
-      </c>
-      <c r="P11" s="84" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q11" s="84" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="84" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C12" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>833</v>
+      </c>
+      <c r="H12" s="84" t="s">
         <v>693</v>
       </c>
-      <c r="D12" s="84" t="s">
-        <v>693</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>834</v>
-      </c>
-      <c r="H12" s="84" t="s">
-        <v>694</v>
-      </c>
       <c r="M12" s="84" t="s">
+        <v>695</v>
+      </c>
+      <c r="O12" s="84" t="s">
         <v>696</v>
       </c>
-      <c r="O12" s="84" t="s">
+      <c r="P12" s="84" t="s">
         <v>697</v>
-      </c>
-      <c r="P12" s="84" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="84" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G13" s="130">
         <v>3</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="71" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B15" s="71">
         <v>0</v>
@@ -29176,12 +29208,12 @@
         <v>0</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="71" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B16" s="71">
         <v>1</v>
@@ -29202,12 +29234,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="71" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="71" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B17" s="71">
         <v>2</v>
@@ -29222,18 +29254,18 @@
         <v>0</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="K17" s="71">
         <v>0</v>
       </c>
       <c r="L17" s="74" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="71" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B18" s="71">
         <v>3</v>
@@ -29263,7 +29295,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="71" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B19" s="71">
         <v>4</v>
@@ -29278,167 +29310,167 @@
         <v>0</v>
       </c>
       <c r="Q19" s="71" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="71" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C22" s="71" t="s">
+        <v>631</v>
+      </c>
+      <c r="D22" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="D22" s="71" t="s">
-        <v>633</v>
-      </c>
       <c r="E22" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G22" s="135" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H22" s="71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J22" s="71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K22" s="71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L22" s="71" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M22" s="71" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="71" t="s">
+        <v>633</v>
+      </c>
+      <c r="B23" s="71" t="s">
         <v>634</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>635</v>
-      </c>
       <c r="C23" s="71" t="s">
+        <v>815</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>665</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>666</v>
+      </c>
+      <c r="F23" s="71" t="s">
         <v>816</v>
       </c>
-      <c r="D23" s="71" t="s">
-        <v>666</v>
-      </c>
-      <c r="E23" s="71" t="s">
+      <c r="G23" s="135" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H23" s="71" t="s">
         <v>667</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="I23" s="71" t="s">
+        <v>668</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>669</v>
+      </c>
+      <c r="L23" s="71" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M23" s="71" t="s">
         <v>817</v>
-      </c>
-      <c r="G23" s="135" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H23" s="71" t="s">
-        <v>668</v>
-      </c>
-      <c r="I23" s="71" t="s">
-        <v>669</v>
-      </c>
-      <c r="J23" s="71" t="s">
-        <v>1015</v>
-      </c>
-      <c r="K23" s="71" t="s">
-        <v>670</v>
-      </c>
-      <c r="L23" s="71" t="s">
-        <v>1052</v>
-      </c>
-      <c r="M23" s="71" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="84" t="s">
+        <v>674</v>
+      </c>
+      <c r="B24" s="84" t="s">
         <v>675</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="C24" s="84" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E24" s="84" t="s">
         <v>676</v>
       </c>
-      <c r="C24" s="84" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E24" s="84" t="s">
+      <c r="F24" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="G24" s="135" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H24" s="84" t="s">
         <v>678</v>
       </c>
-      <c r="G24" s="135" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H24" s="84" t="s">
+      <c r="I24" s="84" t="s">
         <v>679</v>
       </c>
-      <c r="I24" s="84" t="s">
+      <c r="J24" s="84" t="s">
         <v>680</v>
       </c>
-      <c r="J24" s="84" t="s">
+      <c r="K24" s="84" t="s">
         <v>681</v>
       </c>
-      <c r="K24" s="84" t="s">
-        <v>682</v>
-      </c>
       <c r="L24" s="84" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="84" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F25" s="84" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G25" s="135"/>
       <c r="H25" s="84" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L25" s="84" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M25" s="84" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="71" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C26" s="71" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D26" s="71">
         <v>5</v>
@@ -29465,22 +29497,22 @@
         <v>-0.1</v>
       </c>
       <c r="M26" s="71" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="M27" s="71" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="M28" s="71" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="M29" s="71" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -29534,7 +29566,7 @@
     <row r="3" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="46" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="79"/>
@@ -29722,7 +29754,7 @@
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B14" s="46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -30114,7 +30146,7 @@
     </row>
     <row r="45" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D45" s="46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F45" s="79"/>
       <c r="G45" s="79"/>
@@ -33115,26 +33147,26 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="59"/>
       <c r="B1" s="57" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="59"/>
       <c r="C2" s="58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
       <c r="C3" s="58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="113"/>
       <c r="C4" s="112" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="71" customFormat="1" x14ac:dyDescent="0.15">
@@ -33143,46 +33175,46 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="59"/>
       <c r="D6" s="58" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="59"/>
       <c r="E7" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="59"/>
       <c r="E8" s="60" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="58" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="59"/>
       <c r="E10" s="60"/>
       <c r="G10" s="58" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="59"/>
       <c r="E11" s="60"/>
       <c r="G11" s="58" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I11" s="58">
         <v>1</v>
@@ -33209,14 +33241,14 @@
         <v>4</v>
       </c>
       <c r="L14" s="71" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="59"/>
       <c r="E15" s="60"/>
       <c r="G15" s="58" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I15" s="58">
         <v>5</v>
@@ -33226,7 +33258,7 @@
       <c r="A16" s="59"/>
       <c r="E16" s="60"/>
       <c r="F16" s="71" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O16" s="71"/>
     </row>
@@ -33237,93 +33269,93 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="59"/>
       <c r="D18" s="58" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="59"/>
       <c r="E19" s="58" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="59"/>
       <c r="E20" s="58" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="59"/>
       <c r="G21" s="58" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="59"/>
       <c r="F22" s="60" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="59"/>
       <c r="F23" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G23" s="58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="59"/>
       <c r="F24" s="60" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="59"/>
       <c r="F25" s="60" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G25" s="58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="59"/>
       <c r="E26" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="F26" s="58" t="s">
         <v>516</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="59"/>
       <c r="E27" s="60"/>
       <c r="F27" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="H27" s="155" t="s">
         <v>528</v>
       </c>
-      <c r="G27" s="58" t="s">
-        <v>543</v>
-      </c>
-      <c r="H27" s="151" t="s">
-        <v>529</v>
-      </c>
-      <c r="I27" s="151"/>
+      <c r="I27" s="155"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="59"/>
       <c r="H28" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="I28" s="58" t="s">
         <v>530</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -33332,13 +33364,13 @@
         <v>29</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H29" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -33347,13 +33379,13 @@
         <v>30</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H30" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I30" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -33362,13 +33394,13 @@
         <v>32</v>
       </c>
       <c r="G31" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H31" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -33377,70 +33409,70 @@
         <v>36</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H32" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I32" s="58" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="59"/>
       <c r="F33" s="58" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G33" s="58" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H33" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I33" s="58" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="118"/>
       <c r="D34" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="118"/>
       <c r="D35" s="39" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="118"/>
       <c r="E36" s="39" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="118"/>
       <c r="E37" s="39" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="118"/>
       <c r="F38" s="39" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="118"/>
       <c r="E39" s="39" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.15">
@@ -33453,64 +33485,64 @@
     <row r="42" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="119"/>
       <c r="D42" s="120" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="119"/>
       <c r="E43" s="120" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="119"/>
       <c r="F44" s="120" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="119"/>
       <c r="G45" s="120" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="119"/>
       <c r="F46" s="120" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="119"/>
       <c r="G47" s="120" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="119"/>
       <c r="F48" s="120" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="119"/>
       <c r="G49" s="121" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H49" s="121" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I49" s="121" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="119"/>
       <c r="G50" s="120" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I50" s="120" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
@@ -33519,10 +33551,10 @@
         <v>30</v>
       </c>
       <c r="H51" s="120" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I51" s="120" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
@@ -33531,16 +33563,16 @@
         <v>36</v>
       </c>
       <c r="I52" s="120" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="119"/>
       <c r="G53" s="120" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I53" s="120" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
@@ -33549,34 +33581,34 @@
         <v>32</v>
       </c>
       <c r="I54" s="120" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="119"/>
       <c r="G55" s="120" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I55" s="120" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="119"/>
       <c r="G56" s="120" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I56" s="120" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="119"/>
       <c r="G57" s="120" t="s">
+        <v>1023</v>
+      </c>
+      <c r="I57" s="120" t="s">
         <v>1024</v>
-      </c>
-      <c r="I57" s="120" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
@@ -33584,12 +33616,12 @@
     </row>
     <row r="59" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D59" s="120" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E60" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -33597,46 +33629,46 @@
     <row r="61" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="119"/>
       <c r="E61" s="120" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E62" s="120" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L62" s="122" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M62" s="122"/>
     </row>
     <row r="63" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E63" s="120" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="120" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="65" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="117"/>
       <c r="C65" s="116" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="117"/>
       <c r="D66" s="116" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="117"/>
       <c r="D67" s="116" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="117"/>
       <c r="D68" s="116" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="116" customFormat="1" x14ac:dyDescent="0.15">
@@ -33645,13 +33677,13 @@
     <row r="70" spans="1:7" s="115" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A70" s="114"/>
       <c r="C70" s="116" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="113"/>
       <c r="D71" s="112" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
@@ -33660,7 +33692,7 @@
     <row r="73" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A73" s="113"/>
       <c r="E73" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -33668,25 +33700,25 @@
     <row r="74" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A74" s="113"/>
       <c r="E74" s="112" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A75" s="113"/>
       <c r="D75" s="112" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="113"/>
       <c r="E76" s="112" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A77" s="113"/>
       <c r="E77" s="112" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
@@ -33695,97 +33727,97 @@
     <row r="79" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A79" s="113"/>
       <c r="C79" s="112" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A80" s="113"/>
       <c r="D80" s="112" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A81" s="113"/>
       <c r="E81" s="112" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="113"/>
       <c r="E82" s="112" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A83" s="113"/>
       <c r="D83" s="112" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="113"/>
       <c r="E84" s="112" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="113"/>
       <c r="E85" s="112" t="s">
+        <v>864</v>
+      </c>
+      <c r="F85" s="112" t="s">
         <v>865</v>
-      </c>
-      <c r="F85" s="112" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="113"/>
       <c r="F86" s="112" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G86" s="112" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="113"/>
       <c r="F87" s="112" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G87" s="112" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="113"/>
       <c r="F88" s="112" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G88" s="112" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="113"/>
       <c r="F89" s="112" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G89" s="112" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="113"/>
       <c r="F90" s="112" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G90" s="112" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="112" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="113"/>
       <c r="E91" s="112" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="71" customFormat="1" x14ac:dyDescent="0.15">
@@ -33800,36 +33832,36 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="59"/>
       <c r="C95" s="58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="59"/>
       <c r="D96" s="58" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="59"/>
       <c r="D97" s="58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="59"/>
       <c r="E98" s="58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="59"/>
       <c r="E99" s="58" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D100" s="57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E100" s="58">
         <v>1</v>
@@ -33841,7 +33873,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="58" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I100" s="58">
         <v>19</v>
@@ -33852,22 +33884,22 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D101" s="57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E101" s="58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F101" s="58" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G101" s="58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I101" s="58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J101" s="58" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.15">
@@ -33875,17 +33907,17 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C103" s="58" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D104" s="71" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D105" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -33893,37 +33925,37 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D106" s="58" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E107" s="58" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E108" s="58" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C110" s="58" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D111" s="58" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D112" s="58" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D113" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E113" s="39"/>
       <c r="F113" s="39"/>
@@ -33931,52 +33963,52 @@
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D114" s="58" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D115" s="58" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D116" s="58" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C118" s="58" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.15">
       <c r="D119" s="58" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E120" s="58" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F121" s="58" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.15">
       <c r="E122" s="58" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F123" s="58" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C126" s="120" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -34009,166 +34041,166 @@
   <sheetData>
     <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>894</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>931</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>932</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>931</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>916</v>
-      </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>908</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B4" s="11">
         <v>10</v>
@@ -34221,7 +34253,7 @@
     </row>
     <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B5" s="11">
         <v>6</v>
@@ -34274,7 +34306,7 @@
     </row>
     <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B6" s="11">
         <v>9999</v>
@@ -34327,7 +34359,7 @@
     </row>
     <row r="7" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B7" s="11">
         <v>9999</v>
@@ -34380,7 +34412,7 @@
     </row>
     <row r="8" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B8" s="11">
         <v>9999</v>
@@ -34433,7 +34465,7 @@
     </row>
     <row r="9" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B9" s="11">
         <v>200</v>
@@ -34486,188 +34518,188 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="71" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="71" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C14" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="71" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B15" s="71" t="s">
+        <v>893</v>
+      </c>
+      <c r="C15" s="71" t="s">
         <v>894</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="71" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B16" s="84" t="s">
+        <v>907</v>
+      </c>
+      <c r="C16" s="84" t="s">
         <v>908</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="71" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="71" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C18" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="71" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B19" s="71" t="s">
+        <v>881</v>
+      </c>
+      <c r="C19" s="71" t="s">
         <v>882</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="D19" s="71" t="s">
         <v>883</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="E19" s="71" t="s">
         <v>884</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="71" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B20" s="84" t="s">
+        <v>896</v>
+      </c>
+      <c r="C20" s="84" t="s">
         <v>897</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="D20" s="84" t="s">
         <v>898</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="E20" s="84" t="s">
         <v>899</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I22" s="39"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="39" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B23" s="39" t="s">
+        <v>886</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>887</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="D23" s="39" t="s">
         <v>888</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="E23" s="39" t="s">
         <v>889</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="F23" s="39" t="s">
         <v>890</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="G23" s="39" t="s">
         <v>891</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="H23" s="39" t="s">
         <v>892</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>893</v>
       </c>
       <c r="I23" s="39"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B24" s="39" t="s">
+        <v>979</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>980</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="D24" s="39" t="s">
+        <v>903</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>904</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>915</v>
+      </c>
+      <c r="G24" s="39" t="s">
         <v>981</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>904</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>905</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>916</v>
-      </c>
-      <c r="G24" s="39" t="s">
+      <c r="H24" s="39" t="s">
         <v>982</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>983</v>
       </c>
       <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="39" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
@@ -34697,174 +34729,174 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="71" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B2" s="71" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="71" t="s">
         <v>561</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" s="71" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B4" s="71" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C5" s="70" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>499</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="E5" s="70" t="s">
         <v>500</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C6" s="71" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D7" s="73" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D8" s="73" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D9" s="73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F9" s="71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D10" s="73"/>
       <c r="E10" s="71" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D11" s="73"/>
       <c r="F11" s="71" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D12" s="73"/>
       <c r="F12" s="71" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D13" s="73" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D14" s="73" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="Q14" s="71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R14" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C15" s="71" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="D15" s="73" t="s">
-        <v>505</v>
-      </c>
       <c r="P15" s="71" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q15" s="71" t="s">
+        <v>554</v>
+      </c>
+      <c r="R15" s="75" t="s">
         <v>568</v>
       </c>
-      <c r="Q15" s="71" t="s">
-        <v>555</v>
-      </c>
-      <c r="R15" s="75" t="s">
-        <v>569</v>
-      </c>
       <c r="S15" s="71" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D16" s="71" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q16" s="71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R16" s="75" t="s">
+        <v>569</v>
+      </c>
+      <c r="S16" s="71" t="s">
         <v>570</v>
-      </c>
-      <c r="S16" s="71" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C17" s="71" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="71" t="s">
         <v>507</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="E17" s="71" t="s">
         <v>508</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q18" s="71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="R18" s="71" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="P19" s="71" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q20" s="71" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R20" s="71" t="s">
         <v>29</v>
@@ -34872,7 +34904,7 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="Q21" s="71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="R21" s="71" t="s">
         <v>30</v>
@@ -34885,7 +34917,7 @@
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="71" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="R23" s="71" t="s">
         <v>37</v>
@@ -34893,25 +34925,25 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C25" s="71" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P25" s="71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="P26" s="71" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="71" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -34936,30 +34968,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="70" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>703</v>
-      </c>
-      <c r="B1" s="70" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="71" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" s="71" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" s="71" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" s="71" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
